--- a/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/UK International.xlsx
+++ b/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/UK International.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2891" uniqueCount="357">
   <si>
     <t xml:space="preserve">Express Label </t>
   </si>
@@ -910,9 +910,6 @@
     <t>UK-422</t>
   </si>
   <si>
-    <t>FEDEX_TUBE</t>
-  </si>
-  <si>
     <t>Intl Priority Freight, Your Packaging, Dry Ice, Inaccessible Dangerous goods</t>
   </si>
   <si>
@@ -1097,13 +1094,19 @@
   </si>
   <si>
     <t>RequestedShipment.RequestedPackageLineItems.SpecialServicesRequested(Repetitions)1</t>
+  </si>
+  <si>
+    <t>80 FEDEX PARKWAY</t>
+  </si>
+  <si>
+    <t>TRUE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1199,21 +1202,35 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
-      <color rgb="FFFF0000"/>
+      <color theme="9" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1247,6 +1264,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1474,7 +1503,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1600,6 +1629,48 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="6" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="6" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1612,42 +1683,63 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="6" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="6" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1972,13 +2064,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GG48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DR1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="DW6" sqref="DW6"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AT1" sqref="AT1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="50" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="46" customWidth="1"/>
     <col min="2" max="2" width="9.125" style="41"/>
     <col min="3" max="3" width="59.75" style="41" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="19.75" style="42" customWidth="1"/>
@@ -2005,8 +2098,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:159" s="8" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
-        <v>353</v>
+      <c r="A1" s="43" t="s">
+        <v>352</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2114,7 +2207,7 @@
         <v>15</v>
       </c>
       <c r="AK1" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AL1" s="3" t="s">
         <v>16</v>
@@ -2411,7 +2504,7 @@
         <v>56</v>
       </c>
       <c r="EF1" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="EG1" s="3" t="s">
         <v>57</v>
@@ -2484,7 +2577,7 @@
       </c>
     </row>
     <row r="2" spans="1:159" s="8" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="48"/>
+      <c r="A2" s="44"/>
       <c r="B2" s="9" t="s">
         <v>67</v>
       </c>
@@ -2957,10 +3050,10 @@
       </c>
     </row>
     <row r="3" spans="1:159" s="8" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B3" s="43" t="s">
+      <c r="A3" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B3" s="59" t="s">
         <v>143</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -3278,10 +3371,10 @@
       <c r="FC3" s="21"/>
     </row>
     <row r="4" spans="1:159" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B4" s="43"/>
+      <c r="A4" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B4" s="59"/>
       <c r="C4" s="22" t="s">
         <v>183</v>
       </c>
@@ -3591,10 +3684,10 @@
       <c r="FC4" s="29"/>
     </row>
     <row r="5" spans="1:159" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B5" s="44"/>
+      <c r="A5" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B5" s="60"/>
       <c r="C5" s="22" t="s">
         <v>194</v>
       </c>
@@ -3927,306 +4020,306 @@
       <c r="FB5" s="23"/>
       <c r="FC5" s="29"/>
     </row>
-    <row r="6" spans="1:159" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="b">
-        <v>1</v>
-      </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="52" t="s">
+    <row r="6" spans="1:159" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="B6" s="61"/>
+      <c r="C6" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54" t="s">
+      <c r="F6" s="24"/>
+      <c r="G6" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="H6" s="55" t="s">
+      <c r="H6" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="I6" s="56" t="s">
+      <c r="I6" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="J6" s="54">
-        <v>10</v>
-      </c>
-      <c r="K6" s="54" t="s">
+      <c r="J6" s="24">
+        <v>17</v>
+      </c>
+      <c r="K6" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="L6" s="54">
+      <c r="L6" s="24">
         <v>605517846</v>
       </c>
-      <c r="M6" s="54" t="s">
+      <c r="M6" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="N6" s="54" t="s">
+      <c r="N6" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="O6" s="54" t="s">
+      <c r="O6" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="P6" s="54" t="s">
+      <c r="P6" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="Q6" s="54" t="s">
+      <c r="Q6" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="R6" s="57" t="s">
+      <c r="R6" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="S6" s="54" t="s">
+      <c r="S6" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="T6" s="54"/>
-      <c r="U6" s="54" t="s">
+      <c r="T6" s="24"/>
+      <c r="U6" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="V6" s="54" t="s">
+      <c r="V6" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="W6" s="54" t="s">
+      <c r="W6" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="X6" s="54" t="s">
+      <c r="X6" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="Y6" s="54" t="s">
+      <c r="Y6" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="Z6" s="54" t="s">
+      <c r="Z6" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="AA6" s="54" t="s">
+      <c r="AA6" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="AB6" s="54" t="s">
+      <c r="AB6" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="AC6" s="54">
+      <c r="AC6" s="24">
         <v>15520</v>
       </c>
-      <c r="AD6" s="54" t="s">
+      <c r="AD6" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="AE6" s="54" t="s">
+      <c r="AE6" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="AF6" s="54" t="s">
+      <c r="AF6" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="AG6" s="53" t="s">
+      <c r="AG6" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="AH6" s="53"/>
-      <c r="AI6" s="54"/>
-      <c r="AJ6" s="54"/>
-      <c r="AK6" s="54"/>
-      <c r="AL6" s="54"/>
-      <c r="AM6" s="54"/>
-      <c r="AN6" s="54"/>
-      <c r="AO6" s="54"/>
-      <c r="AP6" s="54"/>
-      <c r="AQ6" s="54"/>
-      <c r="AR6" s="54"/>
-      <c r="AS6" s="54"/>
-      <c r="AT6" s="54"/>
-      <c r="AU6" s="54"/>
-      <c r="AV6" s="54"/>
-      <c r="AW6" s="54"/>
-      <c r="AX6" s="54"/>
-      <c r="AY6" s="54"/>
-      <c r="AZ6" s="58"/>
-      <c r="BA6" s="54"/>
-      <c r="BB6" s="54"/>
-      <c r="BC6" s="56"/>
-      <c r="BD6" s="56"/>
-      <c r="BE6" s="56"/>
-      <c r="BF6" s="54"/>
-      <c r="BG6" s="54"/>
-      <c r="BH6" s="54"/>
-      <c r="BI6" s="54"/>
-      <c r="BJ6" s="54"/>
-      <c r="BK6" s="54"/>
-      <c r="BL6" s="54"/>
-      <c r="BM6" s="54"/>
-      <c r="BN6" s="54"/>
-      <c r="BO6" s="54"/>
-      <c r="BP6" s="54"/>
-      <c r="BQ6" s="54"/>
-      <c r="BR6" s="54"/>
-      <c r="BS6" s="54"/>
-      <c r="BT6" s="54"/>
-      <c r="BU6" s="54"/>
-      <c r="BV6" s="54"/>
-      <c r="BW6" s="54"/>
-      <c r="BX6" s="54"/>
-      <c r="BY6" s="54"/>
-      <c r="BZ6" s="54"/>
-      <c r="CA6" s="54"/>
-      <c r="CB6" s="54"/>
-      <c r="CC6" s="54"/>
-      <c r="CD6" s="54"/>
-      <c r="CE6" s="54"/>
-      <c r="CF6" s="54"/>
-      <c r="CG6" s="54"/>
-      <c r="CH6" s="54"/>
-      <c r="CI6" s="54"/>
-      <c r="CJ6" s="54"/>
-      <c r="CK6" s="54" t="s">
+      <c r="AH6" s="23"/>
+      <c r="AI6" s="24"/>
+      <c r="AJ6" s="24"/>
+      <c r="AK6" s="24"/>
+      <c r="AL6" s="24"/>
+      <c r="AM6" s="24"/>
+      <c r="AN6" s="24"/>
+      <c r="AO6" s="24"/>
+      <c r="AP6" s="24"/>
+      <c r="AQ6" s="24"/>
+      <c r="AR6" s="24"/>
+      <c r="AS6" s="24"/>
+      <c r="AT6" s="24"/>
+      <c r="AU6" s="24"/>
+      <c r="AV6" s="24"/>
+      <c r="AW6" s="24"/>
+      <c r="AX6" s="24"/>
+      <c r="AY6" s="28"/>
+      <c r="AZ6" s="24"/>
+      <c r="BA6" s="24"/>
+      <c r="BB6" s="26"/>
+      <c r="BC6" s="26"/>
+      <c r="BD6" s="26"/>
+      <c r="BE6" s="24"/>
+      <c r="BF6" s="24"/>
+      <c r="BG6" s="24"/>
+      <c r="BH6" s="24"/>
+      <c r="BI6" s="24"/>
+      <c r="BJ6" s="24"/>
+      <c r="BK6" s="24"/>
+      <c r="BL6" s="24"/>
+      <c r="BM6" s="24"/>
+      <c r="BN6" s="24"/>
+      <c r="BO6" s="24"/>
+      <c r="BP6" s="24"/>
+      <c r="BQ6" s="24"/>
+      <c r="BR6" s="24"/>
+      <c r="BS6" s="24"/>
+      <c r="BT6" s="24"/>
+      <c r="BU6" s="24"/>
+      <c r="BV6" s="24"/>
+      <c r="BW6" s="24"/>
+      <c r="BX6" s="24"/>
+      <c r="BY6" s="24"/>
+      <c r="BZ6" s="24"/>
+      <c r="CA6" s="24"/>
+      <c r="CB6" s="24"/>
+      <c r="CC6" s="24"/>
+      <c r="CD6" s="24"/>
+      <c r="CE6" s="24"/>
+      <c r="CF6" s="24"/>
+      <c r="CG6" s="24"/>
+      <c r="CH6" s="24"/>
+      <c r="CI6" s="24"/>
+      <c r="CJ6" s="24"/>
+      <c r="CK6" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="CL6" s="54">
+      <c r="CL6" s="24">
         <v>605517846</v>
       </c>
-      <c r="CM6" s="54" t="s">
+      <c r="CM6" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="CN6" s="53"/>
-      <c r="CO6" s="53" t="s">
+      <c r="CN6" s="23"/>
+      <c r="CO6" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="CP6" s="53" t="s">
+      <c r="CP6" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="CQ6" s="53">
+      <c r="CQ6" s="23">
         <v>1000</v>
       </c>
-      <c r="CR6" s="53" t="s">
+      <c r="CR6" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="CS6" s="53">
+      <c r="CS6" s="23">
         <v>100</v>
       </c>
-      <c r="CT6" s="53" t="s">
+      <c r="CT6" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="CU6" s="53" t="s">
+      <c r="CU6" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="CV6" s="53">
+      <c r="CV6" s="23">
         <v>100</v>
       </c>
-      <c r="CW6" s="53" t="s">
+      <c r="CW6" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="CX6" s="53">
+      <c r="CX6" s="23">
         <v>25</v>
       </c>
-      <c r="CY6" s="53" t="s">
+      <c r="CY6" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="CZ6" s="53" t="s">
+      <c r="CZ6" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="DA6" s="53">
+      <c r="DA6" s="23">
         <v>123456789</v>
       </c>
-      <c r="DB6" s="53"/>
-      <c r="DC6" s="53"/>
-      <c r="DD6" s="53">
-        <v>1</v>
-      </c>
-      <c r="DE6" s="53" t="s">
+      <c r="DB6" s="23"/>
+      <c r="DC6" s="23"/>
+      <c r="DD6" s="23">
+        <v>1</v>
+      </c>
+      <c r="DE6" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="DF6" s="53" t="s">
+      <c r="DF6" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="DG6" s="53"/>
-      <c r="DH6" s="53" t="s">
+      <c r="DG6" s="23"/>
+      <c r="DH6" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="DI6" s="54">
-        <v>10</v>
-      </c>
-      <c r="DJ6" s="53">
-        <v>1</v>
-      </c>
-      <c r="DK6" s="53" t="s">
+      <c r="DI6" s="24">
+        <v>17</v>
+      </c>
+      <c r="DJ6" s="23">
+        <v>1</v>
+      </c>
+      <c r="DK6" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="DL6" s="53" t="s">
+      <c r="DL6" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="DM6" s="53">
+      <c r="DM6" s="23">
         <v>100</v>
       </c>
-      <c r="DN6" s="53" t="s">
+      <c r="DN6" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="DO6" s="53">
+      <c r="DO6" s="23">
         <v>10000</v>
       </c>
-      <c r="DP6" s="53" t="s">
+      <c r="DP6" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="DQ6" s="54" t="s">
+      <c r="DQ6" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="DR6" s="54" t="s">
+      <c r="DR6" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="DS6" s="53">
-        <v>1</v>
-      </c>
-      <c r="DT6" s="54" t="s">
+      <c r="DS6" s="23">
+        <v>1</v>
+      </c>
+      <c r="DT6" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="DU6" s="54">
+      <c r="DU6" s="24">
         <v>100</v>
       </c>
-      <c r="DV6" s="54" t="s">
+      <c r="DV6" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="DW6" s="54">
-        <v>10</v>
-      </c>
-      <c r="DX6" s="54"/>
-      <c r="DY6" s="54"/>
-      <c r="DZ6" s="54"/>
-      <c r="EA6" s="54"/>
-      <c r="EB6" s="54" t="s">
+      <c r="DW6" s="24">
+        <v>17</v>
+      </c>
+      <c r="DX6" s="24"/>
+      <c r="DY6" s="24"/>
+      <c r="DZ6" s="24"/>
+      <c r="EA6" s="24"/>
+      <c r="EB6" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="EC6" s="54" t="s">
+      <c r="EC6" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="ED6" s="54"/>
-      <c r="EE6" s="54"/>
-      <c r="EF6" s="54"/>
-      <c r="EG6" s="54"/>
-      <c r="EH6" s="54"/>
-      <c r="EI6" s="54"/>
-      <c r="EJ6" s="54"/>
-      <c r="EK6" s="54"/>
-      <c r="EL6" s="54"/>
-      <c r="EM6" s="54"/>
-      <c r="EN6" s="53"/>
-      <c r="EO6" s="53"/>
-      <c r="EP6" s="53"/>
-      <c r="EQ6" s="53"/>
-      <c r="ER6" s="53"/>
-      <c r="ES6" s="53"/>
-      <c r="ET6" s="53"/>
-      <c r="EU6" s="53"/>
-      <c r="EV6" s="53"/>
-      <c r="EW6" s="53"/>
-      <c r="EX6" s="53"/>
-      <c r="EY6" s="53"/>
-      <c r="EZ6" s="53"/>
-      <c r="FA6" s="53"/>
-      <c r="FB6" s="53"/>
-      <c r="FC6" s="59"/>
+      <c r="ED6" s="24"/>
+      <c r="EE6" s="24"/>
+      <c r="EF6" s="24"/>
+      <c r="EG6" s="24"/>
+      <c r="EH6" s="24"/>
+      <c r="EI6" s="24"/>
+      <c r="EJ6" s="24"/>
+      <c r="EK6" s="24"/>
+      <c r="EL6" s="24"/>
+      <c r="EM6" s="24"/>
+      <c r="EN6" s="23"/>
+      <c r="EO6" s="23"/>
+      <c r="EP6" s="23"/>
+      <c r="EQ6" s="23"/>
+      <c r="ER6" s="23"/>
+      <c r="ES6" s="23"/>
+      <c r="ET6" s="23"/>
+      <c r="EU6" s="23"/>
+      <c r="EV6" s="23"/>
+      <c r="EW6" s="23"/>
+      <c r="EX6" s="23"/>
+      <c r="EY6" s="23"/>
+      <c r="EZ6" s="23"/>
+      <c r="FA6" s="23"/>
+      <c r="FB6" s="23"/>
+      <c r="FC6" s="29"/>
     </row>
     <row r="7" spans="1:159" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B7" s="45"/>
+      <c r="A7" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B7" s="61"/>
       <c r="C7" s="22" t="s">
         <v>211</v>
       </c>
@@ -4518,10 +4611,10 @@
       <c r="FC7" s="29"/>
     </row>
     <row r="8" spans="1:159" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B8" s="45"/>
+      <c r="A8" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B8" s="61"/>
       <c r="C8" s="22" t="s">
         <v>215</v>
       </c>
@@ -4542,7 +4635,7 @@
         <v>149</v>
       </c>
       <c r="J8" s="24">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="K8" s="24" t="s">
         <v>150</v>
@@ -4773,7 +4866,7 @@
         <v>150</v>
       </c>
       <c r="DI8" s="24">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="DJ8" s="23">
         <v>1</v>
@@ -4815,7 +4908,7 @@
         <v>150</v>
       </c>
       <c r="DW8" s="24">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="DX8" s="24">
         <v>20</v>
@@ -4863,10 +4956,10 @@
       <c r="FC8" s="29"/>
     </row>
     <row r="9" spans="1:159" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B9" s="45"/>
+      <c r="A9" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B9" s="61"/>
       <c r="C9" s="22" t="s">
         <v>144</v>
       </c>
@@ -5165,354 +5258,354 @@
       <c r="FB9" s="23"/>
       <c r="FC9" s="29"/>
     </row>
-    <row r="10" spans="1:159" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:159" s="58" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="22" t="s">
+      <c r="B10" s="62"/>
+      <c r="C10" s="50" t="s">
         <v>223</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24" t="s">
+      <c r="F10" s="52"/>
+      <c r="G10" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="53" t="s">
         <v>225</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="52">
         <v>100</v>
       </c>
-      <c r="K10" s="24" t="s">
+      <c r="K10" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="L10" s="24">
+      <c r="L10" s="52">
         <v>605517846</v>
       </c>
-      <c r="M10" s="24" t="s">
+      <c r="M10" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="N10" s="24" t="s">
+      <c r="N10" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="O10" s="24" t="s">
+      <c r="O10" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="P10" s="24" t="s">
+      <c r="P10" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="Q10" s="24" t="s">
+      <c r="Q10" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="R10" s="27" t="s">
+      <c r="R10" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="S10" s="24" t="s">
+      <c r="S10" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24" t="s">
+      <c r="T10" s="52"/>
+      <c r="U10" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="V10" s="24" t="s">
+      <c r="V10" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="W10" s="24" t="s">
+      <c r="W10" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="X10" s="24" t="s">
+      <c r="X10" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="Y10" s="24" t="s">
+      <c r="Y10" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="Z10" s="24" t="s">
+      <c r="Z10" s="52" t="s">
         <v>188</v>
       </c>
-      <c r="AA10" s="24" t="s">
+      <c r="AA10" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="AB10" s="24" t="s">
+      <c r="AB10" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="AC10" s="24">
+      <c r="AC10" s="52">
         <v>30339</v>
       </c>
-      <c r="AD10" s="24" t="s">
+      <c r="AD10" s="52" t="s">
         <v>222</v>
       </c>
-      <c r="AE10" s="24" t="s">
+      <c r="AE10" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="AF10" s="24" t="s">
+      <c r="AF10" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="AG10" s="23" t="s">
+      <c r="AG10" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="AH10" s="23"/>
-      <c r="AI10" s="24" t="s">
+      <c r="AH10" s="51"/>
+      <c r="AI10" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="AJ10" s="24"/>
-      <c r="AK10" s="24"/>
-      <c r="AL10" s="24"/>
-      <c r="AM10" s="24"/>
-      <c r="AN10" s="24"/>
-      <c r="AO10" s="24"/>
-      <c r="AP10" s="24"/>
-      <c r="AQ10" s="24"/>
-      <c r="AR10" s="24"/>
-      <c r="AS10" s="24"/>
-      <c r="AT10" s="24"/>
-      <c r="AU10" s="24"/>
-      <c r="AV10" s="24"/>
-      <c r="AW10" s="24"/>
-      <c r="AX10" s="24"/>
-      <c r="AY10" s="24"/>
-      <c r="AZ10" s="28"/>
-      <c r="BA10" s="24"/>
-      <c r="BB10" s="24"/>
-      <c r="BC10" s="26">
-        <v>1</v>
-      </c>
-      <c r="BD10" s="26">
+      <c r="AJ10" s="52"/>
+      <c r="AK10" s="52"/>
+      <c r="AL10" s="52"/>
+      <c r="AM10" s="52"/>
+      <c r="AN10" s="52"/>
+      <c r="AO10" s="52"/>
+      <c r="AP10" s="52"/>
+      <c r="AQ10" s="52"/>
+      <c r="AR10" s="52"/>
+      <c r="AS10" s="52"/>
+      <c r="AT10" s="52"/>
+      <c r="AU10" s="52"/>
+      <c r="AV10" s="52"/>
+      <c r="AW10" s="52"/>
+      <c r="AX10" s="52"/>
+      <c r="AY10" s="52"/>
+      <c r="AZ10" s="56"/>
+      <c r="BA10" s="52"/>
+      <c r="BB10" s="52"/>
+      <c r="BC10" s="54">
+        <v>1</v>
+      </c>
+      <c r="BD10" s="54">
         <v>101</v>
       </c>
-      <c r="BE10" s="26">
+      <c r="BE10" s="54">
         <v>123456789</v>
       </c>
-      <c r="BF10" s="24" t="s">
+      <c r="BF10" s="52" t="s">
         <v>197</v>
       </c>
-      <c r="BG10" s="24">
+      <c r="BG10" s="52">
         <v>222326460</v>
       </c>
-      <c r="BH10" s="24" t="s">
+      <c r="BH10" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="BI10" s="24">
+      <c r="BI10" s="52">
         <v>1234567890</v>
       </c>
-      <c r="BJ10" s="24">
+      <c r="BJ10" s="52">
         <v>12345</v>
       </c>
-      <c r="BK10" s="24" t="s">
+      <c r="BK10" s="52" t="s">
         <v>198</v>
       </c>
-      <c r="BL10" s="24" t="s">
+      <c r="BL10" s="52" t="s">
         <v>199</v>
       </c>
-      <c r="BM10" s="24" t="s">
+      <c r="BM10" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="BN10" s="24">
+      <c r="BN10" s="52">
         <v>8975898616</v>
       </c>
-      <c r="BO10" s="24">
+      <c r="BO10" s="52">
         <v>3293</v>
       </c>
-      <c r="BP10" s="24" t="s">
+      <c r="BP10" s="52" t="s">
         <v>200</v>
       </c>
-      <c r="BQ10" s="24" t="s">
+      <c r="BQ10" s="52" t="s">
         <v>188</v>
       </c>
-      <c r="BR10" s="24" t="s">
+      <c r="BR10" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="BS10" s="24" t="s">
+      <c r="BS10" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="BT10" s="24">
+      <c r="BT10" s="52">
         <v>30339</v>
       </c>
-      <c r="BU10" s="24" t="s">
+      <c r="BU10" s="52" t="s">
         <v>222</v>
       </c>
-      <c r="BV10" s="24"/>
-      <c r="BW10" s="24"/>
-      <c r="BX10" s="24"/>
-      <c r="BY10" s="24"/>
-      <c r="BZ10" s="24"/>
-      <c r="CA10" s="24"/>
-      <c r="CB10" s="24"/>
-      <c r="CC10" s="24"/>
-      <c r="CD10" s="24"/>
-      <c r="CE10" s="24"/>
-      <c r="CF10" s="24"/>
-      <c r="CG10" s="24"/>
-      <c r="CH10" s="24"/>
-      <c r="CI10" s="24"/>
-      <c r="CJ10" s="24"/>
-      <c r="CK10" s="24" t="s">
+      <c r="BV10" s="52"/>
+      <c r="BW10" s="52"/>
+      <c r="BX10" s="52"/>
+      <c r="BY10" s="52"/>
+      <c r="BZ10" s="52"/>
+      <c r="CA10" s="52"/>
+      <c r="CB10" s="52"/>
+      <c r="CC10" s="52"/>
+      <c r="CD10" s="52"/>
+      <c r="CE10" s="52"/>
+      <c r="CF10" s="52"/>
+      <c r="CG10" s="52"/>
+      <c r="CH10" s="52"/>
+      <c r="CI10" s="52"/>
+      <c r="CJ10" s="52"/>
+      <c r="CK10" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="CL10" s="24" t="s">
+      <c r="CL10" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="CM10" s="24" t="s">
+      <c r="CM10" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="CN10" s="23"/>
-      <c r="CO10" s="23" t="s">
+      <c r="CN10" s="51"/>
+      <c r="CO10" s="51" t="s">
         <v>171</v>
       </c>
-      <c r="CP10" s="23" t="s">
+      <c r="CP10" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="CQ10" s="23">
+      <c r="CQ10" s="51">
         <v>600</v>
       </c>
-      <c r="CR10" s="23" t="s">
+      <c r="CR10" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="CS10" s="23">
+      <c r="CS10" s="51">
         <v>50</v>
       </c>
-      <c r="CT10" s="23" t="s">
+      <c r="CT10" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="CU10" s="23" t="s">
+      <c r="CU10" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="CV10" s="23">
+      <c r="CV10" s="51">
         <v>100</v>
       </c>
-      <c r="CW10" s="23" t="s">
+      <c r="CW10" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="CX10" s="23">
+      <c r="CX10" s="51">
         <v>25</v>
       </c>
-      <c r="CY10" s="23" t="s">
+      <c r="CY10" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="CZ10" s="23" t="s">
+      <c r="CZ10" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="DA10" s="23">
+      <c r="DA10" s="51">
         <v>123456789</v>
       </c>
-      <c r="DB10" s="23"/>
-      <c r="DC10" s="23"/>
-      <c r="DD10" s="23">
-        <v>1</v>
-      </c>
-      <c r="DE10" s="23" t="s">
+      <c r="DB10" s="51"/>
+      <c r="DC10" s="51"/>
+      <c r="DD10" s="51">
+        <v>1</v>
+      </c>
+      <c r="DE10" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="DF10" s="23" t="s">
+      <c r="DF10" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="DG10" s="23"/>
-      <c r="DH10" s="23" t="s">
+      <c r="DG10" s="51"/>
+      <c r="DH10" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="DI10" s="24">
+      <c r="DI10" s="52">
         <v>100</v>
       </c>
-      <c r="DJ10" s="23">
-        <v>1</v>
-      </c>
-      <c r="DK10" s="23" t="s">
+      <c r="DJ10" s="51">
+        <v>1</v>
+      </c>
+      <c r="DK10" s="51" t="s">
         <v>177</v>
       </c>
-      <c r="DL10" s="23" t="s">
+      <c r="DL10" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="DM10" s="23">
+      <c r="DM10" s="51">
         <v>100</v>
       </c>
-      <c r="DN10" s="23" t="s">
+      <c r="DN10" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="DO10" s="23">
+      <c r="DO10" s="51">
         <v>600</v>
       </c>
-      <c r="DP10" s="23" t="s">
+      <c r="DP10" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="DQ10" s="24" t="s">
+      <c r="DQ10" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="DR10" s="24" t="s">
+      <c r="DR10" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="DS10" s="23">
-        <v>1</v>
-      </c>
-      <c r="DT10" s="24" t="s">
+      <c r="DS10" s="51">
+        <v>1</v>
+      </c>
+      <c r="DT10" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="DU10" s="24">
+      <c r="DU10" s="52">
         <v>500</v>
       </c>
-      <c r="DV10" s="24" t="s">
+      <c r="DV10" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="DW10" s="24">
+      <c r="DW10" s="52">
         <v>100</v>
       </c>
-      <c r="DX10" s="24">
+      <c r="DX10" s="52">
         <v>50</v>
       </c>
-      <c r="DY10" s="24">
+      <c r="DY10" s="52">
         <v>50</v>
       </c>
-      <c r="DZ10" s="24">
+      <c r="DZ10" s="52">
         <v>50</v>
       </c>
-      <c r="EA10" s="24" t="s">
+      <c r="EA10" s="52" t="s">
         <v>182</v>
       </c>
-      <c r="EB10" s="24" t="s">
+      <c r="EB10" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="EC10" s="24" t="s">
+      <c r="EC10" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="ED10" s="24"/>
-      <c r="EE10" s="24"/>
-      <c r="EF10" s="24"/>
-      <c r="EG10" s="24"/>
-      <c r="EH10" s="24"/>
-      <c r="EI10" s="24"/>
-      <c r="EJ10" s="24"/>
-      <c r="EK10" s="24"/>
-      <c r="EL10" s="24"/>
-      <c r="EM10" s="24"/>
-      <c r="EN10" s="23"/>
-      <c r="EO10" s="23"/>
-      <c r="EP10" s="23"/>
-      <c r="EQ10" s="23"/>
-      <c r="ER10" s="23"/>
-      <c r="ES10" s="23"/>
-      <c r="ET10" s="23"/>
-      <c r="EU10" s="23"/>
-      <c r="EV10" s="23"/>
-      <c r="EW10" s="23"/>
-      <c r="EX10" s="23"/>
-      <c r="EY10" s="23"/>
-      <c r="EZ10" s="23"/>
-      <c r="FA10" s="23"/>
-      <c r="FB10" s="23"/>
-      <c r="FC10" s="29"/>
+      <c r="ED10" s="52"/>
+      <c r="EE10" s="52"/>
+      <c r="EF10" s="52"/>
+      <c r="EG10" s="52"/>
+      <c r="EH10" s="52"/>
+      <c r="EI10" s="52"/>
+      <c r="EJ10" s="52"/>
+      <c r="EK10" s="52"/>
+      <c r="EL10" s="52"/>
+      <c r="EM10" s="52"/>
+      <c r="EN10" s="51"/>
+      <c r="EO10" s="51"/>
+      <c r="EP10" s="51"/>
+      <c r="EQ10" s="51"/>
+      <c r="ER10" s="51"/>
+      <c r="ES10" s="51"/>
+      <c r="ET10" s="51"/>
+      <c r="EU10" s="51"/>
+      <c r="EV10" s="51"/>
+      <c r="EW10" s="51"/>
+      <c r="EX10" s="51"/>
+      <c r="EY10" s="51"/>
+      <c r="EZ10" s="51"/>
+      <c r="FA10" s="51"/>
+      <c r="FB10" s="51"/>
+      <c r="FC10" s="57"/>
     </row>
     <row r="11" spans="1:159" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B11" s="45"/>
+      <c r="A11" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B11" s="61"/>
       <c r="C11" s="22" t="s">
         <v>228</v>
       </c>
@@ -5818,10 +5911,10 @@
       <c r="FC11" s="29"/>
     </row>
     <row r="12" spans="1:159" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B12" s="45"/>
+      <c r="A12" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B12" s="61"/>
       <c r="C12" s="22" t="s">
         <v>231</v>
       </c>
@@ -6157,10 +6250,10 @@
       </c>
     </row>
     <row r="13" spans="1:159" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B13" s="45"/>
+      <c r="A13" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B13" s="61"/>
       <c r="C13" s="22" t="s">
         <v>244</v>
       </c>
@@ -6498,10 +6591,10 @@
       </c>
     </row>
     <row r="14" spans="1:159" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B14" s="45"/>
+      <c r="A14" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B14" s="61"/>
       <c r="C14" s="22" t="s">
         <v>250</v>
       </c>
@@ -6522,7 +6615,7 @@
         <v>206</v>
       </c>
       <c r="J14" s="24">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="K14" s="24" t="s">
         <v>150</v>
@@ -6711,7 +6804,7 @@
         <v>150</v>
       </c>
       <c r="DI14" s="24">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="DJ14" s="23">
         <v>1</v>
@@ -6753,7 +6846,7 @@
         <v>150</v>
       </c>
       <c r="DW14" s="24">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="DX14" s="24"/>
       <c r="DY14" s="24"/>
@@ -6798,358 +6891,358 @@
       <c r="FB14" s="23"/>
       <c r="FC14" s="29"/>
     </row>
-    <row r="15" spans="1:159" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:159" s="58" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="22" t="s">
+      <c r="B15" s="62"/>
+      <c r="C15" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="52" t="s">
         <v>256</v>
       </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24" t="s">
+      <c r="F15" s="52"/>
+      <c r="G15" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="53" t="s">
         <v>217</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="J15" s="24">
-        <v>10</v>
-      </c>
-      <c r="K15" s="24" t="s">
+      <c r="J15" s="52">
+        <v>70</v>
+      </c>
+      <c r="K15" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="L15" s="24">
+      <c r="L15" s="52">
         <v>605517846</v>
       </c>
-      <c r="M15" s="24" t="s">
+      <c r="M15" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="N15" s="24" t="s">
+      <c r="N15" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="O15" s="24" t="s">
+      <c r="O15" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="P15" s="24" t="s">
+      <c r="P15" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="Q15" s="24" t="s">
+      <c r="Q15" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="R15" s="27" t="s">
+      <c r="R15" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="S15" s="24" t="s">
+      <c r="S15" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24" t="s">
+      <c r="T15" s="52"/>
+      <c r="U15" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="V15" s="24" t="s">
+      <c r="V15" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="W15" s="24" t="s">
+      <c r="W15" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="X15" s="24" t="s">
+      <c r="X15" s="52" t="s">
         <v>256</v>
       </c>
-      <c r="Y15" s="24" t="s">
+      <c r="Y15" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="Z15" s="24" t="s">
+      <c r="Z15" s="52" t="s">
         <v>188</v>
       </c>
-      <c r="AA15" s="24" t="s">
+      <c r="AA15" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="AB15" s="24" t="s">
+      <c r="AB15" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="AC15" s="24">
+      <c r="AC15" s="52">
         <v>30339</v>
       </c>
-      <c r="AD15" s="24" t="s">
+      <c r="AD15" s="52" t="s">
         <v>222</v>
       </c>
-      <c r="AE15" s="24" t="s">
+      <c r="AE15" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="AF15" s="24" t="s">
+      <c r="AF15" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="AG15" s="23" t="s">
+      <c r="AG15" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="AH15" s="23"/>
-      <c r="AI15" s="24" t="s">
+      <c r="AH15" s="51"/>
+      <c r="AI15" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="AJ15" s="24"/>
-      <c r="AK15" s="24"/>
-      <c r="AL15" s="24"/>
-      <c r="AM15" s="24"/>
-      <c r="AN15" s="24"/>
-      <c r="AO15" s="24"/>
-      <c r="AP15" s="24"/>
-      <c r="AQ15" s="24"/>
-      <c r="AR15" s="24"/>
-      <c r="AS15" s="24"/>
-      <c r="AT15" s="24"/>
-      <c r="AU15" s="24"/>
-      <c r="AV15" s="24"/>
-      <c r="AW15" s="24"/>
-      <c r="AX15" s="24"/>
-      <c r="AY15" s="24"/>
-      <c r="AZ15" s="28"/>
-      <c r="BA15" s="24"/>
-      <c r="BB15" s="24"/>
-      <c r="BC15" s="26">
-        <v>1</v>
-      </c>
-      <c r="BD15" s="26">
+      <c r="AJ15" s="52"/>
+      <c r="AK15" s="52"/>
+      <c r="AL15" s="52"/>
+      <c r="AM15" s="52"/>
+      <c r="AN15" s="52"/>
+      <c r="AO15" s="52"/>
+      <c r="AP15" s="52"/>
+      <c r="AQ15" s="52"/>
+      <c r="AR15" s="52"/>
+      <c r="AS15" s="52"/>
+      <c r="AT15" s="52"/>
+      <c r="AU15" s="52"/>
+      <c r="AV15" s="52"/>
+      <c r="AW15" s="52"/>
+      <c r="AX15" s="52"/>
+      <c r="AY15" s="52"/>
+      <c r="AZ15" s="56"/>
+      <c r="BA15" s="52"/>
+      <c r="BB15" s="52"/>
+      <c r="BC15" s="54">
+        <v>1</v>
+      </c>
+      <c r="BD15" s="54">
         <v>101</v>
       </c>
-      <c r="BE15" s="26">
+      <c r="BE15" s="54">
         <v>123456789</v>
       </c>
-      <c r="BF15" s="24" t="s">
+      <c r="BF15" s="52" t="s">
         <v>197</v>
       </c>
-      <c r="BG15" s="24">
+      <c r="BG15" s="52">
         <v>222326460</v>
       </c>
-      <c r="BH15" s="24" t="s">
+      <c r="BH15" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="BI15" s="24">
+      <c r="BI15" s="52">
         <v>1234567890</v>
       </c>
-      <c r="BJ15" s="24">
+      <c r="BJ15" s="52">
         <v>12345</v>
       </c>
-      <c r="BK15" s="24" t="s">
+      <c r="BK15" s="52" t="s">
         <v>198</v>
       </c>
-      <c r="BL15" s="24" t="s">
+      <c r="BL15" s="52" t="s">
         <v>199</v>
       </c>
-      <c r="BM15" s="24" t="s">
+      <c r="BM15" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="BN15" s="24">
+      <c r="BN15" s="52">
         <v>8975898616</v>
       </c>
-      <c r="BO15" s="24">
+      <c r="BO15" s="52">
         <v>3293</v>
       </c>
-      <c r="BP15" s="24" t="s">
+      <c r="BP15" s="52" t="s">
         <v>200</v>
       </c>
-      <c r="BQ15" s="24" t="s">
+      <c r="BQ15" s="52" t="s">
         <v>188</v>
       </c>
-      <c r="BR15" s="24" t="s">
+      <c r="BR15" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="BS15" s="24" t="s">
+      <c r="BS15" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="BT15" s="24">
+      <c r="BT15" s="52">
         <v>30339</v>
       </c>
-      <c r="BU15" s="24" t="s">
+      <c r="BU15" s="52" t="s">
         <v>222</v>
       </c>
-      <c r="BV15" s="24"/>
-      <c r="BW15" s="24"/>
-      <c r="BX15" s="24"/>
-      <c r="BY15" s="24"/>
-      <c r="BZ15" s="24"/>
-      <c r="CA15" s="24"/>
-      <c r="CB15" s="24"/>
-      <c r="CC15" s="24"/>
-      <c r="CD15" s="24"/>
-      <c r="CE15" s="24"/>
-      <c r="CF15" s="24"/>
-      <c r="CG15" s="24"/>
-      <c r="CH15" s="24"/>
-      <c r="CI15" s="24" t="s">
+      <c r="BV15" s="52"/>
+      <c r="BW15" s="52"/>
+      <c r="BX15" s="52"/>
+      <c r="BY15" s="52"/>
+      <c r="BZ15" s="52"/>
+      <c r="CA15" s="52"/>
+      <c r="CB15" s="52"/>
+      <c r="CC15" s="52"/>
+      <c r="CD15" s="52"/>
+      <c r="CE15" s="52"/>
+      <c r="CF15" s="52"/>
+      <c r="CG15" s="52"/>
+      <c r="CH15" s="52"/>
+      <c r="CI15" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="CJ15" s="24">
+      <c r="CJ15" s="52">
         <v>123456789</v>
       </c>
-      <c r="CK15" s="24" t="s">
+      <c r="CK15" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="CL15" s="24" t="s">
+      <c r="CL15" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="CM15" s="24" t="s">
+      <c r="CM15" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="CN15" s="23"/>
-      <c r="CO15" s="23" t="s">
+      <c r="CN15" s="51"/>
+      <c r="CO15" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="CP15" s="23" t="s">
+      <c r="CP15" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="CQ15" s="23">
+      <c r="CQ15" s="51">
         <v>2000</v>
       </c>
-      <c r="CR15" s="23" t="s">
+      <c r="CR15" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="CS15" s="23">
+      <c r="CS15" s="51">
         <v>50</v>
       </c>
-      <c r="CT15" s="23" t="s">
+      <c r="CT15" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="CU15" s="23" t="s">
+      <c r="CU15" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="CV15" s="23">
+      <c r="CV15" s="51">
         <v>100</v>
       </c>
-      <c r="CW15" s="23" t="s">
+      <c r="CW15" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="CX15" s="23">
+      <c r="CX15" s="51">
         <v>25</v>
       </c>
-      <c r="CY15" s="23" t="s">
+      <c r="CY15" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="CZ15" s="23" t="s">
+      <c r="CZ15" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="DA15" s="23">
+      <c r="DA15" s="51">
         <v>123456789</v>
       </c>
-      <c r="DB15" s="23"/>
-      <c r="DC15" s="23"/>
-      <c r="DD15" s="23">
-        <v>1</v>
-      </c>
-      <c r="DE15" s="23" t="s">
+      <c r="DB15" s="51"/>
+      <c r="DC15" s="51"/>
+      <c r="DD15" s="51">
+        <v>1</v>
+      </c>
+      <c r="DE15" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="DF15" s="23" t="s">
+      <c r="DF15" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="DG15" s="23"/>
-      <c r="DH15" s="23" t="s">
+      <c r="DG15" s="51"/>
+      <c r="DH15" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="DI15" s="24">
-        <v>10</v>
-      </c>
-      <c r="DJ15" s="23">
-        <v>1</v>
-      </c>
-      <c r="DK15" s="23" t="s">
+      <c r="DI15" s="52">
+        <v>70</v>
+      </c>
+      <c r="DJ15" s="51">
+        <v>1</v>
+      </c>
+      <c r="DK15" s="51" t="s">
         <v>177</v>
       </c>
-      <c r="DL15" s="23" t="s">
+      <c r="DL15" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="DM15" s="23">
+      <c r="DM15" s="51">
         <v>100</v>
       </c>
-      <c r="DN15" s="23" t="s">
+      <c r="DN15" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="DO15" s="23">
+      <c r="DO15" s="51">
         <v>2000</v>
       </c>
-      <c r="DP15" s="23" t="s">
+      <c r="DP15" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="DQ15" s="24" t="s">
+      <c r="DQ15" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="DR15" s="24" t="s">
+      <c r="DR15" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="DS15" s="23">
-        <v>1</v>
-      </c>
-      <c r="DT15" s="24" t="s">
+      <c r="DS15" s="51">
+        <v>1</v>
+      </c>
+      <c r="DT15" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="DU15" s="24">
+      <c r="DU15" s="52">
         <v>800</v>
       </c>
-      <c r="DV15" s="24" t="s">
+      <c r="DV15" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="DW15" s="24">
-        <v>10</v>
-      </c>
-      <c r="DX15" s="24">
+      <c r="DW15" s="52">
+        <v>70</v>
+      </c>
+      <c r="DX15" s="52">
         <v>20</v>
       </c>
-      <c r="DY15" s="24">
+      <c r="DY15" s="52">
         <v>20</v>
       </c>
-      <c r="DZ15" s="24">
+      <c r="DZ15" s="52">
         <v>20</v>
       </c>
-      <c r="EA15" s="24" t="s">
+      <c r="EA15" s="52" t="s">
         <v>182</v>
       </c>
-      <c r="EB15" s="24" t="s">
+      <c r="EB15" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="EC15" s="24" t="s">
+      <c r="EC15" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="ED15" s="24"/>
-      <c r="EE15" s="24"/>
-      <c r="EF15" s="24"/>
-      <c r="EG15" s="24"/>
-      <c r="EH15" s="24"/>
-      <c r="EI15" s="24"/>
-      <c r="EJ15" s="24"/>
-      <c r="EK15" s="24"/>
-      <c r="EL15" s="24"/>
-      <c r="EM15" s="24"/>
-      <c r="EN15" s="23"/>
-      <c r="EO15" s="23"/>
-      <c r="EP15" s="23"/>
-      <c r="EQ15" s="23"/>
-      <c r="ER15" s="23"/>
-      <c r="ES15" s="23"/>
-      <c r="ET15" s="23"/>
-      <c r="EU15" s="23"/>
-      <c r="EV15" s="23"/>
-      <c r="EW15" s="23"/>
-      <c r="EX15" s="23"/>
-      <c r="EY15" s="23"/>
-      <c r="EZ15" s="23"/>
-      <c r="FA15" s="23"/>
-      <c r="FB15" s="23"/>
-      <c r="FC15" s="29"/>
+      <c r="ED15" s="52"/>
+      <c r="EE15" s="52"/>
+      <c r="EF15" s="52"/>
+      <c r="EG15" s="52"/>
+      <c r="EH15" s="52"/>
+      <c r="EI15" s="52"/>
+      <c r="EJ15" s="52"/>
+      <c r="EK15" s="52"/>
+      <c r="EL15" s="52"/>
+      <c r="EM15" s="52"/>
+      <c r="EN15" s="51"/>
+      <c r="EO15" s="51"/>
+      <c r="EP15" s="51"/>
+      <c r="EQ15" s="51"/>
+      <c r="ER15" s="51"/>
+      <c r="ES15" s="51"/>
+      <c r="ET15" s="51"/>
+      <c r="EU15" s="51"/>
+      <c r="EV15" s="51"/>
+      <c r="EW15" s="51"/>
+      <c r="EX15" s="51"/>
+      <c r="EY15" s="51"/>
+      <c r="EZ15" s="51"/>
+      <c r="FA15" s="51"/>
+      <c r="FB15" s="51"/>
+      <c r="FC15" s="57"/>
     </row>
     <row r="16" spans="1:159" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B16" s="45"/>
+      <c r="A16" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B16" s="61"/>
       <c r="C16" s="22" t="s">
         <v>144</v>
       </c>
@@ -7465,10 +7558,10 @@
       <c r="FC16" s="29"/>
     </row>
     <row r="17" spans="1:159" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B17" s="45"/>
+      <c r="A17" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B17" s="61"/>
       <c r="C17" s="22" t="s">
         <v>258</v>
       </c>
@@ -7489,7 +7582,7 @@
         <v>206</v>
       </c>
       <c r="J17" s="24">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K17" s="24" t="s">
         <v>150</v>
@@ -7678,7 +7771,7 @@
         <v>150</v>
       </c>
       <c r="DI17" s="24">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="DJ17" s="23">
         <v>1</v>
@@ -7720,7 +7813,7 @@
         <v>150</v>
       </c>
       <c r="DW17" s="24">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="DX17" s="24"/>
       <c r="DY17" s="24"/>
@@ -7764,10 +7857,10 @@
       <c r="FC17" s="29"/>
     </row>
     <row r="18" spans="1:159" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B18" s="46"/>
+      <c r="A18" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B18" s="62"/>
       <c r="C18" s="22" t="s">
         <v>261</v>
       </c>
@@ -8076,304 +8169,312 @@
       <c r="FB18" s="23"/>
       <c r="FC18" s="29"/>
     </row>
-    <row r="19" spans="1:159" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="22" t="s">
+    <row r="19" spans="1:159" s="72" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="B19" s="61"/>
+      <c r="C19" s="64" t="s">
         <v>269</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="66" t="s">
         <v>270</v>
       </c>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24" t="s">
+      <c r="F19" s="66"/>
+      <c r="G19" s="66" t="s">
         <v>185</v>
       </c>
-      <c r="H19" s="25" t="s">
+      <c r="H19" s="67" t="s">
         <v>186</v>
       </c>
-      <c r="I19" s="26" t="s">
+      <c r="I19" s="68" t="s">
         <v>271</v>
       </c>
-      <c r="J19" s="24">
-        <v>11</v>
-      </c>
-      <c r="K19" s="24" t="s">
+      <c r="J19" s="66">
+        <v>1</v>
+      </c>
+      <c r="K19" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="L19" s="24">
+      <c r="L19" s="66">
         <v>605517846</v>
       </c>
-      <c r="M19" s="24" t="s">
+      <c r="M19" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="N19" s="24" t="s">
+      <c r="N19" s="66" t="s">
         <v>152</v>
       </c>
-      <c r="O19" s="24" t="s">
+      <c r="O19" s="66" t="s">
         <v>153</v>
       </c>
-      <c r="P19" s="24" t="s">
+      <c r="P19" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="Q19" s="24" t="s">
+      <c r="Q19" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="R19" s="27" t="s">
+      <c r="R19" s="69" t="s">
         <v>156</v>
       </c>
-      <c r="S19" s="24" t="s">
+      <c r="S19" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24" t="s">
+      <c r="T19" s="66"/>
+      <c r="U19" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="V19" s="24" t="s">
+      <c r="V19" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="W19" s="24" t="s">
+      <c r="W19" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="X19" s="24" t="s">
+      <c r="X19" s="66" t="s">
         <v>270</v>
       </c>
-      <c r="Y19" s="24">
+      <c r="Y19" s="66">
         <v>61293286200</v>
       </c>
-      <c r="Z19" s="24" t="s">
+      <c r="Z19" s="66" t="s">
         <v>272</v>
       </c>
-      <c r="AA19" s="24" t="s">
+      <c r="AA19" s="66" t="s">
         <v>273</v>
       </c>
-      <c r="AB19" s="24"/>
-      <c r="AC19" s="24">
+      <c r="AB19" s="66"/>
+      <c r="AC19" s="66">
         <v>2028</v>
       </c>
-      <c r="AD19" s="24" t="s">
+      <c r="AD19" s="66" t="s">
         <v>274</v>
       </c>
-      <c r="AE19" s="24" t="s">
+      <c r="AE19" s="66" t="s">
         <v>246</v>
       </c>
-      <c r="AF19" s="24">
+      <c r="AF19" s="66">
         <v>150067600</v>
       </c>
-      <c r="AG19" s="23" t="s">
+      <c r="AG19" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="AH19" s="23"/>
-      <c r="AI19" s="24"/>
-      <c r="AJ19" s="24"/>
-      <c r="AK19" s="24"/>
-      <c r="AL19" s="24"/>
-      <c r="AM19" s="24"/>
-      <c r="AN19" s="24"/>
-      <c r="AO19" s="24"/>
-      <c r="AP19" s="24"/>
-      <c r="AQ19" s="24"/>
-      <c r="AR19" s="24"/>
-      <c r="AS19" s="24"/>
-      <c r="AT19" s="24"/>
-      <c r="AU19" s="24"/>
-      <c r="AV19" s="24"/>
-      <c r="AW19" s="24"/>
-      <c r="AX19" s="24"/>
-      <c r="AY19" s="24"/>
-      <c r="AZ19" s="28"/>
-      <c r="BA19" s="24"/>
-      <c r="BB19" s="24"/>
-      <c r="BC19" s="26"/>
-      <c r="BD19" s="26"/>
-      <c r="BE19" s="26"/>
-      <c r="BF19" s="24"/>
-      <c r="BG19" s="24"/>
-      <c r="BH19" s="24"/>
-      <c r="BI19" s="24"/>
-      <c r="BJ19" s="24"/>
-      <c r="BK19" s="24"/>
-      <c r="BL19" s="24"/>
-      <c r="BM19" s="24"/>
-      <c r="BN19" s="24"/>
-      <c r="BO19" s="24"/>
-      <c r="BP19" s="24"/>
-      <c r="BQ19" s="24"/>
-      <c r="BR19" s="24"/>
-      <c r="BS19" s="24"/>
-      <c r="BT19" s="24"/>
-      <c r="BU19" s="24"/>
-      <c r="BV19" s="24"/>
-      <c r="BW19" s="24"/>
-      <c r="BX19" s="24"/>
-      <c r="BY19" s="24"/>
-      <c r="BZ19" s="24"/>
-      <c r="CA19" s="24"/>
-      <c r="CB19" s="24"/>
-      <c r="CC19" s="24"/>
-      <c r="CD19" s="24"/>
-      <c r="CE19" s="24"/>
-      <c r="CF19" s="24"/>
-      <c r="CG19" s="24"/>
-      <c r="CH19" s="24"/>
-      <c r="CI19" s="24"/>
-      <c r="CJ19" s="24"/>
-      <c r="CK19" s="24" t="s">
+      <c r="AH19" s="65"/>
+      <c r="AI19" s="66"/>
+      <c r="AJ19" s="66"/>
+      <c r="AK19" s="66"/>
+      <c r="AL19" s="66"/>
+      <c r="AM19" s="66"/>
+      <c r="AN19" s="66"/>
+      <c r="AO19" s="66"/>
+      <c r="AP19" s="66"/>
+      <c r="AQ19" s="66"/>
+      <c r="AR19" s="66"/>
+      <c r="AS19" s="66"/>
+      <c r="AT19" s="66"/>
+      <c r="AU19" s="66"/>
+      <c r="AV19" s="66"/>
+      <c r="AW19" s="66"/>
+      <c r="AX19" s="66"/>
+      <c r="AY19" s="66"/>
+      <c r="AZ19" s="70"/>
+      <c r="BA19" s="66"/>
+      <c r="BB19" s="66"/>
+      <c r="BC19" s="68"/>
+      <c r="BD19" s="68"/>
+      <c r="BE19" s="68"/>
+      <c r="BF19" s="66"/>
+      <c r="BG19" s="66"/>
+      <c r="BH19" s="66"/>
+      <c r="BI19" s="66"/>
+      <c r="BJ19" s="66"/>
+      <c r="BK19" s="66"/>
+      <c r="BL19" s="66"/>
+      <c r="BM19" s="66"/>
+      <c r="BN19" s="66"/>
+      <c r="BO19" s="66"/>
+      <c r="BP19" s="66"/>
+      <c r="BQ19" s="66"/>
+      <c r="BR19" s="66"/>
+      <c r="BS19" s="66"/>
+      <c r="BT19" s="66"/>
+      <c r="BU19" s="66"/>
+      <c r="BV19" s="66"/>
+      <c r="BW19" s="66"/>
+      <c r="BX19" s="66"/>
+      <c r="BY19" s="66"/>
+      <c r="BZ19" s="66"/>
+      <c r="CA19" s="66"/>
+      <c r="CB19" s="66"/>
+      <c r="CC19" s="66"/>
+      <c r="CD19" s="66"/>
+      <c r="CE19" s="66"/>
+      <c r="CF19" s="66"/>
+      <c r="CG19" s="66"/>
+      <c r="CH19" s="66"/>
+      <c r="CI19" s="66"/>
+      <c r="CJ19" s="66"/>
+      <c r="CK19" s="66" t="s">
         <v>246</v>
       </c>
-      <c r="CL19" s="24">
+      <c r="CL19" s="66">
         <v>222326460</v>
       </c>
-      <c r="CM19" s="24" t="s">
+      <c r="CM19" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="CN19" s="23"/>
-      <c r="CO19" s="23" t="s">
+      <c r="CN19" s="65"/>
+      <c r="CO19" s="65" t="s">
         <v>171</v>
       </c>
-      <c r="CP19" s="23" t="s">
+      <c r="CP19" s="65" t="s">
         <v>275</v>
       </c>
-      <c r="CQ19" s="23">
+      <c r="CQ19" s="65">
         <v>200</v>
       </c>
-      <c r="CR19" s="23" t="s">
+      <c r="CR19" s="65" t="s">
         <v>275</v>
       </c>
-      <c r="CS19" s="23">
+      <c r="CS19" s="65">
         <v>10</v>
       </c>
-      <c r="CT19" s="23" t="s">
+      <c r="CT19" s="65" t="s">
         <v>173</v>
       </c>
-      <c r="CU19" s="23" t="s">
+      <c r="CU19" s="65" t="s">
         <v>275</v>
       </c>
-      <c r="CV19" s="23">
+      <c r="CV19" s="65">
         <v>100</v>
       </c>
-      <c r="CW19" s="23" t="s">
+      <c r="CW19" s="65" t="s">
         <v>275</v>
       </c>
-      <c r="CX19" s="23">
+      <c r="CX19" s="65">
         <v>25</v>
       </c>
-      <c r="CY19" s="23" t="s">
+      <c r="CY19" s="65" t="s">
         <v>174</v>
       </c>
-      <c r="CZ19" s="23" t="s">
+      <c r="CZ19" s="65" t="s">
         <v>175</v>
       </c>
-      <c r="DA19" s="23">
+      <c r="DA19" s="65">
         <v>123456789</v>
       </c>
-      <c r="DB19" s="23"/>
-      <c r="DC19" s="23"/>
-      <c r="DD19" s="23">
-        <v>1</v>
-      </c>
-      <c r="DE19" s="23" t="s">
+      <c r="DB19" s="65"/>
+      <c r="DC19" s="65"/>
+      <c r="DD19" s="65">
+        <v>1</v>
+      </c>
+      <c r="DE19" s="65" t="s">
         <v>176</v>
       </c>
-      <c r="DF19" s="23" t="s">
+      <c r="DF19" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="DG19" s="23"/>
-      <c r="DH19" s="23" t="s">
+      <c r="DG19" s="65"/>
+      <c r="DH19" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="DI19" s="24">
-        <v>11</v>
-      </c>
-      <c r="DJ19" s="23">
-        <v>1</v>
-      </c>
-      <c r="DK19" s="23" t="s">
+      <c r="DI19" s="66">
+        <v>1</v>
+      </c>
+      <c r="DJ19" s="65">
+        <v>1</v>
+      </c>
+      <c r="DK19" s="65" t="s">
         <v>177</v>
       </c>
-      <c r="DL19" s="23" t="s">
+      <c r="DL19" s="65" t="s">
         <v>275</v>
       </c>
-      <c r="DM19" s="23">
+      <c r="DM19" s="65">
         <v>100</v>
       </c>
-      <c r="DN19" s="23" t="s">
+      <c r="DN19" s="65" t="s">
         <v>275</v>
       </c>
-      <c r="DO19" s="23">
+      <c r="DO19" s="65">
         <v>200</v>
       </c>
-      <c r="DP19" s="23" t="s">
+      <c r="DP19" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="DQ19" s="24" t="s">
+      <c r="DQ19" s="66" t="s">
         <v>179</v>
       </c>
-      <c r="DR19" s="24" t="s">
+      <c r="DR19" s="66" t="s">
         <v>180</v>
       </c>
-      <c r="DS19" s="23">
-        <v>1</v>
-      </c>
-      <c r="DT19" s="24" t="s">
+      <c r="DS19" s="65">
+        <v>1</v>
+      </c>
+      <c r="DT19" s="66" t="s">
         <v>275</v>
       </c>
-      <c r="DU19" s="24">
+      <c r="DU19" s="66">
         <v>66</v>
       </c>
-      <c r="DV19" s="24" t="s">
+      <c r="DV19" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="DW19" s="24">
-        <v>11</v>
-      </c>
-      <c r="DX19" s="24"/>
-      <c r="DY19" s="24"/>
-      <c r="DZ19" s="24"/>
-      <c r="EA19" s="24"/>
-      <c r="EB19" s="24" t="s">
+      <c r="DW19" s="66">
+        <v>1</v>
+      </c>
+      <c r="DX19" s="66">
+        <v>31</v>
+      </c>
+      <c r="DY19" s="66">
+        <v>40</v>
+      </c>
+      <c r="DZ19" s="66">
+        <v>5</v>
+      </c>
+      <c r="EA19" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="EB19" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="EC19" s="24" t="s">
+      <c r="EC19" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="ED19" s="24"/>
-      <c r="EE19" s="24"/>
-      <c r="EF19" s="24"/>
-      <c r="EG19" s="24"/>
-      <c r="EH19" s="24"/>
-      <c r="EI19" s="24"/>
-      <c r="EJ19" s="24"/>
-      <c r="EK19" s="24"/>
-      <c r="EL19" s="24"/>
-      <c r="EM19" s="24"/>
-      <c r="EN19" s="23"/>
-      <c r="EO19" s="23"/>
-      <c r="EP19" s="23"/>
-      <c r="EQ19" s="23"/>
-      <c r="ER19" s="23"/>
-      <c r="ES19" s="23"/>
-      <c r="ET19" s="23"/>
-      <c r="EU19" s="23"/>
-      <c r="EV19" s="23"/>
-      <c r="EW19" s="23"/>
-      <c r="EX19" s="23"/>
-      <c r="EY19" s="23"/>
-      <c r="EZ19" s="23"/>
-      <c r="FA19" s="23"/>
-      <c r="FB19" s="23"/>
-      <c r="FC19" s="29"/>
+      <c r="ED19" s="66"/>
+      <c r="EE19" s="66"/>
+      <c r="EF19" s="66"/>
+      <c r="EG19" s="66"/>
+      <c r="EH19" s="66"/>
+      <c r="EI19" s="66"/>
+      <c r="EJ19" s="66"/>
+      <c r="EK19" s="66"/>
+      <c r="EL19" s="66"/>
+      <c r="EM19" s="66"/>
+      <c r="EN19" s="65"/>
+      <c r="EO19" s="65"/>
+      <c r="EP19" s="65"/>
+      <c r="EQ19" s="65"/>
+      <c r="ER19" s="65"/>
+      <c r="ES19" s="65"/>
+      <c r="ET19" s="65"/>
+      <c r="EU19" s="65"/>
+      <c r="EV19" s="65"/>
+      <c r="EW19" s="65"/>
+      <c r="EX19" s="65"/>
+      <c r="EY19" s="65"/>
+      <c r="EZ19" s="65"/>
+      <c r="FA19" s="65"/>
+      <c r="FB19" s="65"/>
+      <c r="FC19" s="71"/>
     </row>
     <row r="20" spans="1:159" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B20" s="45"/>
+      <c r="A20" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B20" s="61"/>
       <c r="C20" s="22" t="s">
         <v>144</v>
       </c>
@@ -8675,10 +8776,10 @@
       <c r="FC20" s="29"/>
     </row>
     <row r="21" spans="1:159" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B21" s="46"/>
+      <c r="A21" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B21" s="62"/>
       <c r="C21" s="22" t="s">
         <v>277</v>
       </c>
@@ -9040,10 +9141,10 @@
       <c r="FC21" s="29"/>
     </row>
     <row r="22" spans="1:159" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B22" s="45"/>
+      <c r="A22" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B22" s="61"/>
       <c r="C22" s="22" t="s">
         <v>282</v>
       </c>
@@ -9064,7 +9165,7 @@
         <v>149</v>
       </c>
       <c r="J22" s="24">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K22" s="24" t="s">
         <v>150</v>
@@ -9263,7 +9364,7 @@
         <v>150</v>
       </c>
       <c r="DI22" s="24">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="DJ22" s="23">
         <v>1</v>
@@ -9305,7 +9406,7 @@
         <v>150</v>
       </c>
       <c r="DW22" s="24">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="DX22" s="24">
         <v>40</v>
@@ -9353,10 +9454,10 @@
       <c r="FC22" s="29"/>
     </row>
     <row r="23" spans="1:159" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B23" s="45"/>
+      <c r="A23" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B23" s="61"/>
       <c r="C23" s="22" t="s">
         <v>288</v>
       </c>
@@ -9377,7 +9478,7 @@
         <v>206</v>
       </c>
       <c r="J23" s="24">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="K23" s="24" t="s">
         <v>150</v>
@@ -9566,7 +9667,7 @@
         <v>150</v>
       </c>
       <c r="DI23" s="24">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="DJ23" s="23">
         <v>1</v>
@@ -9608,7 +9709,7 @@
         <v>150</v>
       </c>
       <c r="DW23" s="24">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="DX23" s="24"/>
       <c r="DY23" s="24"/>
@@ -9647,336 +9748,344 @@
       <c r="FB23" s="23"/>
       <c r="FC23" s="29"/>
     </row>
-    <row r="24" spans="1:159" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="22" t="s">
+    <row r="24" spans="1:159" s="83" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="74" t="b">
+        <v>1</v>
+      </c>
+      <c r="B24" s="62"/>
+      <c r="C24" s="75" t="s">
         <v>291</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="76" t="s">
         <v>145</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="77" t="s">
         <v>292</v>
       </c>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24" t="s">
+      <c r="F24" s="77"/>
+      <c r="G24" s="77" t="s">
         <v>185</v>
       </c>
-      <c r="H24" s="25" t="s">
+      <c r="H24" s="78" t="s">
         <v>186</v>
       </c>
-      <c r="I24" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="J24" s="24">
+      <c r="I24" s="79" t="s">
+        <v>149</v>
+      </c>
+      <c r="J24" s="77">
         <v>25</v>
       </c>
-      <c r="K24" s="24" t="s">
+      <c r="K24" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="L24" s="24">
+      <c r="L24" s="77">
         <v>605517846</v>
       </c>
-      <c r="M24" s="24" t="s">
+      <c r="M24" s="77" t="s">
         <v>151</v>
       </c>
-      <c r="N24" s="24" t="s">
+      <c r="N24" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="O24" s="24" t="s">
+      <c r="O24" s="77" t="s">
         <v>153</v>
       </c>
-      <c r="P24" s="24" t="s">
+      <c r="P24" s="77" t="s">
         <v>154</v>
       </c>
-      <c r="Q24" s="24" t="s">
+      <c r="Q24" s="77" t="s">
         <v>155</v>
       </c>
-      <c r="R24" s="27" t="s">
+      <c r="R24" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="S24" s="24" t="s">
+      <c r="S24" s="77" t="s">
         <v>157</v>
       </c>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24" t="s">
+      <c r="T24" s="77"/>
+      <c r="U24" s="77" t="s">
         <v>158</v>
       </c>
-      <c r="V24" s="24" t="s">
+      <c r="V24" s="77" t="s">
         <v>159</v>
       </c>
-      <c r="W24" s="24" t="s">
+      <c r="W24" s="77" t="s">
         <v>154</v>
       </c>
-      <c r="X24" s="24" t="s">
+      <c r="X24" s="77" t="s">
         <v>292</v>
       </c>
-      <c r="Y24" s="24">
+      <c r="Y24" s="77">
         <v>9012633035</v>
       </c>
-      <c r="Z24" s="24" t="s">
+      <c r="Z24" s="77" t="s">
         <v>284</v>
       </c>
-      <c r="AA24" s="24" t="s">
+      <c r="AA24" s="77" t="s">
         <v>285</v>
       </c>
-      <c r="AB24" s="24" t="s">
+      <c r="AB24" s="77" t="s">
         <v>286</v>
       </c>
-      <c r="AC24" s="24">
+      <c r="AC24" s="77">
         <v>110001</v>
       </c>
-      <c r="AD24" s="24" t="s">
+      <c r="AD24" s="77" t="s">
         <v>287</v>
       </c>
-      <c r="AE24" s="24" t="s">
+      <c r="AE24" s="77" t="s">
         <v>246</v>
       </c>
-      <c r="AF24" s="24">
+      <c r="AF24" s="77">
         <v>214877600</v>
       </c>
-      <c r="AG24" s="23" t="s">
+      <c r="AG24" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="AH24" s="23"/>
-      <c r="AI24" s="24" t="s">
+      <c r="AH24" s="76"/>
+      <c r="AI24" s="77" t="s">
         <v>191</v>
       </c>
-      <c r="AJ24" s="24"/>
-      <c r="AK24" s="24"/>
-      <c r="AL24" s="24"/>
-      <c r="AM24" s="24"/>
-      <c r="AN24" s="24"/>
-      <c r="AO24" s="24"/>
-      <c r="AP24" s="24"/>
-      <c r="AQ24" s="24"/>
-      <c r="AR24" s="24"/>
-      <c r="AS24" s="24">
+      <c r="AJ24" s="77"/>
+      <c r="AK24" s="77"/>
+      <c r="AL24" s="77"/>
+      <c r="AM24" s="77"/>
+      <c r="AN24" s="77"/>
+      <c r="AO24" s="77"/>
+      <c r="AP24" s="77"/>
+      <c r="AQ24" s="77"/>
+      <c r="AR24" s="77"/>
+      <c r="AS24" s="77">
         <v>9012633035</v>
       </c>
-      <c r="AT24" s="24" t="s">
+      <c r="AT24" s="77" t="s">
         <v>153</v>
       </c>
-      <c r="AU24" s="24" t="s">
+      <c r="AU24" s="77" t="s">
         <v>192</v>
       </c>
-      <c r="AV24" s="24">
+      <c r="AV24" s="77">
         <v>9012633035</v>
       </c>
-      <c r="AW24" s="24" t="s">
+      <c r="AW24" s="77" t="s">
         <v>284</v>
       </c>
-      <c r="AX24" s="24" t="s">
+      <c r="AX24" s="77" t="s">
         <v>285</v>
       </c>
-      <c r="AY24" s="24" t="s">
+      <c r="AY24" s="77" t="s">
         <v>286</v>
       </c>
-      <c r="AZ24" s="28">
+      <c r="AZ24" s="81">
         <v>110001</v>
       </c>
-      <c r="BA24" s="24" t="s">
+      <c r="BA24" s="77" t="s">
         <v>287</v>
       </c>
-      <c r="BB24" s="24" t="s">
+      <c r="BB24" s="77" t="s">
         <v>193</v>
       </c>
-      <c r="BC24" s="26"/>
-      <c r="BD24" s="26"/>
-      <c r="BE24" s="26"/>
-      <c r="BF24" s="24"/>
-      <c r="BG24" s="24"/>
-      <c r="BH24" s="24"/>
-      <c r="BI24" s="24"/>
-      <c r="BJ24" s="24"/>
-      <c r="BK24" s="24"/>
-      <c r="BL24" s="24"/>
-      <c r="BM24" s="24"/>
-      <c r="BN24" s="24"/>
-      <c r="BO24" s="24"/>
-      <c r="BP24" s="24"/>
-      <c r="BQ24" s="24"/>
-      <c r="BR24" s="24"/>
-      <c r="BS24" s="24"/>
-      <c r="BT24" s="24"/>
-      <c r="BU24" s="24"/>
-      <c r="BV24" s="24"/>
-      <c r="BW24" s="24"/>
-      <c r="BX24" s="24"/>
-      <c r="BY24" s="24"/>
-      <c r="BZ24" s="24"/>
-      <c r="CA24" s="23"/>
-      <c r="CB24" s="23"/>
-      <c r="CC24" s="23"/>
-      <c r="CD24" s="23"/>
-      <c r="CE24" s="23"/>
-      <c r="CF24" s="23"/>
-      <c r="CG24" s="23"/>
-      <c r="CH24" s="23"/>
-      <c r="CI24" s="24"/>
-      <c r="CJ24" s="24"/>
-      <c r="CK24" s="24" t="s">
+      <c r="BC24" s="79"/>
+      <c r="BD24" s="79"/>
+      <c r="BE24" s="79"/>
+      <c r="BF24" s="77"/>
+      <c r="BG24" s="77"/>
+      <c r="BH24" s="77"/>
+      <c r="BI24" s="77"/>
+      <c r="BJ24" s="77"/>
+      <c r="BK24" s="77"/>
+      <c r="BL24" s="77"/>
+      <c r="BM24" s="77"/>
+      <c r="BN24" s="77"/>
+      <c r="BO24" s="77"/>
+      <c r="BP24" s="77"/>
+      <c r="BQ24" s="77"/>
+      <c r="BR24" s="77"/>
+      <c r="BS24" s="77"/>
+      <c r="BT24" s="77"/>
+      <c r="BU24" s="77"/>
+      <c r="BV24" s="77"/>
+      <c r="BW24" s="77"/>
+      <c r="BX24" s="77"/>
+      <c r="BY24" s="77"/>
+      <c r="BZ24" s="77"/>
+      <c r="CA24" s="76"/>
+      <c r="CB24" s="76"/>
+      <c r="CC24" s="76"/>
+      <c r="CD24" s="76"/>
+      <c r="CE24" s="76"/>
+      <c r="CF24" s="76"/>
+      <c r="CG24" s="76"/>
+      <c r="CH24" s="76"/>
+      <c r="CI24" s="77"/>
+      <c r="CJ24" s="77"/>
+      <c r="CK24" s="77" t="s">
         <v>246</v>
       </c>
-      <c r="CL24" s="24">
+      <c r="CL24" s="77">
         <v>214877600</v>
       </c>
-      <c r="CM24" s="24" t="s">
+      <c r="CM24" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="CN24" s="23"/>
-      <c r="CO24" s="23" t="s">
+      <c r="CN24" s="76"/>
+      <c r="CO24" s="76" t="s">
         <v>201</v>
       </c>
-      <c r="CP24" s="23" t="s">
+      <c r="CP24" s="76" t="s">
         <v>275</v>
       </c>
-      <c r="CQ24" s="23">
+      <c r="CQ24" s="76">
         <v>100</v>
       </c>
-      <c r="CR24" s="23" t="s">
+      <c r="CR24" s="76" t="s">
         <v>275</v>
       </c>
-      <c r="CS24" s="23">
+      <c r="CS24" s="76">
         <v>50</v>
       </c>
-      <c r="CT24" s="23" t="s">
+      <c r="CT24" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="CU24" s="23" t="s">
+      <c r="CU24" s="76" t="s">
         <v>275</v>
       </c>
-      <c r="CV24" s="23">
+      <c r="CV24" s="76">
         <v>100</v>
       </c>
-      <c r="CW24" s="23" t="s">
+      <c r="CW24" s="76" t="s">
         <v>275</v>
       </c>
-      <c r="CX24" s="23">
+      <c r="CX24" s="76">
         <v>25</v>
       </c>
-      <c r="CY24" s="23" t="s">
+      <c r="CY24" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="CZ24" s="23" t="s">
+      <c r="CZ24" s="76" t="s">
         <v>175</v>
       </c>
-      <c r="DA24" s="23">
+      <c r="DA24" s="76">
         <v>123456789</v>
       </c>
-      <c r="DB24" s="23"/>
-      <c r="DC24" s="23"/>
-      <c r="DD24" s="23">
-        <v>1</v>
-      </c>
-      <c r="DE24" s="23" t="s">
+      <c r="DB24" s="76"/>
+      <c r="DC24" s="76"/>
+      <c r="DD24" s="76">
+        <v>1</v>
+      </c>
+      <c r="DE24" s="76" t="s">
         <v>176</v>
       </c>
-      <c r="DF24" s="23" t="s">
+      <c r="DF24" s="76" t="s">
         <v>159</v>
       </c>
-      <c r="DG24" s="23"/>
-      <c r="DH24" s="23" t="s">
+      <c r="DG24" s="76"/>
+      <c r="DH24" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="DI24" s="24">
+      <c r="DI24" s="77">
         <v>25</v>
       </c>
-      <c r="DJ24" s="23">
-        <v>1</v>
-      </c>
-      <c r="DK24" s="23" t="s">
+      <c r="DJ24" s="76">
+        <v>1</v>
+      </c>
+      <c r="DK24" s="76" t="s">
         <v>177</v>
       </c>
-      <c r="DL24" s="23" t="s">
+      <c r="DL24" s="76" t="s">
         <v>275</v>
       </c>
-      <c r="DM24" s="23">
+      <c r="DM24" s="76">
         <v>100</v>
       </c>
-      <c r="DN24" s="23" t="s">
+      <c r="DN24" s="76" t="s">
         <v>275</v>
       </c>
-      <c r="DO24" s="23">
+      <c r="DO24" s="76">
         <v>100</v>
       </c>
-      <c r="DP24" s="23" t="s">
+      <c r="DP24" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="DQ24" s="24" t="s">
+      <c r="DQ24" s="77" t="s">
         <v>179</v>
       </c>
-      <c r="DR24" s="24" t="s">
+      <c r="DR24" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="DS24" s="23">
-        <v>1</v>
-      </c>
-      <c r="DT24" s="24" t="s">
+      <c r="DS24" s="76">
+        <v>1</v>
+      </c>
+      <c r="DT24" s="77" t="s">
         <v>275</v>
       </c>
-      <c r="DU24" s="24">
+      <c r="DU24" s="77">
         <v>100</v>
       </c>
-      <c r="DV24" s="24" t="s">
+      <c r="DV24" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="DW24" s="24">
+      <c r="DW24" s="77">
         <v>25</v>
       </c>
-      <c r="DX24" s="24"/>
-      <c r="DY24" s="24"/>
-      <c r="DZ24" s="24"/>
-      <c r="EA24" s="24"/>
-      <c r="EB24" s="24" t="s">
+      <c r="DX24" s="24">
+        <v>50</v>
+      </c>
+      <c r="DY24" s="24">
+        <v>60</v>
+      </c>
+      <c r="DZ24" s="24">
+        <v>50</v>
+      </c>
+      <c r="EA24" s="77" t="s">
+        <v>182</v>
+      </c>
+      <c r="EB24" s="77" t="s">
         <v>175</v>
       </c>
-      <c r="EC24" s="24" t="s">
+      <c r="EC24" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="ED24" s="24"/>
-      <c r="EE24" s="24"/>
-      <c r="EF24" s="24"/>
-      <c r="EG24" s="24"/>
-      <c r="EH24" s="24"/>
-      <c r="EI24" s="24"/>
-      <c r="EJ24" s="24"/>
-      <c r="EK24" s="24"/>
-      <c r="EL24" s="23"/>
-      <c r="EM24" s="23"/>
-      <c r="EN24" s="23"/>
-      <c r="EO24" s="23"/>
-      <c r="EP24" s="23"/>
-      <c r="EQ24" s="23"/>
-      <c r="ER24" s="23"/>
-      <c r="ES24" s="23"/>
-      <c r="ET24" s="23"/>
-      <c r="EU24" s="23"/>
-      <c r="EV24" s="23"/>
-      <c r="EW24" s="23"/>
-      <c r="EX24" s="23"/>
-      <c r="EY24" s="23"/>
-      <c r="EZ24" s="23"/>
-      <c r="FA24" s="23"/>
-      <c r="FB24" s="23"/>
-      <c r="FC24" s="29"/>
+      <c r="ED24" s="77"/>
+      <c r="EE24" s="77"/>
+      <c r="EF24" s="77"/>
+      <c r="EG24" s="77"/>
+      <c r="EH24" s="77"/>
+      <c r="EI24" s="77"/>
+      <c r="EJ24" s="77"/>
+      <c r="EK24" s="77"/>
+      <c r="EL24" s="76"/>
+      <c r="EM24" s="76"/>
+      <c r="EN24" s="76"/>
+      <c r="EO24" s="76"/>
+      <c r="EP24" s="76"/>
+      <c r="EQ24" s="76"/>
+      <c r="ER24" s="76"/>
+      <c r="ES24" s="76"/>
+      <c r="ET24" s="76"/>
+      <c r="EU24" s="76"/>
+      <c r="EV24" s="76"/>
+      <c r="EW24" s="76"/>
+      <c r="EX24" s="76"/>
+      <c r="EY24" s="76"/>
+      <c r="EZ24" s="76"/>
+      <c r="FA24" s="76"/>
+      <c r="FB24" s="76"/>
+      <c r="FC24" s="82"/>
     </row>
     <row r="25" spans="1:159" s="8" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B25" s="45"/>
+      <c r="A25" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B25" s="61"/>
       <c r="C25" s="22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>145</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F25" s="24"/>
       <c r="G25" s="24" t="s">
@@ -10029,7 +10138,7 @@
         <v>154</v>
       </c>
       <c r="X25" s="24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y25" s="24">
         <v>9012633035</v>
@@ -10303,402 +10412,404 @@
         <v>240</v>
       </c>
       <c r="EZ25" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="FA25" s="24" t="s">
         <v>296</v>
       </c>
-      <c r="FA25" s="24" t="s">
+      <c r="FB25" s="24" t="s">
         <v>297</v>
-      </c>
-      <c r="FB25" s="24" t="s">
-        <v>298</v>
       </c>
       <c r="FC25" s="30">
         <v>9015551234</v>
       </c>
     </row>
-    <row r="26" spans="1:159" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="22" t="s">
+    <row r="26" spans="1:159" s="72" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="73" t="s">
+        <v>356</v>
+      </c>
+      <c r="B26" s="59"/>
+      <c r="C26" s="64" t="s">
+        <v>298</v>
+      </c>
+      <c r="D26" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" s="66" t="s">
         <v>299</v>
       </c>
-      <c r="D26" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="E26" s="24" t="s">
+      <c r="F26" s="66"/>
+      <c r="G26" s="66" t="s">
+        <v>185</v>
+      </c>
+      <c r="H26" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="I26" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="J26" s="66">
+        <v>40</v>
+      </c>
+      <c r="K26" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="L26" s="66">
+        <v>605517846</v>
+      </c>
+      <c r="M26" s="66" t="s">
+        <v>151</v>
+      </c>
+      <c r="N26" s="66" t="s">
+        <v>152</v>
+      </c>
+      <c r="O26" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="P26" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q26" s="66" t="s">
+        <v>155</v>
+      </c>
+      <c r="R26" s="69" t="s">
+        <v>156</v>
+      </c>
+      <c r="S26" s="66" t="s">
+        <v>157</v>
+      </c>
+      <c r="T26" s="66"/>
+      <c r="U26" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="V26" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="W26" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="X26" s="66" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y26" s="66">
+        <v>9012633035</v>
+      </c>
+      <c r="Z26" s="66" t="s">
+        <v>284</v>
+      </c>
+      <c r="AA26" s="66" t="s">
         <v>300</v>
       </c>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="H26" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="I26" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="J26" s="24">
+      <c r="AB26" s="66" t="s">
+        <v>301</v>
+      </c>
+      <c r="AC26" s="66" t="s">
+        <v>302</v>
+      </c>
+      <c r="AD26" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE26" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF26" s="66" t="s">
+        <v>166</v>
+      </c>
+      <c r="AG26" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="AH26" s="65"/>
+      <c r="AI26" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="AJ26" s="66" t="s">
+        <v>196</v>
+      </c>
+      <c r="AK26" s="66"/>
+      <c r="AL26" s="66"/>
+      <c r="AM26" s="66"/>
+      <c r="AN26" s="66"/>
+      <c r="AO26" s="66"/>
+      <c r="AP26" s="66"/>
+      <c r="AQ26" s="66" t="s">
+        <v>280</v>
+      </c>
+      <c r="AR26" s="66"/>
+      <c r="AS26" s="66"/>
+      <c r="AT26" s="66"/>
+      <c r="AU26" s="66"/>
+      <c r="AV26" s="66"/>
+      <c r="AW26" s="66"/>
+      <c r="AX26" s="66"/>
+      <c r="AY26" s="66"/>
+      <c r="AZ26" s="70"/>
+      <c r="BA26" s="66"/>
+      <c r="BB26" s="66"/>
+      <c r="BC26" s="68">
+        <v>1</v>
+      </c>
+      <c r="BD26" s="68">
+        <v>101</v>
+      </c>
+      <c r="BE26" s="68">
+        <v>123456789</v>
+      </c>
+      <c r="BF26" s="66" t="s">
+        <v>197</v>
+      </c>
+      <c r="BG26" s="66">
+        <v>222326460</v>
+      </c>
+      <c r="BH26" s="66" t="s">
+        <v>151</v>
+      </c>
+      <c r="BI26" s="66">
+        <v>1234567890</v>
+      </c>
+      <c r="BJ26" s="66">
+        <v>12345</v>
+      </c>
+      <c r="BK26" s="66" t="s">
+        <v>198</v>
+      </c>
+      <c r="BL26" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="BM26" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="BN26" s="66">
+        <v>8975898616</v>
+      </c>
+      <c r="BO26" s="66">
+        <v>3293</v>
+      </c>
+      <c r="BP26" s="66" t="s">
+        <v>200</v>
+      </c>
+      <c r="BQ26" s="66" t="s">
+        <v>355</v>
+      </c>
+      <c r="BR26" s="66" t="s">
+        <v>300</v>
+      </c>
+      <c r="BS26" s="66" t="s">
+        <v>301</v>
+      </c>
+      <c r="BT26" s="66" t="s">
+        <v>302</v>
+      </c>
+      <c r="BU26" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="BV26" s="66" t="s">
+        <v>281</v>
+      </c>
+      <c r="BW26" s="66"/>
+      <c r="BX26" s="66">
+        <v>605517846</v>
+      </c>
+      <c r="BY26" s="66" t="s">
+        <v>151</v>
+      </c>
+      <c r="BZ26" s="66">
+        <v>1234567890</v>
+      </c>
+      <c r="CA26" s="66" t="s">
+        <v>198</v>
+      </c>
+      <c r="CB26" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC26" s="66">
+        <v>8975898616</v>
+      </c>
+      <c r="CD26" s="66" t="s">
+        <v>284</v>
+      </c>
+      <c r="CE26" s="66" t="s">
+        <v>304</v>
+      </c>
+      <c r="CF26" s="66" t="s">
+        <v>301</v>
+      </c>
+      <c r="CG26" s="66" t="s">
+        <v>302</v>
+      </c>
+      <c r="CH26" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="CI26" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="CJ26" s="66"/>
+      <c r="CK26" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="CL26" s="66" t="s">
+        <v>170</v>
+      </c>
+      <c r="CM26" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="CN26" s="65"/>
+      <c r="CO26" s="65" t="s">
+        <v>201</v>
+      </c>
+      <c r="CP26" s="65" t="s">
+        <v>275</v>
+      </c>
+      <c r="CQ26" s="65">
+        <v>2000</v>
+      </c>
+      <c r="CR26" s="65" t="s">
+        <v>275</v>
+      </c>
+      <c r="CS26" s="65">
+        <v>50</v>
+      </c>
+      <c r="CT26" s="65" t="s">
+        <v>173</v>
+      </c>
+      <c r="CU26" s="65" t="s">
+        <v>275</v>
+      </c>
+      <c r="CV26" s="65">
+        <v>100</v>
+      </c>
+      <c r="CW26" s="65" t="s">
+        <v>275</v>
+      </c>
+      <c r="CX26" s="65">
+        <v>25</v>
+      </c>
+      <c r="CY26" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="CZ26" s="65" t="s">
+        <v>175</v>
+      </c>
+      <c r="DA26" s="65">
+        <v>123456789</v>
+      </c>
+      <c r="DB26" s="65"/>
+      <c r="DC26" s="65"/>
+      <c r="DD26" s="65">
+        <v>1</v>
+      </c>
+      <c r="DE26" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="DF26" s="65" t="s">
+        <v>159</v>
+      </c>
+      <c r="DG26" s="65"/>
+      <c r="DH26" s="65" t="s">
+        <v>150</v>
+      </c>
+      <c r="DI26" s="66">
         <v>40</v>
       </c>
-      <c r="K26" s="24" t="s">
+      <c r="DJ26" s="65">
+        <v>1</v>
+      </c>
+      <c r="DK26" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="DL26" s="65" t="s">
+        <v>275</v>
+      </c>
+      <c r="DM26" s="65">
+        <v>100</v>
+      </c>
+      <c r="DN26" s="65" t="s">
+        <v>275</v>
+      </c>
+      <c r="DO26" s="65">
+        <v>2000</v>
+      </c>
+      <c r="DP26" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="DQ26" s="66" t="s">
+        <v>179</v>
+      </c>
+      <c r="DR26" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="DS26" s="65">
+        <v>1</v>
+      </c>
+      <c r="DT26" s="66" t="s">
+        <v>275</v>
+      </c>
+      <c r="DU26" s="66">
+        <v>575</v>
+      </c>
+      <c r="DV26" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="L26" s="24">
-        <v>605517846</v>
-      </c>
-      <c r="M26" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="N26" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="O26" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="P26" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q26" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="R26" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="S26" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="T26" s="24"/>
-      <c r="U26" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="V26" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="W26" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="X26" s="24" t="s">
-        <v>300</v>
-      </c>
-      <c r="Y26" s="24">
-        <v>9012633035</v>
-      </c>
-      <c r="Z26" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="AA26" s="24" t="s">
-        <v>301</v>
-      </c>
-      <c r="AB26" s="24" t="s">
-        <v>302</v>
-      </c>
-      <c r="AC26" s="24" t="s">
-        <v>303</v>
-      </c>
-      <c r="AD26" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="AE26" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="AF26" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="AG26" s="23" t="s">
+      <c r="DW26" s="66">
+        <v>40</v>
+      </c>
+      <c r="DX26" s="66">
+        <v>20</v>
+      </c>
+      <c r="DY26" s="66">
+        <v>25</v>
+      </c>
+      <c r="DZ26" s="66">
+        <v>20</v>
+      </c>
+      <c r="EA26" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="EB26" s="66" t="s">
+        <v>175</v>
+      </c>
+      <c r="EC26" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="AH26" s="23"/>
-      <c r="AI26" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="AJ26" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="AK26" s="24"/>
-      <c r="AL26" s="24"/>
-      <c r="AM26" s="24"/>
-      <c r="AN26" s="24"/>
-      <c r="AO26" s="24"/>
-      <c r="AP26" s="24"/>
-      <c r="AQ26" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="AR26" s="24"/>
-      <c r="AS26" s="24"/>
-      <c r="AT26" s="24"/>
-      <c r="AU26" s="24"/>
-      <c r="AV26" s="24"/>
-      <c r="AW26" s="24"/>
-      <c r="AX26" s="24"/>
-      <c r="AY26" s="24"/>
-      <c r="AZ26" s="28"/>
-      <c r="BA26" s="24"/>
-      <c r="BB26" s="24"/>
-      <c r="BC26" s="26">
-        <v>1</v>
-      </c>
-      <c r="BD26" s="26">
-        <v>101</v>
-      </c>
-      <c r="BE26" s="26">
-        <v>123456789</v>
-      </c>
-      <c r="BF26" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="BG26" s="24">
-        <v>222326460</v>
-      </c>
-      <c r="BH26" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="BI26" s="24">
-        <v>1234567890</v>
-      </c>
-      <c r="BJ26" s="24">
-        <v>12345</v>
-      </c>
-      <c r="BK26" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="BL26" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="BM26" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="BN26" s="24">
-        <v>8975898616</v>
-      </c>
-      <c r="BO26" s="24">
-        <v>3293</v>
-      </c>
-      <c r="BP26" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="BQ26" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="BR26" s="24" t="s">
-        <v>304</v>
-      </c>
-      <c r="BS26" s="24"/>
-      <c r="BT26" s="24">
-        <v>15520</v>
-      </c>
-      <c r="BU26" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="BV26" s="24" t="s">
-        <v>281</v>
-      </c>
-      <c r="BW26" s="24"/>
-      <c r="BX26" s="24">
-        <v>605517846</v>
-      </c>
-      <c r="BY26" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="BZ26" s="24">
-        <v>1234567890</v>
-      </c>
-      <c r="CA26" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="CB26" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="CC26" s="24">
-        <v>8975898616</v>
-      </c>
-      <c r="CD26" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="CE26" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="CF26" s="24" t="s">
-        <v>302</v>
-      </c>
-      <c r="CG26" s="24" t="s">
-        <v>303</v>
-      </c>
-      <c r="CH26" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="CI26" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="CJ26" s="24"/>
-      <c r="CK26" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="CL26" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="CM26" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="CN26" s="23"/>
-      <c r="CO26" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="CP26" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="CQ26" s="23">
-        <v>2000</v>
-      </c>
-      <c r="CR26" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="CS26" s="23">
-        <v>50</v>
-      </c>
-      <c r="CT26" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="CU26" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="CV26" s="23">
-        <v>100</v>
-      </c>
-      <c r="CW26" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="CX26" s="23">
-        <v>25</v>
-      </c>
-      <c r="CY26" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="CZ26" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="DA26" s="23">
-        <v>123456789</v>
-      </c>
-      <c r="DB26" s="23"/>
-      <c r="DC26" s="23"/>
-      <c r="DD26" s="23">
-        <v>1</v>
-      </c>
-      <c r="DE26" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="DF26" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="DG26" s="23"/>
-      <c r="DH26" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="DI26" s="24">
-        <v>40</v>
-      </c>
-      <c r="DJ26" s="23">
-        <v>1</v>
-      </c>
-      <c r="DK26" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="DL26" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="DM26" s="23">
-        <v>100</v>
-      </c>
-      <c r="DN26" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="DO26" s="23">
-        <v>2000</v>
-      </c>
-      <c r="DP26" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="DQ26" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="DR26" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="DS26" s="23">
-        <v>1</v>
-      </c>
-      <c r="DT26" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="DU26" s="24">
-        <v>575</v>
-      </c>
-      <c r="DV26" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="DW26" s="24">
-        <v>40</v>
-      </c>
-      <c r="DX26" s="24">
-        <v>20</v>
-      </c>
-      <c r="DY26" s="24">
-        <v>25</v>
-      </c>
-      <c r="DZ26" s="24">
-        <v>20</v>
-      </c>
-      <c r="EA26" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="EB26" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="EC26" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="ED26" s="24"/>
-      <c r="EE26" s="24"/>
-      <c r="EF26" s="24"/>
-      <c r="EG26" s="24"/>
-      <c r="EH26" s="24"/>
-      <c r="EI26" s="24"/>
-      <c r="EJ26" s="24"/>
-      <c r="EK26" s="24"/>
-      <c r="EL26" s="24"/>
-      <c r="EM26" s="24"/>
-      <c r="EN26" s="23"/>
-      <c r="EO26" s="23"/>
-      <c r="EP26" s="23"/>
-      <c r="EQ26" s="23"/>
-      <c r="ER26" s="23"/>
-      <c r="ES26" s="23"/>
-      <c r="ET26" s="23"/>
-      <c r="EU26" s="23"/>
-      <c r="EV26" s="23"/>
-      <c r="EW26" s="23"/>
-      <c r="EX26" s="23"/>
-      <c r="EY26" s="23"/>
-      <c r="EZ26" s="23"/>
-      <c r="FA26" s="23"/>
-      <c r="FB26" s="23"/>
-      <c r="FC26" s="29"/>
+      <c r="ED26" s="66"/>
+      <c r="EE26" s="66"/>
+      <c r="EF26" s="66"/>
+      <c r="EG26" s="66"/>
+      <c r="EH26" s="66"/>
+      <c r="EI26" s="66"/>
+      <c r="EJ26" s="66"/>
+      <c r="EK26" s="66"/>
+      <c r="EL26" s="66"/>
+      <c r="EM26" s="66"/>
+      <c r="EN26" s="65"/>
+      <c r="EO26" s="65"/>
+      <c r="EP26" s="65"/>
+      <c r="EQ26" s="65"/>
+      <c r="ER26" s="65"/>
+      <c r="ES26" s="65"/>
+      <c r="ET26" s="65"/>
+      <c r="EU26" s="65"/>
+      <c r="EV26" s="65"/>
+      <c r="EW26" s="65"/>
+      <c r="EX26" s="65"/>
+      <c r="EY26" s="65"/>
+      <c r="EZ26" s="65"/>
+      <c r="FA26" s="65"/>
+      <c r="FB26" s="65"/>
+      <c r="FC26" s="71"/>
     </row>
     <row r="27" spans="1:159" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B27" s="45"/>
+      <c r="A27" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B27" s="61"/>
       <c r="C27" s="22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>145</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F27" s="24"/>
       <c r="G27" s="24" t="s">
@@ -10751,7 +10862,7 @@
         <v>154</v>
       </c>
       <c r="X27" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Y27" s="24">
         <v>9012633035</v>
@@ -10760,13 +10871,13 @@
         <v>284</v>
       </c>
       <c r="AA27" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB27" s="24" t="s">
         <v>301</v>
       </c>
-      <c r="AB27" s="24" t="s">
+      <c r="AC27" s="24" t="s">
         <v>302</v>
-      </c>
-      <c r="AC27" s="24" t="s">
-        <v>303</v>
       </c>
       <c r="AD27" s="24" t="s">
         <v>164</v>
@@ -11004,18 +11115,18 @@
       <c r="FC27" s="29"/>
     </row>
     <row r="28" spans="1:159" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B28" s="45"/>
+      <c r="A28" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B28" s="61"/>
       <c r="C28" s="22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D28" s="23" t="s">
         <v>145</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F28" s="24"/>
       <c r="G28" s="24" t="s">
@@ -11068,7 +11179,7 @@
         <v>154</v>
       </c>
       <c r="X28" s="24" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Y28" s="24">
         <v>9012633035</v>
@@ -11077,13 +11188,13 @@
         <v>284</v>
       </c>
       <c r="AA28" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB28" s="24" t="s">
         <v>301</v>
       </c>
-      <c r="AB28" s="24" t="s">
+      <c r="AC28" s="24" t="s">
         <v>302</v>
-      </c>
-      <c r="AC28" s="24" t="s">
-        <v>303</v>
       </c>
       <c r="AD28" s="24" t="s">
         <v>164</v>
@@ -11321,18 +11432,18 @@
       <c r="FC28" s="29"/>
     </row>
     <row r="29" spans="1:159" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B29" s="45"/>
+      <c r="A29" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B29" s="61"/>
       <c r="C29" s="22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D29" s="23" t="s">
         <v>145</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F29" s="24"/>
       <c r="G29" s="24" t="s">
@@ -11385,7 +11496,7 @@
         <v>154</v>
       </c>
       <c r="X29" s="24" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Y29" s="24">
         <v>9012633035</v>
@@ -11394,13 +11505,13 @@
         <v>284</v>
       </c>
       <c r="AA29" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB29" s="24" t="s">
         <v>301</v>
       </c>
-      <c r="AB29" s="24" t="s">
+      <c r="AC29" s="24" t="s">
         <v>302</v>
-      </c>
-      <c r="AC29" s="24" t="s">
-        <v>303</v>
       </c>
       <c r="AD29" s="24" t="s">
         <v>164</v>
@@ -11638,10 +11749,10 @@
       <c r="FC29" s="29"/>
     </row>
     <row r="30" spans="1:159" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B30" s="45"/>
+      <c r="A30" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B30" s="61"/>
       <c r="C30" s="22" t="s">
         <v>194</v>
       </c>
@@ -11649,7 +11760,7 @@
         <v>145</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F30" s="24"/>
       <c r="G30" s="24" t="s">
@@ -11702,7 +11813,7 @@
         <v>154</v>
       </c>
       <c r="X30" s="24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Y30" s="24" t="s">
         <v>155</v>
@@ -11711,14 +11822,14 @@
         <v>188</v>
       </c>
       <c r="AA30" s="24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AB30" s="24"/>
       <c r="AC30" s="24">
         <v>1820</v>
       </c>
       <c r="AD30" s="24" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AE30" s="24" t="s">
         <v>165</v>
@@ -11792,14 +11903,14 @@
         <v>188</v>
       </c>
       <c r="BR30" s="24" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="BS30" s="24"/>
       <c r="BT30" s="24">
         <v>1820</v>
       </c>
       <c r="BU30" s="24" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="BV30" s="24"/>
       <c r="BW30" s="24"/>
@@ -11975,18 +12086,18 @@
       <c r="FC30" s="29"/>
     </row>
     <row r="31" spans="1:159" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B31" s="45"/>
+      <c r="A31" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B31" s="61"/>
       <c r="C31" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D31" s="23" t="s">
         <v>145</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F31" s="24"/>
       <c r="G31" s="24" t="s">
@@ -12039,7 +12150,7 @@
         <v>154</v>
       </c>
       <c r="X31" s="24" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Y31" s="24" t="s">
         <v>155</v>
@@ -12048,14 +12159,14 @@
         <v>188</v>
       </c>
       <c r="AA31" s="24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AB31" s="24"/>
       <c r="AC31" s="24">
         <v>1820</v>
       </c>
       <c r="AD31" s="24" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AE31" s="24" t="s">
         <v>165</v>
@@ -12129,14 +12240,14 @@
         <v>188</v>
       </c>
       <c r="BR31" s="24" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="BS31" s="24"/>
       <c r="BT31" s="24">
         <v>1820</v>
       </c>
       <c r="BU31" s="24" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="BV31" s="24"/>
       <c r="BW31" s="24"/>
@@ -12311,713 +12422,713 @@
       <c r="FB31" s="23"/>
       <c r="FC31" s="29"/>
     </row>
-    <row r="32" spans="1:159" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:159" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="B32" s="45"/>
-      <c r="C32" s="22" t="s">
+      <c r="B32" s="61"/>
+      <c r="C32" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="E32" s="24" t="s">
+      <c r="E32" s="52" t="s">
+        <v>317</v>
+      </c>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="H32" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="I32" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="J32" s="52">
+        <v>100</v>
+      </c>
+      <c r="K32" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="L32" s="52">
+        <v>605517846</v>
+      </c>
+      <c r="M32" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="N32" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="O32" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="P32" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q32" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="R32" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="S32" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="T32" s="52"/>
+      <c r="U32" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="V32" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="W32" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="X32" s="52" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y32" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z32" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA32" s="52" t="s">
         <v>318</v>
       </c>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24" t="s">
+      <c r="AB32" s="52" t="s">
+        <v>319</v>
+      </c>
+      <c r="AC32" s="52">
+        <v>44202</v>
+      </c>
+      <c r="AD32" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE32" s="52" t="s">
+        <v>290</v>
+      </c>
+      <c r="AF32" s="52">
+        <v>222326460</v>
+      </c>
+      <c r="AG32" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="AH32" s="51"/>
+      <c r="AI32" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ32" s="52"/>
+      <c r="AK32" s="52"/>
+      <c r="AL32" s="52"/>
+      <c r="AM32" s="52"/>
+      <c r="AN32" s="52"/>
+      <c r="AO32" s="52"/>
+      <c r="AP32" s="52"/>
+      <c r="AQ32" s="52"/>
+      <c r="AR32" s="52"/>
+      <c r="AS32" s="52"/>
+      <c r="AT32" s="52"/>
+      <c r="AU32" s="52"/>
+      <c r="AV32" s="52"/>
+      <c r="AW32" s="52"/>
+      <c r="AX32" s="52"/>
+      <c r="AY32" s="52"/>
+      <c r="AZ32" s="56"/>
+      <c r="BA32" s="52"/>
+      <c r="BB32" s="52"/>
+      <c r="BC32" s="54">
+        <v>1</v>
+      </c>
+      <c r="BD32" s="54">
+        <v>101</v>
+      </c>
+      <c r="BE32" s="54">
+        <v>123456789</v>
+      </c>
+      <c r="BF32" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="BG32" s="52">
+        <v>222326460</v>
+      </c>
+      <c r="BH32" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="BI32" s="52">
+        <v>1234567890</v>
+      </c>
+      <c r="BJ32" s="52">
+        <v>12345</v>
+      </c>
+      <c r="BK32" s="52" t="s">
+        <v>198</v>
+      </c>
+      <c r="BL32" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="BM32" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="BN32" s="52">
+        <v>8975898616</v>
+      </c>
+      <c r="BO32" s="52">
+        <v>3293</v>
+      </c>
+      <c r="BP32" s="52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BQ32" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="BR32" s="52" t="s">
+        <v>318</v>
+      </c>
+      <c r="BS32" s="52" t="s">
+        <v>319</v>
+      </c>
+      <c r="BT32" s="52">
+        <v>44202</v>
+      </c>
+      <c r="BU32" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="BV32" s="52"/>
+      <c r="BW32" s="52"/>
+      <c r="BX32" s="52"/>
+      <c r="BY32" s="52"/>
+      <c r="BZ32" s="52"/>
+      <c r="CA32" s="52"/>
+      <c r="CB32" s="52"/>
+      <c r="CC32" s="52"/>
+      <c r="CD32" s="52"/>
+      <c r="CE32" s="52"/>
+      <c r="CF32" s="52"/>
+      <c r="CG32" s="52"/>
+      <c r="CH32" s="52"/>
+      <c r="CI32" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="CJ32" s="52">
+        <v>12345678</v>
+      </c>
+      <c r="CK32" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="CL32" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="CM32" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="CN32" s="51"/>
+      <c r="CO32" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="CP32" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="CQ32" s="51">
+        <v>2000</v>
+      </c>
+      <c r="CR32" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="CS32" s="51">
+        <v>50</v>
+      </c>
+      <c r="CT32" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="CU32" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="CV32" s="51">
+        <v>100</v>
+      </c>
+      <c r="CW32" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="CX32" s="51">
+        <v>25</v>
+      </c>
+      <c r="CY32" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="CZ32" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="DA32" s="51">
+        <v>123456789</v>
+      </c>
+      <c r="DB32" s="51"/>
+      <c r="DC32" s="51"/>
+      <c r="DD32" s="51">
+        <v>1</v>
+      </c>
+      <c r="DE32" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="DF32" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="DG32" s="51"/>
+      <c r="DH32" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="DI32" s="52">
+        <v>100</v>
+      </c>
+      <c r="DJ32" s="51">
+        <v>1</v>
+      </c>
+      <c r="DK32" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="DL32" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="DM32" s="51">
+        <v>100</v>
+      </c>
+      <c r="DN32" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="DO32" s="51">
+        <v>2000</v>
+      </c>
+      <c r="DP32" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="DQ32" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="DR32" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="DS32" s="51">
+        <v>1</v>
+      </c>
+      <c r="DT32" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="DU32" s="52">
+        <v>100</v>
+      </c>
+      <c r="DV32" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="DW32" s="52">
+        <v>100</v>
+      </c>
+      <c r="DX32" s="52">
+        <v>60</v>
+      </c>
+      <c r="DY32" s="52">
+        <v>75</v>
+      </c>
+      <c r="DZ32" s="52">
+        <v>60</v>
+      </c>
+      <c r="EA32" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="EB32" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="EC32" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="ED32" s="52"/>
+      <c r="EE32" s="52"/>
+      <c r="EF32" s="52"/>
+      <c r="EG32" s="52"/>
+      <c r="EH32" s="52"/>
+      <c r="EI32" s="52"/>
+      <c r="EJ32" s="52"/>
+      <c r="EK32" s="52"/>
+      <c r="EL32" s="52"/>
+      <c r="EM32" s="52"/>
+      <c r="EN32" s="51"/>
+      <c r="EO32" s="51"/>
+      <c r="EP32" s="51"/>
+      <c r="EQ32" s="51"/>
+      <c r="ER32" s="51"/>
+      <c r="ES32" s="51"/>
+      <c r="ET32" s="51"/>
+      <c r="EU32" s="51"/>
+      <c r="EV32" s="51"/>
+      <c r="EW32" s="51"/>
+      <c r="EX32" s="51"/>
+      <c r="EY32" s="51"/>
+      <c r="EZ32" s="51"/>
+      <c r="FA32" s="51"/>
+      <c r="FB32" s="51"/>
+      <c r="FC32" s="57"/>
+    </row>
+    <row r="33" spans="1:189" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B33" s="61"/>
+      <c r="C33" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="D33" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="E33" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="H32" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="I32" s="26" t="s">
+      <c r="H33" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="I33" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="J32" s="24">
+      <c r="J33" s="52">
         <v>100</v>
       </c>
-      <c r="K32" s="24" t="s">
+      <c r="K33" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="L32" s="24">
+      <c r="L33" s="52">
         <v>605517846</v>
       </c>
-      <c r="M32" s="24" t="s">
+      <c r="M33" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="N32" s="24" t="s">
+      <c r="N33" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="O32" s="24" t="s">
+      <c r="O33" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="P32" s="24" t="s">
+      <c r="P33" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="Q32" s="24" t="s">
+      <c r="Q33" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="R32" s="27" t="s">
+      <c r="R33" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="S32" s="24" t="s">
+      <c r="S33" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="T32" s="24"/>
-      <c r="U32" s="24" t="s">
+      <c r="T33" s="52"/>
+      <c r="U33" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="V32" s="24" t="s">
+      <c r="V33" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="W32" s="24" t="s">
+      <c r="W33" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="X32" s="24" t="s">
+      <c r="X33" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y33" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z33" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA33" s="52" t="s">
         <v>318</v>
       </c>
-      <c r="Y32" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z32" s="24" t="s">
+      <c r="AB33" s="52" t="s">
+        <v>319</v>
+      </c>
+      <c r="AC33" s="52">
+        <v>44202</v>
+      </c>
+      <c r="AD33" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE33" s="52" t="s">
+        <v>290</v>
+      </c>
+      <c r="AF33" s="52">
+        <v>222326460</v>
+      </c>
+      <c r="AG33" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="AH33" s="51"/>
+      <c r="AI33" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ33" s="52"/>
+      <c r="AK33" s="52"/>
+      <c r="AL33" s="52"/>
+      <c r="AM33" s="52"/>
+      <c r="AN33" s="52"/>
+      <c r="AO33" s="52"/>
+      <c r="AP33" s="52"/>
+      <c r="AQ33" s="52"/>
+      <c r="AR33" s="52"/>
+      <c r="AS33" s="52"/>
+      <c r="AT33" s="52"/>
+      <c r="AU33" s="52"/>
+      <c r="AV33" s="52"/>
+      <c r="AW33" s="52"/>
+      <c r="AX33" s="52"/>
+      <c r="AY33" s="52"/>
+      <c r="AZ33" s="56"/>
+      <c r="BA33" s="52"/>
+      <c r="BB33" s="52"/>
+      <c r="BC33" s="54">
+        <v>1</v>
+      </c>
+      <c r="BD33" s="54">
+        <v>101</v>
+      </c>
+      <c r="BE33" s="54">
+        <v>123456789</v>
+      </c>
+      <c r="BF33" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="BG33" s="52">
+        <v>222326460</v>
+      </c>
+      <c r="BH33" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="BI33" s="52">
+        <v>1234567890</v>
+      </c>
+      <c r="BJ33" s="52">
+        <v>12345</v>
+      </c>
+      <c r="BK33" s="52" t="s">
+        <v>198</v>
+      </c>
+      <c r="BL33" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="BM33" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="BN33" s="52">
+        <v>8975898616</v>
+      </c>
+      <c r="BO33" s="52">
+        <v>3293</v>
+      </c>
+      <c r="BP33" s="52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BQ33" s="52" t="s">
         <v>188</v>
       </c>
-      <c r="AA32" s="24" t="s">
+      <c r="BR33" s="52" t="s">
+        <v>318</v>
+      </c>
+      <c r="BS33" s="52" t="s">
         <v>319</v>
       </c>
-      <c r="AB32" s="24" t="s">
-        <v>320</v>
-      </c>
-      <c r="AC32" s="24">
+      <c r="BT33" s="52">
         <v>44202</v>
       </c>
-      <c r="AD32" s="24" t="s">
+      <c r="BU33" s="52" t="s">
         <v>222</v>
       </c>
-      <c r="AE32" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="AF32" s="24">
-        <v>222326460</v>
-      </c>
-      <c r="AG32" s="23" t="s">
+      <c r="BV33" s="52"/>
+      <c r="BW33" s="52"/>
+      <c r="BX33" s="52"/>
+      <c r="BY33" s="52"/>
+      <c r="BZ33" s="52"/>
+      <c r="CA33" s="52"/>
+      <c r="CB33" s="52"/>
+      <c r="CC33" s="52"/>
+      <c r="CD33" s="52"/>
+      <c r="CE33" s="52"/>
+      <c r="CF33" s="52"/>
+      <c r="CG33" s="52"/>
+      <c r="CH33" s="52"/>
+      <c r="CI33" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="CJ33" s="52">
+        <v>12345678</v>
+      </c>
+      <c r="CK33" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="CL33" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="CM33" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="AH32" s="23"/>
-      <c r="AI32" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="AJ32" s="24"/>
-      <c r="AK32" s="24"/>
-      <c r="AL32" s="24"/>
-      <c r="AM32" s="24"/>
-      <c r="AN32" s="24"/>
-      <c r="AO32" s="24"/>
-      <c r="AP32" s="24"/>
-      <c r="AQ32" s="24"/>
-      <c r="AR32" s="24"/>
-      <c r="AS32" s="24"/>
-      <c r="AT32" s="24"/>
-      <c r="AU32" s="24"/>
-      <c r="AV32" s="24"/>
-      <c r="AW32" s="24"/>
-      <c r="AX32" s="24"/>
-      <c r="AY32" s="24"/>
-      <c r="AZ32" s="28"/>
-      <c r="BA32" s="24"/>
-      <c r="BB32" s="24"/>
-      <c r="BC32" s="26">
-        <v>1</v>
-      </c>
-      <c r="BD32" s="26">
-        <v>101</v>
-      </c>
-      <c r="BE32" s="26">
+      <c r="CN33" s="51"/>
+      <c r="CO33" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="CP33" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="CQ33" s="51">
+        <v>2000</v>
+      </c>
+      <c r="CR33" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="CS33" s="51">
+        <v>50</v>
+      </c>
+      <c r="CT33" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="CU33" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="CV33" s="51">
+        <v>100</v>
+      </c>
+      <c r="CW33" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="CX33" s="51">
+        <v>25</v>
+      </c>
+      <c r="CY33" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="CZ33" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="DA33" s="51">
         <v>123456789</v>
       </c>
-      <c r="BF32" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="BG32" s="24">
-        <v>222326460</v>
-      </c>
-      <c r="BH32" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="BI32" s="24">
-        <v>1234567890</v>
-      </c>
-      <c r="BJ32" s="24">
-        <v>12345</v>
-      </c>
-      <c r="BK32" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="BL32" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="BM32" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="BN32" s="24">
-        <v>8975898616</v>
-      </c>
-      <c r="BO32" s="24">
-        <v>3293</v>
-      </c>
-      <c r="BP32" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="BQ32" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="BR32" s="24" t="s">
-        <v>319</v>
-      </c>
-      <c r="BS32" s="24" t="s">
-        <v>320</v>
-      </c>
-      <c r="BT32" s="24">
-        <v>44202</v>
-      </c>
-      <c r="BU32" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="BV32" s="24"/>
-      <c r="BW32" s="24"/>
-      <c r="BX32" s="24"/>
-      <c r="BY32" s="24"/>
-      <c r="BZ32" s="24"/>
-      <c r="CA32" s="24"/>
-      <c r="CB32" s="24"/>
-      <c r="CC32" s="24"/>
-      <c r="CD32" s="24"/>
-      <c r="CE32" s="24"/>
-      <c r="CF32" s="24"/>
-      <c r="CG32" s="24"/>
-      <c r="CH32" s="24"/>
-      <c r="CI32" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="CJ32" s="24">
-        <v>12345678</v>
-      </c>
-      <c r="CK32" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="CL32" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="CM32" s="24" t="s">
+      <c r="DB33" s="51"/>
+      <c r="DC33" s="51"/>
+      <c r="DD33" s="51">
+        <v>1</v>
+      </c>
+      <c r="DE33" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="DF33" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="DG33" s="51"/>
+      <c r="DH33" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="DI33" s="52">
+        <v>100</v>
+      </c>
+      <c r="DJ33" s="51">
+        <v>1</v>
+      </c>
+      <c r="DK33" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="DL33" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="DM33" s="51">
+        <v>100</v>
+      </c>
+      <c r="DN33" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="DO33" s="51">
+        <v>2000</v>
+      </c>
+      <c r="DP33" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="DQ33" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="DR33" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="DS33" s="51">
+        <v>1</v>
+      </c>
+      <c r="DT33" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="DU33" s="52">
+        <v>100</v>
+      </c>
+      <c r="DV33" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="DW33" s="52">
+        <v>100</v>
+      </c>
+      <c r="DX33" s="52">
+        <v>60</v>
+      </c>
+      <c r="DY33" s="52">
+        <v>75</v>
+      </c>
+      <c r="DZ33" s="52">
+        <v>60</v>
+      </c>
+      <c r="EA33" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="EB33" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="EC33" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="CN32" s="23"/>
-      <c r="CO32" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="CP32" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="CQ32" s="23">
-        <v>2000</v>
-      </c>
-      <c r="CR32" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="CS32" s="23">
-        <v>50</v>
-      </c>
-      <c r="CT32" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="CU32" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="CV32" s="23">
-        <v>100</v>
-      </c>
-      <c r="CW32" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="CX32" s="23">
-        <v>25</v>
-      </c>
-      <c r="CY32" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="CZ32" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="DA32" s="23">
-        <v>123456789</v>
-      </c>
-      <c r="DB32" s="23"/>
-      <c r="DC32" s="23"/>
-      <c r="DD32" s="23">
-        <v>1</v>
-      </c>
-      <c r="DE32" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="DF32" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="DG32" s="23"/>
-      <c r="DH32" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="DI32" s="24">
-        <v>100</v>
-      </c>
-      <c r="DJ32" s="23">
-        <v>1</v>
-      </c>
-      <c r="DK32" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="DL32" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="DM32" s="23">
-        <v>100</v>
-      </c>
-      <c r="DN32" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="DO32" s="23">
-        <v>2000</v>
-      </c>
-      <c r="DP32" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="DQ32" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="DR32" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="DS32" s="23">
-        <v>1</v>
-      </c>
-      <c r="DT32" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="DU32" s="24">
-        <v>100</v>
-      </c>
-      <c r="DV32" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="DW32" s="24">
-        <v>100</v>
-      </c>
-      <c r="DX32" s="24">
-        <v>60</v>
-      </c>
-      <c r="DY32" s="24">
-        <v>75</v>
-      </c>
-      <c r="DZ32" s="24">
-        <v>60</v>
-      </c>
-      <c r="EA32" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="EB32" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="EC32" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="ED32" s="24"/>
-      <c r="EE32" s="24"/>
-      <c r="EF32" s="24"/>
-      <c r="EG32" s="24"/>
-      <c r="EH32" s="24"/>
-      <c r="EI32" s="24"/>
-      <c r="EJ32" s="24"/>
-      <c r="EK32" s="24"/>
-      <c r="EL32" s="24"/>
-      <c r="EM32" s="24"/>
-      <c r="EN32" s="23"/>
-      <c r="EO32" s="23"/>
-      <c r="EP32" s="23"/>
-      <c r="EQ32" s="23"/>
-      <c r="ER32" s="23"/>
-      <c r="ES32" s="23"/>
-      <c r="ET32" s="23"/>
-      <c r="EU32" s="23"/>
-      <c r="EV32" s="23"/>
-      <c r="EW32" s="23"/>
-      <c r="EX32" s="23"/>
-      <c r="EY32" s="23"/>
-      <c r="EZ32" s="23"/>
-      <c r="FA32" s="23"/>
-      <c r="FB32" s="23"/>
-      <c r="FC32" s="29"/>
-    </row>
-    <row r="33" spans="1:189" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>321</v>
-      </c>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="H33" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="I33" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="J33" s="24">
-        <v>100</v>
-      </c>
-      <c r="K33" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="L33" s="24">
-        <v>605517846</v>
-      </c>
-      <c r="M33" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="N33" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="O33" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="P33" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q33" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="R33" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="S33" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="T33" s="24"/>
-      <c r="U33" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="V33" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="W33" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="X33" s="24" t="s">
-        <v>321</v>
-      </c>
-      <c r="Y33" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z33" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA33" s="24" t="s">
-        <v>319</v>
-      </c>
-      <c r="AB33" s="24" t="s">
-        <v>320</v>
-      </c>
-      <c r="AC33" s="24">
-        <v>44202</v>
-      </c>
-      <c r="AD33" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="AE33" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="AF33" s="24">
-        <v>222326460</v>
-      </c>
-      <c r="AG33" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="AH33" s="23"/>
-      <c r="AI33" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="AJ33" s="24"/>
-      <c r="AK33" s="24"/>
-      <c r="AL33" s="24"/>
-      <c r="AM33" s="24"/>
-      <c r="AN33" s="24"/>
-      <c r="AO33" s="24"/>
-      <c r="AP33" s="24"/>
-      <c r="AQ33" s="24"/>
-      <c r="AR33" s="24"/>
-      <c r="AS33" s="24"/>
-      <c r="AT33" s="24"/>
-      <c r="AU33" s="24"/>
-      <c r="AV33" s="24"/>
-      <c r="AW33" s="24"/>
-      <c r="AX33" s="24"/>
-      <c r="AY33" s="24"/>
-      <c r="AZ33" s="28"/>
-      <c r="BA33" s="24"/>
-      <c r="BB33" s="24"/>
-      <c r="BC33" s="26">
-        <v>1</v>
-      </c>
-      <c r="BD33" s="26">
-        <v>101</v>
-      </c>
-      <c r="BE33" s="26">
-        <v>123456789</v>
-      </c>
-      <c r="BF33" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="BG33" s="24">
-        <v>222326460</v>
-      </c>
-      <c r="BH33" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="BI33" s="24">
-        <v>1234567890</v>
-      </c>
-      <c r="BJ33" s="24">
-        <v>12345</v>
-      </c>
-      <c r="BK33" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="BL33" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="BM33" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="BN33" s="24">
-        <v>8975898616</v>
-      </c>
-      <c r="BO33" s="24">
-        <v>3293</v>
-      </c>
-      <c r="BP33" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="BQ33" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="BR33" s="24" t="s">
-        <v>319</v>
-      </c>
-      <c r="BS33" s="24" t="s">
-        <v>320</v>
-      </c>
-      <c r="BT33" s="24">
-        <v>44202</v>
-      </c>
-      <c r="BU33" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="BV33" s="24"/>
-      <c r="BW33" s="24"/>
-      <c r="BX33" s="24"/>
-      <c r="BY33" s="24"/>
-      <c r="BZ33" s="24"/>
-      <c r="CA33" s="24"/>
-      <c r="CB33" s="24"/>
-      <c r="CC33" s="24"/>
-      <c r="CD33" s="24"/>
-      <c r="CE33" s="24"/>
-      <c r="CF33" s="24"/>
-      <c r="CG33" s="24"/>
-      <c r="CH33" s="24"/>
-      <c r="CI33" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="CJ33" s="24">
-        <v>12345678</v>
-      </c>
-      <c r="CK33" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="CL33" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="CM33" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="CN33" s="23"/>
-      <c r="CO33" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="CP33" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="CQ33" s="23">
-        <v>2000</v>
-      </c>
-      <c r="CR33" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="CS33" s="23">
-        <v>50</v>
-      </c>
-      <c r="CT33" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="CU33" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="CV33" s="23">
-        <v>100</v>
-      </c>
-      <c r="CW33" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="CX33" s="23">
-        <v>25</v>
-      </c>
-      <c r="CY33" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="CZ33" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="DA33" s="23">
-        <v>123456789</v>
-      </c>
-      <c r="DB33" s="23"/>
-      <c r="DC33" s="23"/>
-      <c r="DD33" s="23">
-        <v>1</v>
-      </c>
-      <c r="DE33" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="DF33" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="DG33" s="23"/>
-      <c r="DH33" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="DI33" s="24">
-        <v>100</v>
-      </c>
-      <c r="DJ33" s="23">
-        <v>1</v>
-      </c>
-      <c r="DK33" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="DL33" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="DM33" s="23">
-        <v>100</v>
-      </c>
-      <c r="DN33" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="DO33" s="23">
-        <v>2000</v>
-      </c>
-      <c r="DP33" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="DQ33" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="DR33" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="DS33" s="23">
-        <v>1</v>
-      </c>
-      <c r="DT33" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="DU33" s="24">
-        <v>100</v>
-      </c>
-      <c r="DV33" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="DW33" s="24">
-        <v>100</v>
-      </c>
-      <c r="DX33" s="24">
-        <v>60</v>
-      </c>
-      <c r="DY33" s="24">
-        <v>75</v>
-      </c>
-      <c r="DZ33" s="24">
-        <v>60</v>
-      </c>
-      <c r="EA33" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="EB33" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="EC33" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="ED33" s="24"/>
-      <c r="EE33" s="24"/>
-      <c r="EF33" s="24"/>
-      <c r="EG33" s="24"/>
-      <c r="EH33" s="24"/>
-      <c r="EI33" s="24"/>
-      <c r="EJ33" s="24"/>
-      <c r="EK33" s="24"/>
-      <c r="EL33" s="24"/>
-      <c r="EM33" s="24"/>
-      <c r="EN33" s="23"/>
-      <c r="EO33" s="23"/>
-      <c r="EP33" s="23"/>
-      <c r="EQ33" s="23"/>
-      <c r="ER33" s="23"/>
-      <c r="ES33" s="23"/>
-      <c r="ET33" s="23"/>
-      <c r="EU33" s="23"/>
-      <c r="EV33" s="23"/>
-      <c r="EW33" s="23"/>
-      <c r="EX33" s="23"/>
-      <c r="EY33" s="23"/>
-      <c r="EZ33" s="23"/>
-      <c r="FA33" s="23"/>
-      <c r="FB33" s="23"/>
-      <c r="FC33" s="29"/>
+      <c r="ED33" s="52"/>
+      <c r="EE33" s="52"/>
+      <c r="EF33" s="52"/>
+      <c r="EG33" s="52"/>
+      <c r="EH33" s="52"/>
+      <c r="EI33" s="52"/>
+      <c r="EJ33" s="52"/>
+      <c r="EK33" s="52"/>
+      <c r="EL33" s="52"/>
+      <c r="EM33" s="52"/>
+      <c r="EN33" s="51"/>
+      <c r="EO33" s="51"/>
+      <c r="EP33" s="51"/>
+      <c r="EQ33" s="51"/>
+      <c r="ER33" s="51"/>
+      <c r="ES33" s="51"/>
+      <c r="ET33" s="51"/>
+      <c r="EU33" s="51"/>
+      <c r="EV33" s="51"/>
+      <c r="EW33" s="51"/>
+      <c r="EX33" s="51"/>
+      <c r="EY33" s="51"/>
+      <c r="EZ33" s="51"/>
+      <c r="FA33" s="51"/>
+      <c r="FB33" s="51"/>
+      <c r="FC33" s="57"/>
     </row>
     <row r="34" spans="1:189" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B34" s="45"/>
+      <c r="A34" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B34" s="61"/>
       <c r="C34" s="22" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D34" s="23" t="s">
         <v>145</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F34" s="24"/>
       <c r="G34" s="24" t="s">
@@ -13070,7 +13181,7 @@
         <v>154</v>
       </c>
       <c r="X34" s="24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y34" s="24">
         <v>9012633035</v>
@@ -13369,18 +13480,18 @@
       </c>
     </row>
     <row r="35" spans="1:189" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B35" s="45"/>
+      <c r="A35" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B35" s="61"/>
       <c r="C35" s="22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D35" s="23" t="s">
         <v>145</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F35" s="24"/>
       <c r="G35" s="24" t="s">
@@ -13433,7 +13544,7 @@
         <v>154</v>
       </c>
       <c r="X35" s="24" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Y35" s="24" t="s">
         <v>155</v>
@@ -13690,18 +13801,18 @@
       <c r="FC35" s="29"/>
     </row>
     <row r="36" spans="1:189" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B36" s="45"/>
+      <c r="A36" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B36" s="61"/>
       <c r="C36" s="22" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D36" s="23" t="s">
         <v>145</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F36" s="24"/>
       <c r="G36" s="24" t="s">
@@ -13754,7 +13865,7 @@
         <v>154</v>
       </c>
       <c r="X36" s="24" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Y36" s="24">
         <v>9012633035</v>
@@ -13763,13 +13874,13 @@
         <v>284</v>
       </c>
       <c r="AA36" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB36" s="24" t="s">
         <v>301</v>
       </c>
-      <c r="AB36" s="24" t="s">
+      <c r="AC36" s="24" t="s">
         <v>302</v>
-      </c>
-      <c r="AC36" s="24" t="s">
-        <v>303</v>
       </c>
       <c r="AD36" s="24" t="s">
         <v>164</v>
@@ -13785,7 +13896,7 @@
       </c>
       <c r="AH36" s="23"/>
       <c r="AI36" s="24" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AJ36" s="24"/>
       <c r="AK36" s="24"/>
@@ -13828,7 +13939,7 @@
       <c r="BT36" s="24"/>
       <c r="BU36" s="24"/>
       <c r="BV36" s="24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="BW36" s="24" t="s">
         <v>174</v>
@@ -14003,18 +14114,18 @@
       <c r="FC36" s="29"/>
     </row>
     <row r="37" spans="1:189" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B37" s="45"/>
+      <c r="A37" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B37" s="61"/>
       <c r="C37" s="22" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D37" s="23" t="s">
         <v>145</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F37" s="24"/>
       <c r="G37" s="24" t="s">
@@ -14067,7 +14178,7 @@
         <v>154</v>
       </c>
       <c r="X37" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Y37" s="24">
         <v>9012633035</v>
@@ -14076,13 +14187,13 @@
         <v>284</v>
       </c>
       <c r="AA37" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB37" s="24" t="s">
         <v>301</v>
       </c>
-      <c r="AB37" s="24" t="s">
+      <c r="AC37" s="24" t="s">
         <v>302</v>
-      </c>
-      <c r="AC37" s="24" t="s">
-        <v>303</v>
       </c>
       <c r="AD37" s="24" t="s">
         <v>164</v>
@@ -14098,7 +14209,7 @@
       </c>
       <c r="AH37" s="23"/>
       <c r="AI37" s="24" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AJ37" s="24"/>
       <c r="AK37" s="24"/>
@@ -14141,7 +14252,7 @@
       <c r="BT37" s="24"/>
       <c r="BU37" s="24"/>
       <c r="BV37" s="24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="BW37" s="24" t="s">
         <v>174</v>
@@ -14316,18 +14427,18 @@
       <c r="FC37" s="29"/>
     </row>
     <row r="38" spans="1:189" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B38" s="45"/>
+      <c r="A38" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B38" s="61"/>
       <c r="C38" s="22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D38" s="23" t="s">
         <v>145</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F38" s="24"/>
       <c r="G38" s="24" t="s">
@@ -14380,7 +14491,7 @@
         <v>154</v>
       </c>
       <c r="X38" s="24" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Y38" s="24">
         <v>9012633035</v>
@@ -14389,13 +14500,13 @@
         <v>284</v>
       </c>
       <c r="AA38" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB38" s="24" t="s">
         <v>301</v>
       </c>
-      <c r="AB38" s="24" t="s">
+      <c r="AC38" s="24" t="s">
         <v>302</v>
-      </c>
-      <c r="AC38" s="24" t="s">
-        <v>303</v>
       </c>
       <c r="AD38" s="24" t="s">
         <v>164</v>
@@ -14411,7 +14522,7 @@
       </c>
       <c r="AH38" s="23"/>
       <c r="AI38" s="24" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AJ38" s="24"/>
       <c r="AK38" s="24"/>
@@ -14460,7 +14571,7 @@
       <c r="BT38" s="24"/>
       <c r="BU38" s="24"/>
       <c r="BV38" s="24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="BW38" s="24" t="s">
         <v>174</v>
@@ -14635,18 +14746,18 @@
       <c r="FC38" s="29"/>
     </row>
     <row r="39" spans="1:189" s="31" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B39" s="44"/>
+      <c r="A39" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B39" s="60"/>
       <c r="C39" s="22" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D39" s="23" t="s">
         <v>145</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F39" s="24"/>
       <c r="G39" s="24" t="s">
@@ -14699,7 +14810,7 @@
         <v>154</v>
       </c>
       <c r="X39" s="24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Y39" s="24">
         <v>9012633035</v>
@@ -14708,13 +14819,13 @@
         <v>284</v>
       </c>
       <c r="AA39" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB39" s="24" t="s">
         <v>301</v>
       </c>
-      <c r="AB39" s="24" t="s">
+      <c r="AC39" s="24" t="s">
         <v>302</v>
-      </c>
-      <c r="AC39" s="24" t="s">
-        <v>303</v>
       </c>
       <c r="AD39" s="24" t="s">
         <v>164</v>
@@ -14730,7 +14841,7 @@
       </c>
       <c r="AH39" s="23"/>
       <c r="AI39" s="24" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AJ39" s="24"/>
       <c r="AK39" s="24"/>
@@ -14779,7 +14890,7 @@
       <c r="BT39" s="24"/>
       <c r="BU39" s="24"/>
       <c r="BV39" s="24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="BW39" s="24" t="s">
         <v>174</v>
@@ -14954,18 +15065,18 @@
       <c r="FC39" s="29"/>
     </row>
     <row r="40" spans="1:189" s="32" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B40" s="45"/>
+      <c r="A40" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B40" s="61"/>
       <c r="C40" s="22" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D40" s="23" t="s">
         <v>145</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F40" s="24"/>
       <c r="G40" s="24" t="s">
@@ -15018,7 +15129,7 @@
         <v>154</v>
       </c>
       <c r="X40" s="24" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Y40" s="24" t="s">
         <v>155</v>
@@ -15273,18 +15384,18 @@
       <c r="FC40" s="29"/>
     </row>
     <row r="41" spans="1:189" s="32" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B41" s="46"/>
+      <c r="A41" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B41" s="62"/>
       <c r="C41" s="22" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D41" s="23" t="s">
         <v>145</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F41" s="24"/>
       <c r="G41" s="24" t="s">
@@ -15337,7 +15448,7 @@
         <v>154</v>
       </c>
       <c r="X41" s="24" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Y41" s="24" t="s">
         <v>155</v>
@@ -15586,18 +15697,18 @@
       <c r="FC41" s="29"/>
     </row>
     <row r="42" spans="1:189" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B42" s="45"/>
+      <c r="A42" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B42" s="61"/>
       <c r="C42" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D42" s="23" t="s">
         <v>145</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F42" s="24"/>
       <c r="G42" s="24" t="s">
@@ -15650,7 +15761,7 @@
         <v>154</v>
       </c>
       <c r="X42" s="24" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Y42" s="24" t="s">
         <v>155</v>
@@ -15899,18 +16010,18 @@
       <c r="FC42" s="29"/>
     </row>
     <row r="43" spans="1:189" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B43" s="45"/>
+      <c r="A43" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B43" s="61"/>
       <c r="C43" s="22" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D43" s="23" t="s">
         <v>145</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F43" s="24"/>
       <c r="G43" s="24" t="s">
@@ -15963,7 +16074,7 @@
         <v>154</v>
       </c>
       <c r="X43" s="24" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Y43" s="24">
         <v>9012633035</v>
@@ -16211,364 +16322,364 @@
       <c r="FB43" s="23"/>
       <c r="FC43" s="29"/>
     </row>
-    <row r="44" spans="1:189" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:189" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="B44" s="45"/>
-      <c r="C44" s="22" t="s">
+      <c r="B44" s="61"/>
+      <c r="C44" s="50" t="s">
+        <v>343</v>
+      </c>
+      <c r="D44" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="E44" s="52" t="s">
         <v>344</v>
       </c>
-      <c r="D44" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="E44" s="24" t="s">
-        <v>345</v>
-      </c>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24" t="s">
+      <c r="F44" s="52"/>
+      <c r="G44" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="H44" s="25" t="s">
+      <c r="H44" s="53" t="s">
         <v>217</v>
       </c>
-      <c r="I44" s="26" t="s">
+      <c r="I44" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="J44" s="24">
+      <c r="J44" s="52">
         <v>80</v>
       </c>
-      <c r="K44" s="24" t="s">
+      <c r="K44" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="L44" s="24">
+      <c r="L44" s="52">
         <v>605517846</v>
       </c>
-      <c r="M44" s="24" t="s">
+      <c r="M44" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="N44" s="24" t="s">
+      <c r="N44" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="O44" s="24" t="s">
+      <c r="O44" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="P44" s="24" t="s">
+      <c r="P44" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="Q44" s="24" t="s">
+      <c r="Q44" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="R44" s="27" t="s">
+      <c r="R44" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="S44" s="24" t="s">
+      <c r="S44" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="T44" s="24"/>
-      <c r="U44" s="24" t="s">
+      <c r="T44" s="52"/>
+      <c r="U44" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="V44" s="24" t="s">
+      <c r="V44" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="W44" s="24" t="s">
+      <c r="W44" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="X44" s="24" t="s">
-        <v>345</v>
-      </c>
-      <c r="Y44" s="24" t="s">
+      <c r="X44" s="52" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y44" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="Z44" s="24" t="s">
+      <c r="Z44" s="52" t="s">
         <v>188</v>
       </c>
-      <c r="AA44" s="24" t="s">
+      <c r="AA44" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="AB44" s="24" t="s">
+      <c r="AB44" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="AC44" s="24">
+      <c r="AC44" s="52">
         <v>30339</v>
       </c>
-      <c r="AD44" s="24" t="s">
+      <c r="AD44" s="52" t="s">
         <v>222</v>
       </c>
-      <c r="AE44" s="24" t="s">
+      <c r="AE44" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="AF44" s="24" t="s">
+      <c r="AF44" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="AG44" s="23" t="s">
+      <c r="AG44" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="AH44" s="23"/>
-      <c r="AI44" s="24"/>
-      <c r="AJ44" s="24"/>
-      <c r="AK44" s="24"/>
-      <c r="AL44" s="24"/>
-      <c r="AM44" s="24"/>
-      <c r="AN44" s="24"/>
-      <c r="AO44" s="24"/>
-      <c r="AP44" s="24"/>
-      <c r="AQ44" s="24"/>
-      <c r="AR44" s="24"/>
-      <c r="AS44" s="24"/>
-      <c r="AT44" s="24"/>
-      <c r="AU44" s="24"/>
-      <c r="AV44" s="24"/>
-      <c r="AW44" s="24"/>
-      <c r="AX44" s="24"/>
-      <c r="AY44" s="24"/>
-      <c r="AZ44" s="28"/>
-      <c r="BA44" s="24"/>
-      <c r="BB44" s="24"/>
-      <c r="BC44" s="26">
-        <v>1</v>
-      </c>
-      <c r="BD44" s="26">
+      <c r="AH44" s="51"/>
+      <c r="AI44" s="52"/>
+      <c r="AJ44" s="52"/>
+      <c r="AK44" s="52"/>
+      <c r="AL44" s="52"/>
+      <c r="AM44" s="52"/>
+      <c r="AN44" s="52"/>
+      <c r="AO44" s="52"/>
+      <c r="AP44" s="52"/>
+      <c r="AQ44" s="52"/>
+      <c r="AR44" s="52"/>
+      <c r="AS44" s="52"/>
+      <c r="AT44" s="52"/>
+      <c r="AU44" s="52"/>
+      <c r="AV44" s="52"/>
+      <c r="AW44" s="52"/>
+      <c r="AX44" s="52"/>
+      <c r="AY44" s="52"/>
+      <c r="AZ44" s="56"/>
+      <c r="BA44" s="52"/>
+      <c r="BB44" s="52"/>
+      <c r="BC44" s="54">
+        <v>1</v>
+      </c>
+      <c r="BD44" s="54">
         <v>101</v>
       </c>
-      <c r="BE44" s="26">
+      <c r="BE44" s="54">
         <v>123456789</v>
       </c>
-      <c r="BF44" s="24"/>
-      <c r="BG44" s="24"/>
-      <c r="BH44" s="24"/>
-      <c r="BI44" s="24"/>
-      <c r="BJ44" s="24"/>
-      <c r="BK44" s="24"/>
-      <c r="BL44" s="24"/>
-      <c r="BM44" s="24"/>
-      <c r="BN44" s="24"/>
-      <c r="BO44" s="24"/>
-      <c r="BP44" s="24"/>
-      <c r="BQ44" s="24"/>
-      <c r="BR44" s="24"/>
-      <c r="BS44" s="24"/>
-      <c r="BT44" s="24"/>
-      <c r="BU44" s="24"/>
-      <c r="BV44" s="24"/>
-      <c r="BW44" s="24"/>
-      <c r="BX44" s="24"/>
-      <c r="BY44" s="24"/>
-      <c r="BZ44" s="24"/>
-      <c r="CA44" s="24"/>
-      <c r="CB44" s="24"/>
-      <c r="CC44" s="24"/>
-      <c r="CD44" s="24"/>
-      <c r="CE44" s="24"/>
-      <c r="CF44" s="24"/>
-      <c r="CG44" s="24"/>
-      <c r="CH44" s="24"/>
-      <c r="CI44" s="24"/>
-      <c r="CJ44" s="24"/>
-      <c r="CK44" s="24" t="s">
+      <c r="BF44" s="52"/>
+      <c r="BG44" s="52"/>
+      <c r="BH44" s="52"/>
+      <c r="BI44" s="52"/>
+      <c r="BJ44" s="52"/>
+      <c r="BK44" s="52"/>
+      <c r="BL44" s="52"/>
+      <c r="BM44" s="52"/>
+      <c r="BN44" s="52"/>
+      <c r="BO44" s="52"/>
+      <c r="BP44" s="52"/>
+      <c r="BQ44" s="52"/>
+      <c r="BR44" s="52"/>
+      <c r="BS44" s="52"/>
+      <c r="BT44" s="52"/>
+      <c r="BU44" s="52"/>
+      <c r="BV44" s="52"/>
+      <c r="BW44" s="52"/>
+      <c r="BX44" s="52"/>
+      <c r="BY44" s="52"/>
+      <c r="BZ44" s="52"/>
+      <c r="CA44" s="52"/>
+      <c r="CB44" s="52"/>
+      <c r="CC44" s="52"/>
+      <c r="CD44" s="52"/>
+      <c r="CE44" s="52"/>
+      <c r="CF44" s="52"/>
+      <c r="CG44" s="52"/>
+      <c r="CH44" s="52"/>
+      <c r="CI44" s="52"/>
+      <c r="CJ44" s="52"/>
+      <c r="CK44" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="CL44" s="24">
+      <c r="CL44" s="52">
         <v>605517846</v>
       </c>
-      <c r="CM44" s="24" t="s">
+      <c r="CM44" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="CN44" s="23"/>
-      <c r="CO44" s="23" t="s">
+      <c r="CN44" s="51"/>
+      <c r="CO44" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="CP44" s="23" t="s">
+      <c r="CP44" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="CQ44" s="23">
+      <c r="CQ44" s="51">
         <v>55</v>
       </c>
-      <c r="CR44" s="23" t="s">
+      <c r="CR44" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="CS44" s="23">
+      <c r="CS44" s="51">
         <v>50</v>
       </c>
-      <c r="CT44" s="23" t="s">
+      <c r="CT44" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="CU44" s="23" t="s">
+      <c r="CU44" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="CV44" s="23">
+      <c r="CV44" s="51">
         <v>100</v>
       </c>
-      <c r="CW44" s="23" t="s">
+      <c r="CW44" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="CX44" s="23">
+      <c r="CX44" s="51">
         <v>25</v>
       </c>
-      <c r="CY44" s="23" t="s">
+      <c r="CY44" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="CZ44" s="23" t="s">
+      <c r="CZ44" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="DA44" s="23">
+      <c r="DA44" s="51">
         <v>123456789</v>
       </c>
-      <c r="DB44" s="23"/>
-      <c r="DC44" s="23"/>
-      <c r="DD44" s="23">
-        <v>1</v>
-      </c>
-      <c r="DE44" s="23" t="s">
+      <c r="DB44" s="51"/>
+      <c r="DC44" s="51"/>
+      <c r="DD44" s="51">
+        <v>1</v>
+      </c>
+      <c r="DE44" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="DF44" s="23" t="s">
+      <c r="DF44" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="DG44" s="23"/>
-      <c r="DH44" s="23" t="s">
+      <c r="DG44" s="51"/>
+      <c r="DH44" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="DI44" s="24">
+      <c r="DI44" s="52">
         <v>80</v>
       </c>
-      <c r="DJ44" s="23">
-        <v>1</v>
-      </c>
-      <c r="DK44" s="23" t="s">
+      <c r="DJ44" s="51">
+        <v>1</v>
+      </c>
+      <c r="DK44" s="51" t="s">
         <v>177</v>
       </c>
-      <c r="DL44" s="23" t="s">
+      <c r="DL44" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="DM44" s="23">
+      <c r="DM44" s="51">
         <v>100</v>
       </c>
-      <c r="DN44" s="23" t="s">
+      <c r="DN44" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="DO44" s="23">
+      <c r="DO44" s="51">
         <v>55</v>
       </c>
-      <c r="DP44" s="23" t="s">
+      <c r="DP44" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="DQ44" s="24" t="s">
+      <c r="DQ44" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="DR44" s="24" t="s">
+      <c r="DR44" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="DS44" s="23">
-        <v>1</v>
-      </c>
-      <c r="DT44" s="24" t="s">
+      <c r="DS44" s="51">
+        <v>1</v>
+      </c>
+      <c r="DT44" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="DU44" s="24">
+      <c r="DU44" s="52">
         <v>55</v>
       </c>
-      <c r="DV44" s="24" t="s">
+      <c r="DV44" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="DW44" s="24">
+      <c r="DW44" s="52">
         <v>80</v>
       </c>
-      <c r="DX44" s="24">
+      <c r="DX44" s="52">
         <v>80</v>
       </c>
-      <c r="DY44" s="24">
+      <c r="DY44" s="52">
         <v>60</v>
       </c>
-      <c r="DZ44" s="24">
+      <c r="DZ44" s="52">
         <v>70</v>
       </c>
-      <c r="EA44" s="24" t="s">
+      <c r="EA44" s="52" t="s">
         <v>182</v>
       </c>
-      <c r="EB44" s="24" t="s">
+      <c r="EB44" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="EC44" s="24" t="s">
+      <c r="EC44" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="ED44" s="24" t="s">
+      <c r="ED44" s="52" t="s">
         <v>233</v>
       </c>
-      <c r="EE44" s="24"/>
-      <c r="EF44" s="24"/>
-      <c r="EG44" s="24"/>
-      <c r="EH44" s="24"/>
-      <c r="EI44" s="24"/>
-      <c r="EJ44" s="24"/>
-      <c r="EK44" s="24"/>
-      <c r="EL44" s="24" t="s">
+      <c r="EE44" s="52"/>
+      <c r="EF44" s="52"/>
+      <c r="EG44" s="52"/>
+      <c r="EH44" s="52"/>
+      <c r="EI44" s="52"/>
+      <c r="EJ44" s="52"/>
+      <c r="EK44" s="52"/>
+      <c r="EL44" s="52" t="s">
         <v>234</v>
       </c>
-      <c r="EM44" s="24"/>
-      <c r="EN44" s="23" t="s">
+      <c r="EM44" s="52"/>
+      <c r="EN44" s="51" t="s">
         <v>235</v>
       </c>
-      <c r="EO44" s="23" t="s">
+      <c r="EO44" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="EP44" s="23">
-        <v>1</v>
-      </c>
-      <c r="EQ44" s="23">
+      <c r="EP44" s="51">
+        <v>1</v>
+      </c>
+      <c r="EQ44" s="51">
         <v>1090</v>
       </c>
-      <c r="ER44" s="23">
-        <v>1</v>
-      </c>
-      <c r="ES44" s="23" t="s">
+      <c r="ER44" s="51">
+        <v>1</v>
+      </c>
+      <c r="ES44" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="ET44" s="23">
+      <c r="ET44" s="51">
         <v>0</v>
       </c>
-      <c r="EU44" s="23" t="s">
+      <c r="EU44" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="EV44" s="23" t="s">
+      <c r="EV44" s="51" t="s">
         <v>239</v>
       </c>
-      <c r="EW44" s="23">
+      <c r="EW44" s="51">
         <v>3</v>
       </c>
-      <c r="EX44" s="23">
-        <v>1</v>
-      </c>
-      <c r="EY44" s="23" t="s">
+      <c r="EX44" s="51">
+        <v>1</v>
+      </c>
+      <c r="EY44" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="EZ44" s="23" t="s">
+      <c r="EZ44" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="FA44" s="23" t="s">
+      <c r="FA44" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="FB44" s="23" t="s">
+      <c r="FB44" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="FC44" s="29">
+      <c r="FC44" s="57">
         <v>9015551234</v>
       </c>
     </row>
     <row r="45" spans="1:189" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B45" s="45"/>
+      <c r="A45" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B45" s="61"/>
       <c r="C45" s="22" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D45" s="23" t="s">
         <v>145</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F45" s="24"/>
       <c r="G45" s="24" t="s">
@@ -16621,7 +16732,7 @@
         <v>154</v>
       </c>
       <c r="X45" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Y45" s="24" t="s">
         <v>155</v>
@@ -16719,7 +16830,7 @@
         <v>188</v>
       </c>
       <c r="BR45" s="24" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="BS45" s="24"/>
       <c r="BT45" s="24">
@@ -16904,18 +17015,18 @@
       <c r="FC45" s="29"/>
     </row>
     <row r="46" spans="1:189" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B46" s="45"/>
+      <c r="A46" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B46" s="61"/>
       <c r="C46" s="22" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D46" s="23" t="s">
         <v>145</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F46" s="24"/>
       <c r="G46" s="24" t="s">
@@ -16968,7 +17079,7 @@
         <v>154</v>
       </c>
       <c r="X46" s="24" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Y46" s="24" t="s">
         <v>155</v>
@@ -17213,18 +17324,18 @@
       <c r="FC46" s="29"/>
     </row>
     <row r="47" spans="1:189" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B47" s="44"/>
+      <c r="A47" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B47" s="60"/>
       <c r="C47" s="33" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D47" s="34" t="s">
         <v>145</v>
       </c>
       <c r="E47" s="35" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F47" s="35"/>
       <c r="G47" s="35" t="s">
@@ -17277,7 +17388,7 @@
         <v>154</v>
       </c>
       <c r="X47" s="35" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Y47" s="35" t="s">
         <v>155</v>
@@ -17378,7 +17489,7 @@
         <v>222326460</v>
       </c>
       <c r="CM47" s="35" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="CN47" s="34"/>
       <c r="CO47" s="34" t="s">

--- a/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/UK International.xlsx
+++ b/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/UK International.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwinchester\Documents\ShipWorks3x\Code\ShipWorks.Tests.Integration\DataSources\FedExAll\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\ShipWorks\Code\ShipWorks.Tests.Integration\DataSources\FedExAll\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1094,7 +1094,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2084,6 +2084,18 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="14" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="358" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="358" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="358" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="358" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2101,18 +2113,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="358" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="358" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="358" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="358" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="383">
@@ -2601,23 +2601,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2653,23 +2636,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2849,8 +2815,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:FB47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2886,10 +2852,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:158" s="2" customFormat="1" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="66" t="s">
         <v>354</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="65"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3360,8 +3326,8 @@
       </c>
     </row>
     <row r="2" spans="1:158" s="2" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="70"/>
-      <c r="B2" s="69"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="63"/>
       <c r="C2" s="3"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11" t="s">
@@ -3831,7 +3797,7 @@
       <c r="A3" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="67" t="s">
         <v>352</v>
       </c>
       <c r="C3" s="21" t="s">
@@ -4155,7 +4121,7 @@
       <c r="A4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B4" s="64"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="25" t="s">
         <v>342</v>
       </c>
@@ -4471,7 +4437,7 @@
       <c r="A5" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B5" s="64"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="25" t="s">
         <v>220</v>
       </c>
@@ -4811,7 +4777,7 @@
       <c r="A6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B6" s="64"/>
+      <c r="B6" s="68"/>
       <c r="C6" s="25" t="s">
         <v>224</v>
       </c>
@@ -5109,7 +5075,7 @@
       <c r="A7" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B7" s="64"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="25" t="s">
         <v>351</v>
       </c>
@@ -5407,7 +5373,7 @@
       <c r="A8" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B8" s="64"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="25" t="s">
         <v>232</v>
       </c>
@@ -5755,7 +5721,7 @@
       <c r="A9" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B9" s="64"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="25" t="s">
         <v>212</v>
       </c>
@@ -6061,7 +6027,7 @@
       <c r="A10" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B10" s="64"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="25" t="s">
         <v>235</v>
       </c>
@@ -6407,7 +6373,7 @@
       <c r="A11" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B11" s="64"/>
+      <c r="B11" s="68"/>
       <c r="C11" s="25" t="s">
         <v>241</v>
       </c>
@@ -6749,7 +6715,7 @@
       <c r="A12" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B12" s="64"/>
+      <c r="B12" s="68"/>
       <c r="C12" s="25" t="s">
         <v>246</v>
       </c>
@@ -7093,7 +7059,7 @@
       <c r="A13" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B13" s="64"/>
+      <c r="B13" s="68"/>
       <c r="C13" s="25" t="s">
         <v>249</v>
       </c>
@@ -7397,7 +7363,7 @@
       <c r="A14" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B14" s="64"/>
+      <c r="B14" s="68"/>
       <c r="C14" s="25" t="s">
         <v>253</v>
       </c>
@@ -7747,7 +7713,7 @@
       <c r="A15" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B15" s="64"/>
+      <c r="B15" s="68"/>
       <c r="C15" s="25" t="s">
         <v>212</v>
       </c>
@@ -8069,7 +8035,7 @@
       <c r="A16" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B16" s="64"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="25" t="s">
         <v>256</v>
       </c>
@@ -8371,7 +8337,7 @@
       <c r="A17" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B17" s="64"/>
+      <c r="B17" s="68"/>
       <c r="C17" s="25" t="s">
         <v>259</v>
       </c>
@@ -8687,7 +8653,7 @@
       <c r="A18" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B18" s="64"/>
+      <c r="B18" s="68"/>
       <c r="C18" s="25" t="s">
         <v>267</v>
       </c>
@@ -8983,7 +8949,7 @@
       <c r="A19" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B19" s="64"/>
+      <c r="B19" s="68"/>
       <c r="C19" s="25" t="s">
         <v>212</v>
       </c>
@@ -9291,7 +9257,7 @@
       <c r="A20" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B20" s="64"/>
+      <c r="B20" s="68"/>
       <c r="C20" s="25" t="s">
         <v>322</v>
       </c>
@@ -9659,7 +9625,7 @@
       <c r="A21" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B21" s="64"/>
+      <c r="B21" s="68"/>
       <c r="C21" s="25" t="s">
         <v>275</v>
       </c>
@@ -9975,7 +9941,7 @@
       <c r="A22" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B22" s="64"/>
+      <c r="B22" s="68"/>
       <c r="C22" s="25" t="s">
         <v>338</v>
       </c>
@@ -10273,7 +10239,7 @@
       <c r="A23" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B23" s="64"/>
+      <c r="B23" s="68"/>
       <c r="C23" s="25" t="s">
         <v>280</v>
       </c>
@@ -10593,7 +10559,7 @@
       <c r="A24" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B24" s="64"/>
+      <c r="B24" s="68"/>
       <c r="C24" s="25" t="s">
         <v>341</v>
       </c>
@@ -10947,7 +10913,7 @@
       <c r="A25" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B25" s="64"/>
+      <c r="B25" s="68"/>
       <c r="C25" s="25" t="s">
         <v>346</v>
       </c>
@@ -11323,7 +11289,7 @@
       <c r="A26" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B26" s="64"/>
+      <c r="B26" s="68"/>
       <c r="C26" s="25" t="s">
         <v>327</v>
       </c>
@@ -11643,7 +11609,7 @@
       <c r="A27" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B27" s="64"/>
+      <c r="B27" s="68"/>
       <c r="C27" s="25" t="s">
         <v>325</v>
       </c>
@@ -11963,7 +11929,7 @@
       <c r="A28" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B28" s="64"/>
+      <c r="B28" s="68"/>
       <c r="C28" s="25" t="s">
         <v>220</v>
       </c>
@@ -12303,7 +12269,7 @@
       <c r="A29" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B29" s="64"/>
+      <c r="B29" s="68"/>
       <c r="C29" s="25" t="s">
         <v>295</v>
       </c>
@@ -12643,7 +12609,7 @@
       <c r="A30" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B30" s="64"/>
+      <c r="B30" s="68"/>
       <c r="C30" s="25" t="s">
         <v>253</v>
       </c>
@@ -12993,7 +12959,7 @@
       <c r="A31" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B31" s="64"/>
+      <c r="B31" s="68"/>
       <c r="C31" s="25" t="s">
         <v>235</v>
       </c>
@@ -13343,7 +13309,7 @@
       <c r="A32" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B32" s="64"/>
+      <c r="B32" s="68"/>
       <c r="C32" s="25" t="s">
         <v>302</v>
       </c>
@@ -13667,7 +13633,7 @@
       <c r="A33" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B33" s="64"/>
+      <c r="B33" s="68"/>
       <c r="C33" s="25" t="s">
         <v>324</v>
       </c>
@@ -13983,7 +13949,7 @@
       <c r="A34" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B34" s="64"/>
+      <c r="B34" s="68"/>
       <c r="C34" s="25" t="s">
         <v>343</v>
       </c>
@@ -14299,7 +14265,7 @@
       <c r="A35" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B35" s="64"/>
+      <c r="B35" s="68"/>
       <c r="C35" s="25" t="s">
         <v>326</v>
       </c>
@@ -14621,7 +14587,7 @@
       <c r="A36" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B36" s="64"/>
+      <c r="B36" s="68"/>
       <c r="C36" s="25" t="s">
         <v>309</v>
       </c>
@@ -14943,7 +14909,7 @@
       <c r="A37" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B37" s="64"/>
+      <c r="B37" s="68"/>
       <c r="C37" s="25" t="s">
         <v>337</v>
       </c>
@@ -15259,7 +15225,7 @@
       <c r="A38" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B38" s="64"/>
+      <c r="B38" s="68"/>
       <c r="C38" s="25" t="s">
         <v>312</v>
       </c>
@@ -15575,7 +15541,7 @@
       <c r="A39" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B39" s="64"/>
+      <c r="B39" s="68"/>
       <c r="C39" s="25" t="s">
         <v>316</v>
       </c>
@@ -15923,7 +15889,7 @@
       <c r="A40" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B40" s="64"/>
+      <c r="B40" s="68"/>
       <c r="C40" s="25" t="s">
         <v>173</v>
       </c>
@@ -16273,7 +16239,7 @@
       <c r="A41" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B41" s="64"/>
+      <c r="B41" s="68"/>
       <c r="C41" s="25" t="s">
         <v>319</v>
       </c>
@@ -16585,7 +16551,7 @@
       <c r="A42" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B42" s="65"/>
+      <c r="B42" s="69"/>
       <c r="C42" s="30" t="s">
         <v>339</v>
       </c>
@@ -16903,7 +16869,7 @@
       <c r="A43" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B43" s="66" t="s">
+      <c r="B43" s="70" t="s">
         <v>353</v>
       </c>
       <c r="C43" s="43" t="s">
@@ -17217,7 +17183,7 @@
       <c r="A44" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B44" s="67"/>
+      <c r="B44" s="71"/>
       <c r="C44" s="43" t="s">
         <v>323</v>
       </c>
@@ -17537,7 +17503,7 @@
       <c r="A45" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B45" s="67"/>
+      <c r="B45" s="71"/>
       <c r="C45" s="43" t="s">
         <v>340</v>
       </c>
@@ -17903,7 +17869,7 @@
       <c r="A46" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B46" s="67"/>
+      <c r="B46" s="71"/>
       <c r="C46" s="43" t="s">
         <v>328</v>
       </c>
@@ -18225,7 +18191,7 @@
       <c r="A47" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B47" s="68"/>
+      <c r="B47" s="72"/>
       <c r="C47" s="43" t="s">
         <v>314</v>
       </c>

--- a/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/UK International.xlsx
+++ b/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/UK International.xlsx
@@ -19,12 +19,12 @@
     <definedName name="_lu1">#REF!</definedName>
     <definedName name="_lu2">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2998" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3001" uniqueCount="356">
   <si>
     <t>Description</t>
   </si>
@@ -1089,6 +1089,9 @@
   </si>
   <si>
     <t>SaveLabel</t>
+  </si>
+  <si>
+    <t>00133</t>
   </si>
 </sst>
 </file>
@@ -1213,7 +1216,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1247,6 +1250,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1898,7 +1907,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="358" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2095,6 +2104,42 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="358" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="51" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="358" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="358" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="358" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="358" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -2815,8 +2860,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:FB47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="DW1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="EJ1" sqref="EJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3797,7 +3842,7 @@
       <c r="A3" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="79" t="s">
         <v>352</v>
       </c>
       <c r="C3" s="21" t="s">
@@ -4121,7 +4166,7 @@
       <c r="A4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B4" s="68"/>
+      <c r="B4" s="80"/>
       <c r="C4" s="25" t="s">
         <v>342</v>
       </c>
@@ -4242,8 +4287,8 @@
         <v>329</v>
       </c>
       <c r="AX4" s="35"/>
-      <c r="AY4" s="18">
-        <v>44030</v>
+      <c r="AY4" s="67" t="s">
+        <v>355</v>
       </c>
       <c r="AZ4" s="35" t="s">
         <v>168</v>
@@ -4437,7 +4482,7 @@
       <c r="A5" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B5" s="68"/>
+      <c r="B5" s="80"/>
       <c r="C5" s="25" t="s">
         <v>220</v>
       </c>
@@ -4773,309 +4818,309 @@
       <c r="FA5" s="26"/>
       <c r="FB5" s="28"/>
     </row>
-    <row r="6" spans="1:158" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="b">
+    <row r="6" spans="1:158" s="68" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="68" t="b">
         <v>0</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="25" t="s">
+      <c r="B6" s="80"/>
+      <c r="C6" s="69" t="s">
         <v>224</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="71" t="s">
         <v>225</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35" t="s">
+      <c r="F6" s="71"/>
+      <c r="G6" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="72" t="s">
         <v>170</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="73" t="s">
         <v>199</v>
       </c>
-      <c r="J6" s="35">
-        <v>30</v>
-      </c>
-      <c r="K6" s="35" t="s">
+      <c r="J6" s="71">
+        <v>10</v>
+      </c>
+      <c r="K6" s="71" t="s">
         <v>162</v>
       </c>
-      <c r="L6" s="35">
+      <c r="L6" s="71">
         <v>605517846</v>
       </c>
-      <c r="M6" s="35" t="s">
+      <c r="M6" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="N6" s="35" t="s">
+      <c r="N6" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="O6" s="35" t="s">
+      <c r="O6" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="P6" s="35" t="s">
+      <c r="P6" s="71" t="s">
         <v>166</v>
       </c>
-      <c r="Q6" s="35" t="s">
+      <c r="Q6" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="R6" s="38" t="s">
+      <c r="R6" s="74" t="s">
         <v>344</v>
       </c>
-      <c r="S6" s="35" t="s">
+      <c r="S6" s="71" t="s">
         <v>202</v>
       </c>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35" t="s">
+      <c r="T6" s="71"/>
+      <c r="U6" s="71" t="s">
         <v>345</v>
       </c>
-      <c r="V6" s="35" t="s">
+      <c r="V6" s="71" t="s">
         <v>203</v>
       </c>
-      <c r="W6" s="35" t="s">
+      <c r="W6" s="71" t="s">
         <v>166</v>
       </c>
-      <c r="X6" s="35" t="s">
+      <c r="X6" s="71" t="s">
         <v>225</v>
       </c>
-      <c r="Y6" s="35" t="s">
+      <c r="Y6" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="Z6" s="35" t="s">
+      <c r="Z6" s="71" t="s">
         <v>167</v>
       </c>
-      <c r="AA6" s="35" t="s">
+      <c r="AA6" s="71" t="s">
         <v>331</v>
       </c>
-      <c r="AB6" s="35" t="s">
+      <c r="AB6" s="71" t="s">
         <v>227</v>
       </c>
-      <c r="AC6" s="35">
+      <c r="AC6" s="71">
         <v>15520</v>
       </c>
-      <c r="AD6" s="35" t="s">
+      <c r="AD6" s="71" t="s">
         <v>228</v>
       </c>
-      <c r="AE6" s="35" t="s">
+      <c r="AE6" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="AF6" s="35" t="s">
+      <c r="AF6" s="71" t="s">
         <v>205</v>
       </c>
-      <c r="AG6" s="26" t="s">
+      <c r="AG6" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="AH6" s="59" t="s">
+      <c r="AH6" s="75" t="s">
         <v>203</v>
       </c>
-      <c r="AI6" s="35"/>
-      <c r="AJ6" s="35"/>
-      <c r="AK6" s="35"/>
-      <c r="AL6" s="35"/>
-      <c r="AM6" s="35"/>
-      <c r="AN6" s="35"/>
-      <c r="AO6" s="35"/>
-      <c r="AP6" s="35"/>
-      <c r="AQ6" s="35"/>
-      <c r="AR6" s="35"/>
-      <c r="AS6" s="35"/>
-      <c r="AT6" s="35"/>
-      <c r="AU6" s="35"/>
-      <c r="AV6" s="35"/>
-      <c r="AW6" s="35"/>
-      <c r="AX6" s="35"/>
-      <c r="AY6" s="18"/>
-      <c r="AZ6" s="35"/>
-      <c r="BA6" s="35"/>
-      <c r="BB6" s="17"/>
-      <c r="BC6" s="17"/>
-      <c r="BD6" s="17"/>
-      <c r="BE6" s="35"/>
-      <c r="BF6" s="35"/>
-      <c r="BG6" s="35"/>
-      <c r="BH6" s="35"/>
-      <c r="BI6" s="35"/>
-      <c r="BJ6" s="35"/>
-      <c r="BK6" s="35"/>
-      <c r="BL6" s="35"/>
-      <c r="BM6" s="35"/>
-      <c r="BN6" s="35"/>
-      <c r="BO6" s="35"/>
-      <c r="BP6" s="35"/>
-      <c r="BQ6" s="35"/>
-      <c r="BR6" s="35"/>
-      <c r="BS6" s="35"/>
-      <c r="BT6" s="35"/>
-      <c r="BU6" s="35"/>
-      <c r="BV6" s="35"/>
-      <c r="BW6" s="35"/>
-      <c r="BX6" s="35"/>
-      <c r="BY6" s="35"/>
-      <c r="BZ6" s="35"/>
-      <c r="CA6" s="35"/>
-      <c r="CB6" s="35"/>
-      <c r="CC6" s="35"/>
-      <c r="CD6" s="35"/>
-      <c r="CE6" s="35"/>
-      <c r="CF6" s="35"/>
-      <c r="CG6" s="35"/>
-      <c r="CH6" s="35"/>
-      <c r="CI6" s="35"/>
-      <c r="CJ6" s="54" t="s">
+      <c r="AI6" s="71"/>
+      <c r="AJ6" s="71"/>
+      <c r="AK6" s="71"/>
+      <c r="AL6" s="71"/>
+      <c r="AM6" s="71"/>
+      <c r="AN6" s="71"/>
+      <c r="AO6" s="71"/>
+      <c r="AP6" s="71"/>
+      <c r="AQ6" s="71"/>
+      <c r="AR6" s="71"/>
+      <c r="AS6" s="71"/>
+      <c r="AT6" s="71"/>
+      <c r="AU6" s="71"/>
+      <c r="AV6" s="71"/>
+      <c r="AW6" s="71"/>
+      <c r="AX6" s="71"/>
+      <c r="AY6" s="76"/>
+      <c r="AZ6" s="71"/>
+      <c r="BA6" s="71"/>
+      <c r="BB6" s="73"/>
+      <c r="BC6" s="73"/>
+      <c r="BD6" s="73"/>
+      <c r="BE6" s="71"/>
+      <c r="BF6" s="71"/>
+      <c r="BG6" s="71"/>
+      <c r="BH6" s="71"/>
+      <c r="BI6" s="71"/>
+      <c r="BJ6" s="71"/>
+      <c r="BK6" s="71"/>
+      <c r="BL6" s="71"/>
+      <c r="BM6" s="71"/>
+      <c r="BN6" s="71"/>
+      <c r="BO6" s="71"/>
+      <c r="BP6" s="71"/>
+      <c r="BQ6" s="71"/>
+      <c r="BR6" s="71"/>
+      <c r="BS6" s="71"/>
+      <c r="BT6" s="71"/>
+      <c r="BU6" s="71"/>
+      <c r="BV6" s="71"/>
+      <c r="BW6" s="71"/>
+      <c r="BX6" s="71"/>
+      <c r="BY6" s="71"/>
+      <c r="BZ6" s="71"/>
+      <c r="CA6" s="71"/>
+      <c r="CB6" s="71"/>
+      <c r="CC6" s="71"/>
+      <c r="CD6" s="71"/>
+      <c r="CE6" s="71"/>
+      <c r="CF6" s="71"/>
+      <c r="CG6" s="71"/>
+      <c r="CH6" s="71"/>
+      <c r="CI6" s="71"/>
+      <c r="CJ6" s="77" t="s">
         <v>149</v>
       </c>
-      <c r="CK6" s="54" t="s">
+      <c r="CK6" s="77" t="s">
         <v>215</v>
       </c>
-      <c r="CL6" s="35" t="s">
+      <c r="CL6" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="CM6" s="59" t="s">
+      <c r="CM6" s="75" t="s">
         <v>203</v>
       </c>
-      <c r="CN6" s="26" t="s">
+      <c r="CN6" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="CO6" s="26" t="s">
+      <c r="CO6" s="70" t="s">
         <v>152</v>
       </c>
-      <c r="CP6" s="26">
+      <c r="CP6" s="70">
         <v>1000</v>
       </c>
-      <c r="CQ6" s="26" t="s">
+      <c r="CQ6" s="70" t="s">
         <v>152</v>
       </c>
-      <c r="CR6" s="26">
+      <c r="CR6" s="70">
         <v>100</v>
       </c>
-      <c r="CS6" s="26" t="s">
+      <c r="CS6" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="CT6" s="26" t="s">
+      <c r="CT6" s="70" t="s">
         <v>152</v>
       </c>
-      <c r="CU6" s="26">
+      <c r="CU6" s="70">
         <v>100</v>
       </c>
-      <c r="CV6" s="26" t="s">
+      <c r="CV6" s="70" t="s">
         <v>152</v>
       </c>
-      <c r="CW6" s="26">
+      <c r="CW6" s="70">
         <v>25</v>
       </c>
-      <c r="CX6" s="26" t="s">
+      <c r="CX6" s="70" t="s">
         <v>154</v>
       </c>
-      <c r="CY6" s="26" t="s">
+      <c r="CY6" s="70" t="s">
         <v>155</v>
       </c>
-      <c r="CZ6" s="26">
+      <c r="CZ6" s="70">
         <v>123456789</v>
       </c>
-      <c r="DA6" s="26"/>
-      <c r="DB6" s="26"/>
-      <c r="DC6" s="26">
+      <c r="DA6" s="70"/>
+      <c r="DB6" s="70"/>
+      <c r="DC6" s="70">
         <v>1</v>
       </c>
-      <c r="DD6" s="26" t="s">
+      <c r="DD6" s="70" t="s">
         <v>229</v>
       </c>
-      <c r="DE6" s="26" t="s">
+      <c r="DE6" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="DF6" s="26"/>
-      <c r="DG6" s="26" t="s">
+      <c r="DF6" s="70"/>
+      <c r="DG6" s="70" t="s">
         <v>162</v>
       </c>
-      <c r="DH6" s="35">
-        <v>30</v>
-      </c>
-      <c r="DI6" s="26">
+      <c r="DH6" s="71">
+        <v>10</v>
+      </c>
+      <c r="DI6" s="70">
         <v>1</v>
       </c>
-      <c r="DJ6" s="26" t="s">
+      <c r="DJ6" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="DK6" s="26" t="s">
+      <c r="DK6" s="70" t="s">
         <v>152</v>
       </c>
-      <c r="DL6" s="26">
+      <c r="DL6" s="70">
         <v>100</v>
       </c>
-      <c r="DM6" s="26" t="s">
+      <c r="DM6" s="70" t="s">
         <v>152</v>
       </c>
-      <c r="DN6" s="26">
+      <c r="DN6" s="70">
         <v>10000</v>
       </c>
-      <c r="DO6" s="26" t="s">
+      <c r="DO6" s="70" t="s">
         <v>159</v>
       </c>
-      <c r="DP6" s="35" t="s">
+      <c r="DP6" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="DQ6" s="35" t="s">
+      <c r="DQ6" s="71" t="s">
         <v>161</v>
       </c>
-      <c r="DR6" s="26">
+      <c r="DR6" s="70">
         <v>1</v>
       </c>
-      <c r="DS6" s="35" t="s">
+      <c r="DS6" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="DT6" s="35">
+      <c r="DT6" s="71">
         <v>100</v>
       </c>
-      <c r="DU6" s="35" t="s">
+      <c r="DU6" s="71" t="s">
         <v>162</v>
       </c>
-      <c r="DV6" s="35">
-        <v>30</v>
-      </c>
-      <c r="DW6" s="35"/>
-      <c r="DX6" s="35"/>
-      <c r="DY6" s="35"/>
-      <c r="DZ6" s="35"/>
-      <c r="EA6" s="35" t="s">
+      <c r="DV6" s="71">
+        <v>10</v>
+      </c>
+      <c r="DW6" s="71"/>
+      <c r="DX6" s="71"/>
+      <c r="DY6" s="71"/>
+      <c r="DZ6" s="71"/>
+      <c r="EA6" s="71" t="s">
         <v>155</v>
       </c>
-      <c r="EB6" s="35" t="s">
+      <c r="EB6" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="EC6" s="35"/>
-      <c r="ED6" s="35"/>
-      <c r="EE6" s="35"/>
-      <c r="EF6" s="35"/>
-      <c r="EG6" s="35"/>
-      <c r="EH6" s="35"/>
-      <c r="EI6" s="35"/>
-      <c r="EJ6" s="35"/>
-      <c r="EK6" s="35"/>
-      <c r="EL6" s="35"/>
-      <c r="EM6" s="26"/>
-      <c r="EN6" s="26"/>
-      <c r="EO6" s="26"/>
-      <c r="EP6" s="26"/>
-      <c r="EQ6" s="26"/>
-      <c r="ER6" s="26"/>
-      <c r="ES6" s="26"/>
-      <c r="ET6" s="26"/>
-      <c r="EU6" s="26"/>
-      <c r="EV6" s="26"/>
-      <c r="EW6" s="26"/>
-      <c r="EX6" s="26"/>
-      <c r="EY6" s="26"/>
-      <c r="EZ6" s="26"/>
-      <c r="FA6" s="26"/>
-      <c r="FB6" s="28"/>
+      <c r="EC6" s="71"/>
+      <c r="ED6" s="71"/>
+      <c r="EE6" s="71"/>
+      <c r="EF6" s="71"/>
+      <c r="EG6" s="71"/>
+      <c r="EH6" s="71"/>
+      <c r="EI6" s="71"/>
+      <c r="EJ6" s="71"/>
+      <c r="EK6" s="71"/>
+      <c r="EL6" s="71"/>
+      <c r="EM6" s="70"/>
+      <c r="EN6" s="70"/>
+      <c r="EO6" s="70"/>
+      <c r="EP6" s="70"/>
+      <c r="EQ6" s="70"/>
+      <c r="ER6" s="70"/>
+      <c r="ES6" s="70"/>
+      <c r="ET6" s="70"/>
+      <c r="EU6" s="70"/>
+      <c r="EV6" s="70"/>
+      <c r="EW6" s="70"/>
+      <c r="EX6" s="70"/>
+      <c r="EY6" s="70"/>
+      <c r="EZ6" s="70"/>
+      <c r="FA6" s="70"/>
+      <c r="FB6" s="78"/>
     </row>
     <row r="7" spans="1:158" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B7" s="68"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="25" t="s">
         <v>351</v>
       </c>
@@ -5373,7 +5418,7 @@
       <c r="A8" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B8" s="68"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="25" t="s">
         <v>232</v>
       </c>
@@ -5721,7 +5766,7 @@
       <c r="A9" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B9" s="68"/>
+      <c r="B9" s="80"/>
       <c r="C9" s="25" t="s">
         <v>212</v>
       </c>
@@ -6027,7 +6072,7 @@
       <c r="A10" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B10" s="68"/>
+      <c r="B10" s="80"/>
       <c r="C10" s="25" t="s">
         <v>235</v>
       </c>
@@ -6373,7 +6418,7 @@
       <c r="A11" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B11" s="68"/>
+      <c r="B11" s="80"/>
       <c r="C11" s="25" t="s">
         <v>241</v>
       </c>
@@ -6715,7 +6760,7 @@
       <c r="A12" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B12" s="68"/>
+      <c r="B12" s="80"/>
       <c r="C12" s="25" t="s">
         <v>246</v>
       </c>
@@ -7059,7 +7104,7 @@
       <c r="A13" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B13" s="68"/>
+      <c r="B13" s="80"/>
       <c r="C13" s="25" t="s">
         <v>249</v>
       </c>
@@ -7359,361 +7404,361 @@
       <c r="FA13" s="26"/>
       <c r="FB13" s="28"/>
     </row>
-    <row r="14" spans="1:158" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="b">
+    <row r="14" spans="1:158" s="68" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="68" t="b">
         <v>0</v>
       </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="25" t="s">
+      <c r="B14" s="80"/>
+      <c r="C14" s="69" t="s">
         <v>253</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="71" t="s">
         <v>250</v>
       </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35" t="s">
+      <c r="F14" s="71"/>
+      <c r="G14" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="H14" s="72" t="s">
         <v>174</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="I14" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14" s="71">
+        <v>150</v>
+      </c>
+      <c r="K14" s="71" t="s">
+        <v>162</v>
+      </c>
+      <c r="L14" s="71">
+        <v>605517846</v>
+      </c>
+      <c r="M14" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="N14" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="O14" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="P14" s="71" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q14" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="R14" s="74" t="s">
+        <v>344</v>
+      </c>
+      <c r="S14" s="71" t="s">
+        <v>202</v>
+      </c>
+      <c r="T14" s="71"/>
+      <c r="U14" s="71" t="s">
+        <v>345</v>
+      </c>
+      <c r="V14" s="71" t="s">
+        <v>203</v>
+      </c>
+      <c r="W14" s="71" t="s">
+        <v>166</v>
+      </c>
+      <c r="X14" s="71" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y14" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z14" s="71" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA14" s="71" t="s">
+        <v>237</v>
+      </c>
+      <c r="AB14" s="71" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC14" s="71">
+        <v>30339</v>
+      </c>
+      <c r="AD14" s="71" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE14" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF14" s="71" t="s">
+        <v>205</v>
+      </c>
+      <c r="AG14" s="70" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH14" s="75" t="s">
+        <v>203</v>
+      </c>
+      <c r="AI14" s="71" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ14" s="71"/>
+      <c r="AK14" s="71"/>
+      <c r="AL14" s="71"/>
+      <c r="AM14" s="71"/>
+      <c r="AN14" s="71"/>
+      <c r="AO14" s="71"/>
+      <c r="AP14" s="71"/>
+      <c r="AQ14" s="71"/>
+      <c r="AR14" s="71"/>
+      <c r="AS14" s="71"/>
+      <c r="AT14" s="71"/>
+      <c r="AU14" s="71"/>
+      <c r="AV14" s="71"/>
+      <c r="AW14" s="71"/>
+      <c r="AX14" s="71"/>
+      <c r="AY14" s="76"/>
+      <c r="AZ14" s="71"/>
+      <c r="BA14" s="71"/>
+      <c r="BB14" s="73">
+        <v>1</v>
+      </c>
+      <c r="BC14" s="73" t="s">
+        <v>349</v>
+      </c>
+      <c r="BD14" s="73" t="s">
+        <v>350</v>
+      </c>
+      <c r="BE14" s="71" t="s">
+        <v>195</v>
+      </c>
+      <c r="BF14" s="71">
+        <v>222326460</v>
+      </c>
+      <c r="BG14" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="BH14" s="71">
+        <v>1234567890</v>
+      </c>
+      <c r="BI14" s="71">
+        <v>12345</v>
+      </c>
+      <c r="BJ14" s="71" t="s">
+        <v>222</v>
+      </c>
+      <c r="BK14" s="71" t="s">
+        <v>196</v>
+      </c>
+      <c r="BL14" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM14" s="71">
+        <v>8975898616</v>
+      </c>
+      <c r="BN14" s="71">
+        <v>3293</v>
+      </c>
+      <c r="BO14" s="71" t="s">
+        <v>197</v>
+      </c>
+      <c r="BP14" s="71" t="s">
+        <v>167</v>
+      </c>
+      <c r="BQ14" s="71" t="s">
+        <v>237</v>
+      </c>
+      <c r="BR14" s="71" t="s">
+        <v>238</v>
+      </c>
+      <c r="BS14" s="71">
+        <v>30339</v>
+      </c>
+      <c r="BT14" s="71" t="s">
+        <v>157</v>
+      </c>
+      <c r="BU14" s="71"/>
+      <c r="BV14" s="71"/>
+      <c r="BW14" s="71"/>
+      <c r="BX14" s="71"/>
+      <c r="BY14" s="71"/>
+      <c r="BZ14" s="71"/>
+      <c r="CA14" s="71"/>
+      <c r="CB14" s="71"/>
+      <c r="CC14" s="71"/>
+      <c r="CD14" s="71"/>
+      <c r="CE14" s="71"/>
+      <c r="CF14" s="71"/>
+      <c r="CG14" s="71"/>
+      <c r="CH14" s="71" t="s">
+        <v>192</v>
+      </c>
+      <c r="CI14" s="71">
+        <v>123456789</v>
+      </c>
+      <c r="CJ14" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="CK14" s="77" t="s">
+        <v>215</v>
+      </c>
+      <c r="CL14" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="CM14" s="75" t="s">
+        <v>203</v>
+      </c>
+      <c r="CN14" s="70" t="s">
+        <v>190</v>
+      </c>
+      <c r="CO14" s="70" t="s">
+        <v>152</v>
+      </c>
+      <c r="CP14" s="70">
+        <v>2000</v>
+      </c>
+      <c r="CQ14" s="70" t="s">
+        <v>152</v>
+      </c>
+      <c r="CR14" s="70">
+        <v>50</v>
+      </c>
+      <c r="CS14" s="70" t="s">
+        <v>153</v>
+      </c>
+      <c r="CT14" s="70" t="s">
+        <v>152</v>
+      </c>
+      <c r="CU14" s="70">
+        <v>100</v>
+      </c>
+      <c r="CV14" s="70" t="s">
+        <v>152</v>
+      </c>
+      <c r="CW14" s="70">
+        <v>25</v>
+      </c>
+      <c r="CX14" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="CY14" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="CZ14" s="70">
+        <v>123456789</v>
+      </c>
+      <c r="DA14" s="70"/>
+      <c r="DB14" s="70"/>
+      <c r="DC14" s="70">
+        <v>1</v>
+      </c>
+      <c r="DD14" s="70" t="s">
+        <v>156</v>
+      </c>
+      <c r="DE14" s="70" t="s">
+        <v>203</v>
+      </c>
+      <c r="DF14" s="70"/>
+      <c r="DG14" s="70" t="s">
+        <v>162</v>
+      </c>
+      <c r="DH14" s="71">
         <v>10</v>
       </c>
-      <c r="K14" s="35" t="s">
+      <c r="DI14" s="70">
+        <v>1</v>
+      </c>
+      <c r="DJ14" s="70" t="s">
+        <v>158</v>
+      </c>
+      <c r="DK14" s="70" t="s">
+        <v>152</v>
+      </c>
+      <c r="DL14" s="70">
+        <v>100</v>
+      </c>
+      <c r="DM14" s="70" t="s">
+        <v>152</v>
+      </c>
+      <c r="DN14" s="70">
+        <v>2000</v>
+      </c>
+      <c r="DO14" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="DP14" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="DQ14" s="71" t="s">
+        <v>223</v>
+      </c>
+      <c r="DR14" s="70">
+        <v>1</v>
+      </c>
+      <c r="DS14" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="DT14" s="71">
+        <v>800</v>
+      </c>
+      <c r="DU14" s="71" t="s">
         <v>162</v>
       </c>
-      <c r="L14" s="35">
-        <v>605517846</v>
-      </c>
-      <c r="M14" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="N14" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="O14" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="P14" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q14" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="R14" s="38" t="s">
-        <v>344</v>
-      </c>
-      <c r="S14" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35" t="s">
-        <v>345</v>
-      </c>
-      <c r="V14" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="W14" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="X14" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="Y14" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z14" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA14" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="AB14" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="AC14" s="35">
-        <v>30339</v>
-      </c>
-      <c r="AD14" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE14" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="AF14" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="AG14" s="26" t="s">
+      <c r="DV14" s="71">
+        <v>10</v>
+      </c>
+      <c r="DW14" s="71">
+        <v>120</v>
+      </c>
+      <c r="DX14" s="71">
+        <v>60</v>
+      </c>
+      <c r="DY14" s="71">
+        <v>60</v>
+      </c>
+      <c r="DZ14" s="71" t="s">
+        <v>163</v>
+      </c>
+      <c r="EA14" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="EB14" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="AH14" s="59" t="s">
-        <v>203</v>
-      </c>
-      <c r="AI14" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="AJ14" s="35"/>
-      <c r="AK14" s="35"/>
-      <c r="AL14" s="35"/>
-      <c r="AM14" s="35"/>
-      <c r="AN14" s="35"/>
-      <c r="AO14" s="35"/>
-      <c r="AP14" s="35"/>
-      <c r="AQ14" s="35"/>
-      <c r="AR14" s="35"/>
-      <c r="AS14" s="35"/>
-      <c r="AT14" s="35"/>
-      <c r="AU14" s="35"/>
-      <c r="AV14" s="35"/>
-      <c r="AW14" s="35"/>
-      <c r="AX14" s="35"/>
-      <c r="AY14" s="18"/>
-      <c r="AZ14" s="35"/>
-      <c r="BA14" s="35"/>
-      <c r="BB14" s="17">
-        <v>1</v>
-      </c>
-      <c r="BC14" s="17" t="s">
-        <v>349</v>
-      </c>
-      <c r="BD14" s="17" t="s">
-        <v>350</v>
-      </c>
-      <c r="BE14" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="BF14" s="35">
-        <v>222326460</v>
-      </c>
-      <c r="BG14" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="BH14" s="35">
-        <v>1234567890</v>
-      </c>
-      <c r="BI14" s="35">
-        <v>12345</v>
-      </c>
-      <c r="BJ14" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="BK14" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="BL14" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="BM14" s="35">
-        <v>8975898616</v>
-      </c>
-      <c r="BN14" s="35">
-        <v>3293</v>
-      </c>
-      <c r="BO14" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="BP14" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="BQ14" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="BR14" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="BS14" s="35">
-        <v>30339</v>
-      </c>
-      <c r="BT14" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="BU14" s="35"/>
-      <c r="BV14" s="35"/>
-      <c r="BW14" s="35"/>
-      <c r="BX14" s="35"/>
-      <c r="BY14" s="35"/>
-      <c r="BZ14" s="35"/>
-      <c r="CA14" s="35"/>
-      <c r="CB14" s="35"/>
-      <c r="CC14" s="35"/>
-      <c r="CD14" s="35"/>
-      <c r="CE14" s="35"/>
-      <c r="CF14" s="35"/>
-      <c r="CG14" s="35"/>
-      <c r="CH14" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="CI14" s="35">
-        <v>123456789</v>
-      </c>
-      <c r="CJ14" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="CK14" s="54" t="s">
-        <v>215</v>
-      </c>
-      <c r="CL14" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="CM14" s="59" t="s">
-        <v>203</v>
-      </c>
-      <c r="CN14" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="CO14" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="CP14" s="26">
-        <v>2000</v>
-      </c>
-      <c r="CQ14" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="CR14" s="26">
-        <v>50</v>
-      </c>
-      <c r="CS14" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="CT14" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="CU14" s="26">
-        <v>100</v>
-      </c>
-      <c r="CV14" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="CW14" s="26">
-        <v>25</v>
-      </c>
-      <c r="CX14" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="CY14" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="CZ14" s="26">
-        <v>123456789</v>
-      </c>
-      <c r="DA14" s="26"/>
-      <c r="DB14" s="26"/>
-      <c r="DC14" s="26">
-        <v>1</v>
-      </c>
-      <c r="DD14" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="DE14" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="DF14" s="26"/>
-      <c r="DG14" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="DH14" s="35">
-        <v>10</v>
-      </c>
-      <c r="DI14" s="26">
-        <v>1</v>
-      </c>
-      <c r="DJ14" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="DK14" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="DL14" s="26">
-        <v>100</v>
-      </c>
-      <c r="DM14" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="DN14" s="26">
-        <v>2000</v>
-      </c>
-      <c r="DO14" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="DP14" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="DQ14" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="DR14" s="26">
-        <v>1</v>
-      </c>
-      <c r="DS14" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="DT14" s="35">
-        <v>800</v>
-      </c>
-      <c r="DU14" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="DV14" s="35">
-        <v>10</v>
-      </c>
-      <c r="DW14" s="35">
-        <v>20</v>
-      </c>
-      <c r="DX14" s="35">
-        <v>20</v>
-      </c>
-      <c r="DY14" s="35">
-        <v>20</v>
-      </c>
-      <c r="DZ14" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="EA14" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="EB14" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="EC14" s="35"/>
-      <c r="ED14" s="35"/>
-      <c r="EE14" s="35"/>
-      <c r="EF14" s="35"/>
-      <c r="EG14" s="35"/>
-      <c r="EH14" s="35"/>
-      <c r="EI14" s="35"/>
-      <c r="EJ14" s="35"/>
-      <c r="EK14" s="35"/>
-      <c r="EL14" s="35"/>
-      <c r="EM14" s="26"/>
-      <c r="EN14" s="26"/>
-      <c r="EO14" s="26"/>
-      <c r="EP14" s="26"/>
-      <c r="EQ14" s="26"/>
-      <c r="ER14" s="26"/>
-      <c r="ES14" s="26"/>
-      <c r="ET14" s="26"/>
-      <c r="EU14" s="26"/>
-      <c r="EV14" s="26"/>
-      <c r="EW14" s="26"/>
-      <c r="EX14" s="26"/>
-      <c r="EY14" s="26"/>
-      <c r="EZ14" s="26"/>
-      <c r="FA14" s="26"/>
-      <c r="FB14" s="28"/>
+      <c r="EC14" s="71"/>
+      <c r="ED14" s="71"/>
+      <c r="EE14" s="71"/>
+      <c r="EF14" s="71"/>
+      <c r="EG14" s="71"/>
+      <c r="EH14" s="71"/>
+      <c r="EI14" s="71"/>
+      <c r="EJ14" s="71"/>
+      <c r="EK14" s="71"/>
+      <c r="EL14" s="71"/>
+      <c r="EM14" s="70"/>
+      <c r="EN14" s="70"/>
+      <c r="EO14" s="70"/>
+      <c r="EP14" s="70"/>
+      <c r="EQ14" s="70"/>
+      <c r="ER14" s="70"/>
+      <c r="ES14" s="70"/>
+      <c r="ET14" s="70"/>
+      <c r="EU14" s="70"/>
+      <c r="EV14" s="70"/>
+      <c r="EW14" s="70"/>
+      <c r="EX14" s="70"/>
+      <c r="EY14" s="70"/>
+      <c r="EZ14" s="70"/>
+      <c r="FA14" s="70"/>
+      <c r="FB14" s="78"/>
     </row>
     <row r="15" spans="1:158" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B15" s="68"/>
+      <c r="B15" s="80"/>
       <c r="C15" s="25" t="s">
         <v>212</v>
       </c>
@@ -8035,7 +8080,7 @@
       <c r="A16" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B16" s="68"/>
+      <c r="B16" s="80"/>
       <c r="C16" s="25" t="s">
         <v>256</v>
       </c>
@@ -8337,7 +8382,7 @@
       <c r="A17" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B17" s="68"/>
+      <c r="B17" s="80"/>
       <c r="C17" s="25" t="s">
         <v>259</v>
       </c>
@@ -8649,307 +8694,307 @@
       <c r="FA17" s="26"/>
       <c r="FB17" s="28"/>
     </row>
-    <row r="18" spans="1:158" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="b">
+    <row r="18" spans="1:158" s="68" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="68" t="b">
         <v>0</v>
       </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="25" t="s">
+      <c r="B18" s="80"/>
+      <c r="C18" s="69" t="s">
         <v>267</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="71" t="s">
         <v>260</v>
       </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35" t="s">
+      <c r="F18" s="71"/>
+      <c r="G18" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="H18" s="27" t="s">
+      <c r="H18" s="72" t="s">
         <v>165</v>
       </c>
-      <c r="I18" s="17" t="s">
+      <c r="I18" s="73" t="s">
         <v>200</v>
       </c>
-      <c r="J18" s="35">
-        <v>11</v>
-      </c>
-      <c r="K18" s="35" t="s">
+      <c r="J18" s="71">
+        <v>1</v>
+      </c>
+      <c r="K18" s="71" t="s">
         <v>162</v>
       </c>
-      <c r="L18" s="35">
+      <c r="L18" s="71">
         <v>605517846</v>
       </c>
-      <c r="M18" s="35" t="s">
+      <c r="M18" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="N18" s="35" t="s">
+      <c r="N18" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="O18" s="35" t="s">
+      <c r="O18" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="P18" s="35" t="s">
+      <c r="P18" s="71" t="s">
         <v>166</v>
       </c>
-      <c r="Q18" s="35" t="s">
+      <c r="Q18" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="R18" s="38" t="s">
+      <c r="R18" s="74" t="s">
         <v>344</v>
       </c>
-      <c r="S18" s="35" t="s">
+      <c r="S18" s="71" t="s">
         <v>202</v>
       </c>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35" t="s">
+      <c r="T18" s="71"/>
+      <c r="U18" s="71" t="s">
         <v>345</v>
       </c>
-      <c r="V18" s="35" t="s">
+      <c r="V18" s="71" t="s">
         <v>203</v>
       </c>
-      <c r="W18" s="35" t="s">
+      <c r="W18" s="71" t="s">
         <v>166</v>
       </c>
-      <c r="X18" s="35" t="s">
+      <c r="X18" s="71" t="s">
         <v>260</v>
       </c>
-      <c r="Y18" s="35">
+      <c r="Y18" s="71">
         <v>61293286200</v>
       </c>
-      <c r="Z18" s="35" t="s">
+      <c r="Z18" s="71" t="s">
         <v>269</v>
       </c>
-      <c r="AA18" s="35" t="s">
+      <c r="AA18" s="71" t="s">
         <v>270</v>
       </c>
-      <c r="AB18" s="35"/>
-      <c r="AC18" s="35">
+      <c r="AB18" s="71"/>
+      <c r="AC18" s="71">
         <v>2028</v>
       </c>
-      <c r="AD18" s="35" t="s">
+      <c r="AD18" s="71" t="s">
         <v>271</v>
       </c>
-      <c r="AE18" s="35" t="s">
+      <c r="AE18" s="71" t="s">
         <v>248</v>
       </c>
-      <c r="AF18" s="35">
+      <c r="AF18" s="71">
         <v>150067600</v>
       </c>
-      <c r="AG18" s="26" t="s">
+      <c r="AG18" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="AH18" s="59" t="s">
+      <c r="AH18" s="75" t="s">
         <v>157</v>
       </c>
-      <c r="AI18" s="35"/>
-      <c r="AJ18" s="35"/>
-      <c r="AK18" s="35"/>
-      <c r="AL18" s="35"/>
-      <c r="AM18" s="35"/>
-      <c r="AN18" s="35"/>
-      <c r="AO18" s="35"/>
-      <c r="AP18" s="35"/>
-      <c r="AQ18" s="35"/>
-      <c r="AR18" s="35"/>
-      <c r="AS18" s="35"/>
-      <c r="AT18" s="35"/>
-      <c r="AU18" s="35"/>
-      <c r="AV18" s="35"/>
-      <c r="AW18" s="35"/>
-      <c r="AX18" s="35"/>
-      <c r="AY18" s="18"/>
-      <c r="AZ18" s="35"/>
-      <c r="BA18" s="35"/>
-      <c r="BB18" s="17"/>
-      <c r="BC18" s="17"/>
-      <c r="BD18" s="17"/>
-      <c r="BE18" s="35"/>
-      <c r="BF18" s="35"/>
-      <c r="BG18" s="35"/>
-      <c r="BH18" s="35"/>
-      <c r="BI18" s="35"/>
-      <c r="BJ18" s="35"/>
-      <c r="BK18" s="35"/>
-      <c r="BL18" s="35"/>
-      <c r="BM18" s="35"/>
-      <c r="BN18" s="35"/>
-      <c r="BO18" s="35"/>
-      <c r="BP18" s="35"/>
-      <c r="BQ18" s="35"/>
-      <c r="BR18" s="35"/>
-      <c r="BS18" s="35"/>
-      <c r="BT18" s="35"/>
-      <c r="BU18" s="35"/>
-      <c r="BV18" s="35"/>
-      <c r="BW18" s="35"/>
-      <c r="BX18" s="35"/>
-      <c r="BY18" s="35"/>
-      <c r="BZ18" s="35"/>
-      <c r="CA18" s="35"/>
-      <c r="CB18" s="35"/>
-      <c r="CC18" s="35"/>
-      <c r="CD18" s="35"/>
-      <c r="CE18" s="35"/>
-      <c r="CF18" s="35"/>
-      <c r="CG18" s="35"/>
-      <c r="CH18" s="35"/>
-      <c r="CI18" s="35"/>
-      <c r="CJ18" s="54" t="s">
+      <c r="AI18" s="71"/>
+      <c r="AJ18" s="71"/>
+      <c r="AK18" s="71"/>
+      <c r="AL18" s="71"/>
+      <c r="AM18" s="71"/>
+      <c r="AN18" s="71"/>
+      <c r="AO18" s="71"/>
+      <c r="AP18" s="71"/>
+      <c r="AQ18" s="71"/>
+      <c r="AR18" s="71"/>
+      <c r="AS18" s="71"/>
+      <c r="AT18" s="71"/>
+      <c r="AU18" s="71"/>
+      <c r="AV18" s="71"/>
+      <c r="AW18" s="71"/>
+      <c r="AX18" s="71"/>
+      <c r="AY18" s="76"/>
+      <c r="AZ18" s="71"/>
+      <c r="BA18" s="71"/>
+      <c r="BB18" s="73"/>
+      <c r="BC18" s="73"/>
+      <c r="BD18" s="73"/>
+      <c r="BE18" s="71"/>
+      <c r="BF18" s="71"/>
+      <c r="BG18" s="71"/>
+      <c r="BH18" s="71"/>
+      <c r="BI18" s="71"/>
+      <c r="BJ18" s="71"/>
+      <c r="BK18" s="71"/>
+      <c r="BL18" s="71"/>
+      <c r="BM18" s="71"/>
+      <c r="BN18" s="71"/>
+      <c r="BO18" s="71"/>
+      <c r="BP18" s="71"/>
+      <c r="BQ18" s="71"/>
+      <c r="BR18" s="71"/>
+      <c r="BS18" s="71"/>
+      <c r="BT18" s="71"/>
+      <c r="BU18" s="71"/>
+      <c r="BV18" s="71"/>
+      <c r="BW18" s="71"/>
+      <c r="BX18" s="71"/>
+      <c r="BY18" s="71"/>
+      <c r="BZ18" s="71"/>
+      <c r="CA18" s="71"/>
+      <c r="CB18" s="71"/>
+      <c r="CC18" s="71"/>
+      <c r="CD18" s="71"/>
+      <c r="CE18" s="71"/>
+      <c r="CF18" s="71"/>
+      <c r="CG18" s="71"/>
+      <c r="CH18" s="71"/>
+      <c r="CI18" s="71"/>
+      <c r="CJ18" s="77" t="s">
         <v>248</v>
       </c>
-      <c r="CK18" s="54">
+      <c r="CK18" s="77">
         <v>214877600</v>
       </c>
-      <c r="CL18" s="35" t="s">
+      <c r="CL18" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="CM18" s="59" t="s">
+      <c r="CM18" s="75" t="s">
         <v>157</v>
       </c>
-      <c r="CN18" s="26" t="s">
+      <c r="CN18" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="CO18" s="26" t="s">
+      <c r="CO18" s="70" t="s">
         <v>206</v>
       </c>
-      <c r="CP18" s="26">
+      <c r="CP18" s="70">
         <v>200</v>
       </c>
-      <c r="CQ18" s="26" t="s">
+      <c r="CQ18" s="70" t="s">
         <v>206</v>
       </c>
-      <c r="CR18" s="26">
+      <c r="CR18" s="70">
         <v>10</v>
       </c>
-      <c r="CS18" s="26" t="s">
+      <c r="CS18" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="CT18" s="26" t="s">
+      <c r="CT18" s="70" t="s">
         <v>206</v>
       </c>
-      <c r="CU18" s="26">
+      <c r="CU18" s="70">
         <v>100</v>
       </c>
-      <c r="CV18" s="26" t="s">
+      <c r="CV18" s="70" t="s">
         <v>206</v>
       </c>
-      <c r="CW18" s="26">
+      <c r="CW18" s="70">
         <v>25</v>
       </c>
-      <c r="CX18" s="26" t="s">
+      <c r="CX18" s="70" t="s">
         <v>154</v>
       </c>
-      <c r="CY18" s="26" t="s">
+      <c r="CY18" s="70" t="s">
         <v>155</v>
       </c>
-      <c r="CZ18" s="26">
+      <c r="CZ18" s="70">
         <v>123456789</v>
       </c>
-      <c r="DA18" s="26"/>
-      <c r="DB18" s="26"/>
-      <c r="DC18" s="26">
+      <c r="DA18" s="70"/>
+      <c r="DB18" s="70"/>
+      <c r="DC18" s="70">
         <v>1</v>
       </c>
-      <c r="DD18" s="26" t="s">
+      <c r="DD18" s="70" t="s">
         <v>156</v>
       </c>
-      <c r="DE18" s="26" t="s">
+      <c r="DE18" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="DF18" s="26"/>
-      <c r="DG18" s="26" t="s">
+      <c r="DF18" s="70"/>
+      <c r="DG18" s="70" t="s">
         <v>162</v>
       </c>
-      <c r="DH18" s="35">
-        <v>11</v>
-      </c>
-      <c r="DI18" s="26">
+      <c r="DH18" s="71">
         <v>1</v>
       </c>
-      <c r="DJ18" s="26" t="s">
+      <c r="DI18" s="70">
+        <v>1</v>
+      </c>
+      <c r="DJ18" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="DK18" s="26" t="s">
+      <c r="DK18" s="70" t="s">
         <v>206</v>
       </c>
-      <c r="DL18" s="26">
+      <c r="DL18" s="70">
         <v>100</v>
       </c>
-      <c r="DM18" s="26" t="s">
+      <c r="DM18" s="70" t="s">
         <v>206</v>
       </c>
-      <c r="DN18" s="26">
+      <c r="DN18" s="70">
         <v>200</v>
       </c>
-      <c r="DO18" s="26" t="s">
+      <c r="DO18" s="70" t="s">
         <v>159</v>
       </c>
-      <c r="DP18" s="35" t="s">
+      <c r="DP18" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="DQ18" s="35" t="s">
+      <c r="DQ18" s="71" t="s">
         <v>161</v>
       </c>
-      <c r="DR18" s="26">
+      <c r="DR18" s="70">
         <v>1</v>
       </c>
-      <c r="DS18" s="35" t="s">
+      <c r="DS18" s="71" t="s">
         <v>206</v>
       </c>
-      <c r="DT18" s="35">
+      <c r="DT18" s="71">
         <v>66</v>
       </c>
-      <c r="DU18" s="35" t="s">
+      <c r="DU18" s="71" t="s">
         <v>162</v>
       </c>
-      <c r="DV18" s="35">
-        <v>11</v>
-      </c>
-      <c r="DW18" s="35"/>
-      <c r="DX18" s="35"/>
-      <c r="DY18" s="35"/>
-      <c r="DZ18" s="35"/>
-      <c r="EA18" s="35" t="s">
+      <c r="DV18" s="71">
+        <v>1</v>
+      </c>
+      <c r="DW18" s="71"/>
+      <c r="DX18" s="71"/>
+      <c r="DY18" s="71"/>
+      <c r="DZ18" s="71"/>
+      <c r="EA18" s="71" t="s">
         <v>155</v>
       </c>
-      <c r="EB18" s="35" t="s">
+      <c r="EB18" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="EC18" s="35"/>
-      <c r="ED18" s="35"/>
-      <c r="EE18" s="35"/>
-      <c r="EF18" s="35"/>
-      <c r="EG18" s="35"/>
-      <c r="EH18" s="35"/>
-      <c r="EI18" s="35"/>
-      <c r="EJ18" s="35"/>
-      <c r="EK18" s="35"/>
-      <c r="EL18" s="35"/>
-      <c r="EM18" s="26"/>
-      <c r="EN18" s="26"/>
-      <c r="EO18" s="26"/>
-      <c r="EP18" s="26"/>
-      <c r="EQ18" s="26"/>
-      <c r="ER18" s="26"/>
-      <c r="ES18" s="26"/>
-      <c r="ET18" s="26"/>
-      <c r="EU18" s="26"/>
-      <c r="EV18" s="26"/>
-      <c r="EW18" s="26"/>
-      <c r="EX18" s="26"/>
-      <c r="EY18" s="26"/>
-      <c r="EZ18" s="26"/>
-      <c r="FA18" s="26"/>
-      <c r="FB18" s="28"/>
+      <c r="EC18" s="71"/>
+      <c r="ED18" s="71"/>
+      <c r="EE18" s="71"/>
+      <c r="EF18" s="71"/>
+      <c r="EG18" s="71"/>
+      <c r="EH18" s="71"/>
+      <c r="EI18" s="71"/>
+      <c r="EJ18" s="71"/>
+      <c r="EK18" s="71"/>
+      <c r="EL18" s="71"/>
+      <c r="EM18" s="70"/>
+      <c r="EN18" s="70"/>
+      <c r="EO18" s="70"/>
+      <c r="EP18" s="70"/>
+      <c r="EQ18" s="70"/>
+      <c r="ER18" s="70"/>
+      <c r="ES18" s="70"/>
+      <c r="ET18" s="70"/>
+      <c r="EU18" s="70"/>
+      <c r="EV18" s="70"/>
+      <c r="EW18" s="70"/>
+      <c r="EX18" s="70"/>
+      <c r="EY18" s="70"/>
+      <c r="EZ18" s="70"/>
+      <c r="FA18" s="70"/>
+      <c r="FB18" s="78"/>
     </row>
     <row r="19" spans="1:158" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B19" s="68"/>
+      <c r="B19" s="80"/>
       <c r="C19" s="25" t="s">
         <v>212</v>
       </c>
@@ -9257,7 +9302,7 @@
       <c r="A20" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B20" s="68"/>
+      <c r="B20" s="80"/>
       <c r="C20" s="25" t="s">
         <v>322</v>
       </c>
@@ -9625,7 +9670,7 @@
       <c r="A21" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B21" s="68"/>
+      <c r="B21" s="80"/>
       <c r="C21" s="25" t="s">
         <v>275</v>
       </c>
@@ -9941,7 +9986,7 @@
       <c r="A22" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B22" s="68"/>
+      <c r="B22" s="80"/>
       <c r="C22" s="25" t="s">
         <v>338</v>
       </c>
@@ -10235,331 +10280,331 @@
       <c r="FA22" s="26"/>
       <c r="FB22" s="28"/>
     </row>
-    <row r="23" spans="1:158" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="b">
+    <row r="23" spans="1:158" s="68" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="68" t="b">
         <v>0</v>
       </c>
-      <c r="B23" s="68"/>
-      <c r="C23" s="25" t="s">
+      <c r="B23" s="80"/>
+      <c r="C23" s="69" t="s">
         <v>280</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="71" t="s">
         <v>278</v>
       </c>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35" t="s">
+      <c r="F23" s="71"/>
+      <c r="G23" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="H23" s="27" t="s">
+      <c r="H23" s="72" t="s">
         <v>165</v>
       </c>
-      <c r="I23" s="17" t="s">
+      <c r="I23" s="73" t="s">
         <v>282</v>
       </c>
-      <c r="J23" s="35">
+      <c r="J23" s="71">
+        <v>1</v>
+      </c>
+      <c r="K23" s="71" t="s">
+        <v>162</v>
+      </c>
+      <c r="L23" s="71">
+        <v>605517846</v>
+      </c>
+      <c r="M23" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="N23" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="O23" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="P23" s="71" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q23" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="R23" s="74" t="s">
+        <v>344</v>
+      </c>
+      <c r="S23" s="71" t="s">
+        <v>202</v>
+      </c>
+      <c r="T23" s="71"/>
+      <c r="U23" s="71" t="s">
+        <v>345</v>
+      </c>
+      <c r="V23" s="71" t="s">
+        <v>203</v>
+      </c>
+      <c r="W23" s="71" t="s">
+        <v>166</v>
+      </c>
+      <c r="X23" s="71" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y23" s="71">
+        <v>9012633035</v>
+      </c>
+      <c r="Z23" s="71" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA23" s="71" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB23" s="71" t="s">
+        <v>332</v>
+      </c>
+      <c r="AC23" s="71">
+        <v>110001</v>
+      </c>
+      <c r="AD23" s="71" t="s">
+        <v>217</v>
+      </c>
+      <c r="AE23" s="71" t="s">
+        <v>248</v>
+      </c>
+      <c r="AF23" s="71">
+        <v>214877600</v>
+      </c>
+      <c r="AG23" s="70" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH23" s="75" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI23" s="71" t="s">
+        <v>169</v>
+      </c>
+      <c r="AJ23" s="71"/>
+      <c r="AK23" s="71"/>
+      <c r="AL23" s="71"/>
+      <c r="AM23" s="71"/>
+      <c r="AN23" s="71"/>
+      <c r="AO23" s="71"/>
+      <c r="AP23" s="71"/>
+      <c r="AQ23" s="71"/>
+      <c r="AR23" s="71">
+        <v>9012633035</v>
+      </c>
+      <c r="AS23" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT23" s="71" t="s">
+        <v>201</v>
+      </c>
+      <c r="AU23" s="71">
+        <v>9012633035</v>
+      </c>
+      <c r="AV23" s="71" t="s">
+        <v>198</v>
+      </c>
+      <c r="AW23" s="71" t="s">
+        <v>277</v>
+      </c>
+      <c r="AX23" s="71" t="s">
+        <v>332</v>
+      </c>
+      <c r="AY23" s="76">
+        <v>110001</v>
+      </c>
+      <c r="AZ23" s="71" t="s">
+        <v>217</v>
+      </c>
+      <c r="BA23" s="71" t="s">
+        <v>283</v>
+      </c>
+      <c r="BB23" s="73"/>
+      <c r="BC23" s="73"/>
+      <c r="BD23" s="73"/>
+      <c r="BE23" s="71"/>
+      <c r="BF23" s="71"/>
+      <c r="BG23" s="71"/>
+      <c r="BH23" s="71"/>
+      <c r="BI23" s="71"/>
+      <c r="BJ23" s="71"/>
+      <c r="BK23" s="71"/>
+      <c r="BL23" s="71"/>
+      <c r="BM23" s="71"/>
+      <c r="BN23" s="71"/>
+      <c r="BO23" s="71"/>
+      <c r="BP23" s="71"/>
+      <c r="BQ23" s="71"/>
+      <c r="BR23" s="71"/>
+      <c r="BS23" s="71"/>
+      <c r="BT23" s="71"/>
+      <c r="BU23" s="71"/>
+      <c r="BV23" s="71"/>
+      <c r="BW23" s="71"/>
+      <c r="BX23" s="71"/>
+      <c r="BY23" s="71"/>
+      <c r="BZ23" s="70"/>
+      <c r="CA23" s="70"/>
+      <c r="CB23" s="70"/>
+      <c r="CC23" s="70"/>
+      <c r="CD23" s="70"/>
+      <c r="CE23" s="70"/>
+      <c r="CF23" s="70"/>
+      <c r="CG23" s="70"/>
+      <c r="CH23" s="71"/>
+      <c r="CI23" s="71"/>
+      <c r="CJ23" s="77" t="s">
+        <v>248</v>
+      </c>
+      <c r="CK23" s="77">
+        <v>214877600</v>
+      </c>
+      <c r="CL23" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="CM23" s="75" t="s">
+        <v>157</v>
+      </c>
+      <c r="CN23" s="70" t="s">
+        <v>190</v>
+      </c>
+      <c r="CO23" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="CP23" s="70">
+        <v>100</v>
+      </c>
+      <c r="CQ23" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="CR23" s="70">
+        <v>50</v>
+      </c>
+      <c r="CS23" s="70" t="s">
+        <v>153</v>
+      </c>
+      <c r="CT23" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="CU23" s="70">
+        <v>100</v>
+      </c>
+      <c r="CV23" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="CW23" s="70">
         <v>25</v>
       </c>
-      <c r="K23" s="35" t="s">
+      <c r="CX23" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="CY23" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="CZ23" s="70">
+        <v>123456789</v>
+      </c>
+      <c r="DA23" s="70"/>
+      <c r="DB23" s="70"/>
+      <c r="DC23" s="70">
+        <v>1</v>
+      </c>
+      <c r="DD23" s="70" t="s">
+        <v>156</v>
+      </c>
+      <c r="DE23" s="70" t="s">
+        <v>203</v>
+      </c>
+      <c r="DF23" s="70"/>
+      <c r="DG23" s="70" t="s">
         <v>162</v>
       </c>
-      <c r="L23" s="35">
-        <v>605517846</v>
-      </c>
-      <c r="M23" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="N23" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="O23" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="P23" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q23" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="R23" s="38" t="s">
-        <v>344</v>
-      </c>
-      <c r="S23" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35" t="s">
-        <v>345</v>
-      </c>
-      <c r="V23" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="W23" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="X23" s="35" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y23" s="35">
-        <v>9012633035</v>
-      </c>
-      <c r="Z23" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA23" s="35" t="s">
-        <v>277</v>
-      </c>
-      <c r="AB23" s="35" t="s">
-        <v>332</v>
-      </c>
-      <c r="AC23" s="35">
-        <v>110001</v>
-      </c>
-      <c r="AD23" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="AE23" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="AF23" s="35">
-        <v>214877600</v>
-      </c>
-      <c r="AG23" s="26" t="s">
+      <c r="DH23" s="71">
+        <v>1</v>
+      </c>
+      <c r="DI23" s="70">
+        <v>1</v>
+      </c>
+      <c r="DJ23" s="70" t="s">
+        <v>158</v>
+      </c>
+      <c r="DK23" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="DL23" s="70">
+        <v>100</v>
+      </c>
+      <c r="DM23" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="DN23" s="70">
+        <v>100</v>
+      </c>
+      <c r="DO23" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="DP23" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="DQ23" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="DR23" s="70">
+        <v>1</v>
+      </c>
+      <c r="DS23" s="71" t="s">
+        <v>206</v>
+      </c>
+      <c r="DT23" s="71">
+        <v>100</v>
+      </c>
+      <c r="DU23" s="71" t="s">
+        <v>162</v>
+      </c>
+      <c r="DV23" s="71">
+        <v>1</v>
+      </c>
+      <c r="DW23" s="71"/>
+      <c r="DX23" s="71"/>
+      <c r="DY23" s="71"/>
+      <c r="DZ23" s="71"/>
+      <c r="EA23" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="EB23" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="AH23" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="AI23" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="AJ23" s="35"/>
-      <c r="AK23" s="35"/>
-      <c r="AL23" s="35"/>
-      <c r="AM23" s="35"/>
-      <c r="AN23" s="35"/>
-      <c r="AO23" s="35"/>
-      <c r="AP23" s="35"/>
-      <c r="AQ23" s="35"/>
-      <c r="AR23" s="35">
-        <v>9012633035</v>
-      </c>
-      <c r="AS23" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="AT23" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="AU23" s="35">
-        <v>9012633035</v>
-      </c>
-      <c r="AV23" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="AW23" s="35" t="s">
-        <v>277</v>
-      </c>
-      <c r="AX23" s="35" t="s">
-        <v>332</v>
-      </c>
-      <c r="AY23" s="18">
-        <v>110001</v>
-      </c>
-      <c r="AZ23" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="BA23" s="35" t="s">
-        <v>283</v>
-      </c>
-      <c r="BB23" s="17"/>
-      <c r="BC23" s="17"/>
-      <c r="BD23" s="17"/>
-      <c r="BE23" s="35"/>
-      <c r="BF23" s="35"/>
-      <c r="BG23" s="35"/>
-      <c r="BH23" s="35"/>
-      <c r="BI23" s="35"/>
-      <c r="BJ23" s="35"/>
-      <c r="BK23" s="35"/>
-      <c r="BL23" s="35"/>
-      <c r="BM23" s="35"/>
-      <c r="BN23" s="35"/>
-      <c r="BO23" s="35"/>
-      <c r="BP23" s="35"/>
-      <c r="BQ23" s="35"/>
-      <c r="BR23" s="35"/>
-      <c r="BS23" s="35"/>
-      <c r="BT23" s="35"/>
-      <c r="BU23" s="35"/>
-      <c r="BV23" s="35"/>
-      <c r="BW23" s="35"/>
-      <c r="BX23" s="35"/>
-      <c r="BY23" s="35"/>
-      <c r="BZ23" s="26"/>
-      <c r="CA23" s="26"/>
-      <c r="CB23" s="26"/>
-      <c r="CC23" s="26"/>
-      <c r="CD23" s="26"/>
-      <c r="CE23" s="26"/>
-      <c r="CF23" s="26"/>
-      <c r="CG23" s="26"/>
-      <c r="CH23" s="35"/>
-      <c r="CI23" s="35"/>
-      <c r="CJ23" s="54" t="s">
-        <v>248</v>
-      </c>
-      <c r="CK23" s="54">
-        <v>214877600</v>
-      </c>
-      <c r="CL23" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="CM23" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="CN23" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="CO23" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="CP23" s="26">
-        <v>100</v>
-      </c>
-      <c r="CQ23" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="CR23" s="26">
-        <v>50</v>
-      </c>
-      <c r="CS23" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="CT23" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="CU23" s="26">
-        <v>100</v>
-      </c>
-      <c r="CV23" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="CW23" s="26">
-        <v>25</v>
-      </c>
-      <c r="CX23" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="CY23" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="CZ23" s="26">
-        <v>123456789</v>
-      </c>
-      <c r="DA23" s="26"/>
-      <c r="DB23" s="26"/>
-      <c r="DC23" s="26">
-        <v>1</v>
-      </c>
-      <c r="DD23" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="DE23" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="DF23" s="26"/>
-      <c r="DG23" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="DH23" s="35">
-        <v>25</v>
-      </c>
-      <c r="DI23" s="26">
-        <v>1</v>
-      </c>
-      <c r="DJ23" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="DK23" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="DL23" s="26">
-        <v>100</v>
-      </c>
-      <c r="DM23" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="DN23" s="26">
-        <v>100</v>
-      </c>
-      <c r="DO23" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="DP23" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="DQ23" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="DR23" s="26">
-        <v>1</v>
-      </c>
-      <c r="DS23" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="DT23" s="35">
-        <v>100</v>
-      </c>
-      <c r="DU23" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="DV23" s="35">
-        <v>25</v>
-      </c>
-      <c r="DW23" s="35"/>
-      <c r="DX23" s="35"/>
-      <c r="DY23" s="35"/>
-      <c r="DZ23" s="35"/>
-      <c r="EA23" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="EB23" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="EC23" s="35"/>
-      <c r="ED23" s="35"/>
-      <c r="EE23" s="35"/>
-      <c r="EF23" s="35"/>
-      <c r="EG23" s="35"/>
-      <c r="EH23" s="35"/>
-      <c r="EI23" s="35"/>
-      <c r="EJ23" s="35"/>
-      <c r="EK23" s="26"/>
-      <c r="EL23" s="26"/>
-      <c r="EM23" s="26"/>
-      <c r="EN23" s="26"/>
-      <c r="EO23" s="26"/>
-      <c r="EP23" s="26"/>
-      <c r="EQ23" s="26"/>
-      <c r="ER23" s="26"/>
-      <c r="ES23" s="26"/>
-      <c r="ET23" s="26"/>
-      <c r="EU23" s="26"/>
-      <c r="EV23" s="26"/>
-      <c r="EW23" s="26"/>
-      <c r="EX23" s="26"/>
-      <c r="EY23" s="26"/>
-      <c r="EZ23" s="26"/>
-      <c r="FA23" s="26"/>
-      <c r="FB23" s="28"/>
+      <c r="EC23" s="71"/>
+      <c r="ED23" s="71"/>
+      <c r="EE23" s="71"/>
+      <c r="EF23" s="71"/>
+      <c r="EG23" s="71"/>
+      <c r="EH23" s="71"/>
+      <c r="EI23" s="71"/>
+      <c r="EJ23" s="71"/>
+      <c r="EK23" s="70"/>
+      <c r="EL23" s="70"/>
+      <c r="EM23" s="70"/>
+      <c r="EN23" s="70"/>
+      <c r="EO23" s="70"/>
+      <c r="EP23" s="70"/>
+      <c r="EQ23" s="70"/>
+      <c r="ER23" s="70"/>
+      <c r="ES23" s="70"/>
+      <c r="ET23" s="70"/>
+      <c r="EU23" s="70"/>
+      <c r="EV23" s="70"/>
+      <c r="EW23" s="70"/>
+      <c r="EX23" s="70"/>
+      <c r="EY23" s="70"/>
+      <c r="EZ23" s="70"/>
+      <c r="FA23" s="70"/>
+      <c r="FB23" s="78"/>
     </row>
     <row r="24" spans="1:158" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B24" s="68"/>
+      <c r="B24" s="80"/>
       <c r="C24" s="25" t="s">
         <v>341</v>
       </c>
@@ -10913,7 +10958,7 @@
       <c r="A25" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B25" s="68"/>
+      <c r="B25" s="80"/>
       <c r="C25" s="25" t="s">
         <v>346</v>
       </c>
@@ -11289,7 +11334,7 @@
       <c r="A26" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B26" s="68"/>
+      <c r="B26" s="80"/>
       <c r="C26" s="25" t="s">
         <v>327</v>
       </c>
@@ -11609,7 +11654,7 @@
       <c r="A27" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B27" s="68"/>
+      <c r="B27" s="80"/>
       <c r="C27" s="25" t="s">
         <v>325</v>
       </c>
@@ -11929,7 +11974,7 @@
       <c r="A28" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B28" s="68"/>
+      <c r="B28" s="80"/>
       <c r="C28" s="25" t="s">
         <v>220</v>
       </c>
@@ -12269,7 +12314,7 @@
       <c r="A29" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B29" s="68"/>
+      <c r="B29" s="80"/>
       <c r="C29" s="25" t="s">
         <v>295</v>
       </c>
@@ -12609,7 +12654,7 @@
       <c r="A30" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B30" s="68"/>
+      <c r="B30" s="80"/>
       <c r="C30" s="25" t="s">
         <v>253</v>
       </c>
@@ -12959,7 +13004,7 @@
       <c r="A31" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B31" s="68"/>
+      <c r="B31" s="80"/>
       <c r="C31" s="25" t="s">
         <v>235</v>
       </c>
@@ -13309,7 +13354,7 @@
       <c r="A32" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B32" s="68"/>
+      <c r="B32" s="80"/>
       <c r="C32" s="25" t="s">
         <v>302</v>
       </c>
@@ -13430,8 +13475,8 @@
         <v>329</v>
       </c>
       <c r="AX32" s="35"/>
-      <c r="AY32" s="18">
-        <v>44030</v>
+      <c r="AY32" s="67" t="s">
+        <v>355</v>
       </c>
       <c r="AZ32" s="35" t="s">
         <v>168</v>
@@ -13633,7 +13678,7 @@
       <c r="A33" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B33" s="68"/>
+      <c r="B33" s="80"/>
       <c r="C33" s="25" t="s">
         <v>324</v>
       </c>
@@ -13949,7 +13994,7 @@
       <c r="A34" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B34" s="68"/>
+      <c r="B34" s="80"/>
       <c r="C34" s="25" t="s">
         <v>343</v>
       </c>
@@ -14265,7 +14310,7 @@
       <c r="A35" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B35" s="68"/>
+      <c r="B35" s="80"/>
       <c r="C35" s="25" t="s">
         <v>326</v>
       </c>
@@ -14587,7 +14632,7 @@
       <c r="A36" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B36" s="68"/>
+      <c r="B36" s="80"/>
       <c r="C36" s="25" t="s">
         <v>309</v>
       </c>
@@ -14909,7 +14954,7 @@
       <c r="A37" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B37" s="68"/>
+      <c r="B37" s="80"/>
       <c r="C37" s="25" t="s">
         <v>337</v>
       </c>
@@ -15030,8 +15075,8 @@
         <v>329</v>
       </c>
       <c r="AX37" s="35"/>
-      <c r="AY37" s="18">
-        <v>44030</v>
+      <c r="AY37" s="67" t="s">
+        <v>355</v>
       </c>
       <c r="AZ37" s="35" t="s">
         <v>168</v>
@@ -15225,7 +15270,7 @@
       <c r="A38" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B38" s="68"/>
+      <c r="B38" s="80"/>
       <c r="C38" s="25" t="s">
         <v>312</v>
       </c>
@@ -15541,7 +15586,7 @@
       <c r="A39" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B39" s="68"/>
+      <c r="B39" s="80"/>
       <c r="C39" s="25" t="s">
         <v>316</v>
       </c>
@@ -15889,7 +15934,7 @@
       <c r="A40" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B40" s="68"/>
+      <c r="B40" s="80"/>
       <c r="C40" s="25" t="s">
         <v>173</v>
       </c>
@@ -16239,7 +16284,7 @@
       <c r="A41" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B41" s="68"/>
+      <c r="B41" s="80"/>
       <c r="C41" s="25" t="s">
         <v>319</v>
       </c>
@@ -16551,7 +16596,7 @@
       <c r="A42" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B42" s="69"/>
+      <c r="B42" s="81"/>
       <c r="C42" s="30" t="s">
         <v>339</v>
       </c>
@@ -16869,7 +16914,7 @@
       <c r="A43" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B43" s="70" t="s">
+      <c r="B43" s="82" t="s">
         <v>353</v>
       </c>
       <c r="C43" s="43" t="s">
@@ -17183,7 +17228,7 @@
       <c r="A44" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B44" s="71"/>
+      <c r="B44" s="83"/>
       <c r="C44" s="43" t="s">
         <v>323</v>
       </c>
@@ -17503,7 +17548,7 @@
       <c r="A45" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B45" s="71"/>
+      <c r="B45" s="83"/>
       <c r="C45" s="43" t="s">
         <v>340</v>
       </c>
@@ -17869,7 +17914,7 @@
       <c r="A46" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B46" s="71"/>
+      <c r="B46" s="83"/>
       <c r="C46" s="43" t="s">
         <v>328</v>
       </c>
@@ -18191,7 +18236,7 @@
       <c r="A47" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B47" s="72"/>
+      <c r="B47" s="84"/>
       <c r="C47" s="43" t="s">
         <v>314</v>
       </c>

--- a/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/UK International.xlsx
+++ b/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/UK International.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3001" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2999" uniqueCount="356">
   <si>
     <t>Description</t>
   </si>
@@ -1216,7 +1216,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1256,6 +1256,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1907,7 +1919,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="358" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2158,6 +2170,72 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="358" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="358" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="358" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="358" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="358" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="358" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="358" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="358" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="383">
@@ -2860,8 +2938,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:FB47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DW1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="EJ1" sqref="EJ1"/>
+    <sheetView tabSelected="1" topLeftCell="EB1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="EM11" sqref="EM11:EM12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5414,353 +5492,353 @@
       <c r="FA7" s="26"/>
       <c r="FB7" s="28"/>
     </row>
-    <row r="8" spans="1:158" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="b">
+    <row r="8" spans="1:158" s="85" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="85" t="b">
         <v>0</v>
       </c>
       <c r="B8" s="80"/>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="86" t="s">
         <v>232</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="87" t="s">
         <v>141</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="88" t="s">
         <v>233</v>
       </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35" t="s">
+      <c r="F8" s="88"/>
+      <c r="G8" s="88" t="s">
         <v>164</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="90" t="s">
         <v>143</v>
       </c>
-      <c r="J8" s="35">
+      <c r="J8" s="88">
         <v>69</v>
       </c>
-      <c r="K8" s="35" t="s">
+      <c r="K8" s="88" t="s">
         <v>162</v>
       </c>
-      <c r="L8" s="35">
+      <c r="L8" s="88">
         <v>605517846</v>
       </c>
-      <c r="M8" s="35" t="s">
+      <c r="M8" s="88" t="s">
         <v>144</v>
       </c>
-      <c r="N8" s="35" t="s">
+      <c r="N8" s="88" t="s">
         <v>145</v>
       </c>
-      <c r="O8" s="35" t="s">
+      <c r="O8" s="88" t="s">
         <v>146</v>
       </c>
-      <c r="P8" s="35" t="s">
+      <c r="P8" s="88" t="s">
         <v>166</v>
       </c>
-      <c r="Q8" s="35" t="s">
+      <c r="Q8" s="88" t="s">
         <v>147</v>
       </c>
-      <c r="R8" s="38" t="s">
+      <c r="R8" s="91" t="s">
         <v>344</v>
       </c>
-      <c r="S8" s="35" t="s">
+      <c r="S8" s="88" t="s">
         <v>202</v>
       </c>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35" t="s">
+      <c r="T8" s="88"/>
+      <c r="U8" s="88" t="s">
         <v>345</v>
       </c>
-      <c r="V8" s="35" t="s">
+      <c r="V8" s="88" t="s">
         <v>203</v>
       </c>
-      <c r="W8" s="35" t="s">
+      <c r="W8" s="88" t="s">
         <v>166</v>
       </c>
-      <c r="X8" s="35" t="s">
+      <c r="X8" s="88" t="s">
         <v>233</v>
       </c>
-      <c r="Y8" s="35" t="s">
+      <c r="Y8" s="88" t="s">
         <v>147</v>
       </c>
-      <c r="Z8" s="35" t="s">
+      <c r="Z8" s="88" t="s">
         <v>167</v>
       </c>
-      <c r="AA8" s="35" t="s">
+      <c r="AA8" s="88" t="s">
         <v>331</v>
       </c>
-      <c r="AB8" s="35" t="s">
+      <c r="AB8" s="88" t="s">
         <v>227</v>
       </c>
-      <c r="AC8" s="35">
+      <c r="AC8" s="88">
         <v>15520</v>
       </c>
-      <c r="AD8" s="35" t="s">
+      <c r="AD8" s="88" t="s">
         <v>228</v>
       </c>
-      <c r="AE8" s="35" t="s">
+      <c r="AE8" s="88" t="s">
         <v>149</v>
       </c>
-      <c r="AF8" s="35" t="s">
+      <c r="AF8" s="88" t="s">
         <v>205</v>
       </c>
-      <c r="AG8" s="26" t="s">
+      <c r="AG8" s="87" t="s">
         <v>150</v>
       </c>
-      <c r="AH8" s="59" t="s">
+      <c r="AH8" s="92" t="s">
         <v>203</v>
       </c>
-      <c r="AI8" s="35"/>
-      <c r="AJ8" s="35"/>
-      <c r="AK8" s="35"/>
-      <c r="AL8" s="35"/>
-      <c r="AM8" s="35"/>
-      <c r="AN8" s="35"/>
-      <c r="AO8" s="35"/>
-      <c r="AP8" s="35"/>
-      <c r="AQ8" s="35"/>
-      <c r="AR8" s="35"/>
-      <c r="AS8" s="35"/>
-      <c r="AT8" s="35"/>
-      <c r="AU8" s="35"/>
-      <c r="AV8" s="35"/>
-      <c r="AW8" s="35"/>
-      <c r="AX8" s="35"/>
-      <c r="AY8" s="18"/>
-      <c r="AZ8" s="35"/>
-      <c r="BA8" s="35"/>
-      <c r="BB8" s="17">
+      <c r="AI8" s="88"/>
+      <c r="AJ8" s="88"/>
+      <c r="AK8" s="88"/>
+      <c r="AL8" s="88"/>
+      <c r="AM8" s="88"/>
+      <c r="AN8" s="88"/>
+      <c r="AO8" s="88"/>
+      <c r="AP8" s="88"/>
+      <c r="AQ8" s="88"/>
+      <c r="AR8" s="88"/>
+      <c r="AS8" s="88"/>
+      <c r="AT8" s="88"/>
+      <c r="AU8" s="88"/>
+      <c r="AV8" s="88"/>
+      <c r="AW8" s="88"/>
+      <c r="AX8" s="88"/>
+      <c r="AY8" s="93"/>
+      <c r="AZ8" s="88"/>
+      <c r="BA8" s="88"/>
+      <c r="BB8" s="90">
         <v>1</v>
       </c>
-      <c r="BC8" s="17">
+      <c r="BC8" s="90">
         <v>101</v>
       </c>
-      <c r="BD8" s="17">
+      <c r="BD8" s="90">
         <v>123456789</v>
       </c>
-      <c r="BE8" s="35" t="s">
+      <c r="BE8" s="88" t="s">
         <v>195</v>
       </c>
-      <c r="BF8" s="35">
+      <c r="BF8" s="88">
         <v>222326460</v>
       </c>
-      <c r="BG8" s="35" t="s">
+      <c r="BG8" s="88" t="s">
         <v>144</v>
       </c>
-      <c r="BH8" s="35">
+      <c r="BH8" s="88">
         <v>1234567890</v>
       </c>
-      <c r="BI8" s="35">
+      <c r="BI8" s="88">
         <v>12345</v>
       </c>
-      <c r="BJ8" s="35" t="s">
+      <c r="BJ8" s="88" t="s">
         <v>222</v>
       </c>
-      <c r="BK8" s="35" t="s">
+      <c r="BK8" s="88" t="s">
         <v>196</v>
       </c>
-      <c r="BL8" s="35" t="s">
+      <c r="BL8" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="BM8" s="35">
+      <c r="BM8" s="88">
         <v>8975898616</v>
       </c>
-      <c r="BN8" s="35">
+      <c r="BN8" s="88">
         <v>3293</v>
       </c>
-      <c r="BO8" s="35" t="s">
+      <c r="BO8" s="88" t="s">
         <v>197</v>
       </c>
-      <c r="BP8" s="35" t="s">
+      <c r="BP8" s="88" t="s">
         <v>167</v>
       </c>
-      <c r="BQ8" s="35" t="s">
+      <c r="BQ8" s="88" t="s">
         <v>226</v>
       </c>
-      <c r="BR8" s="35" t="s">
+      <c r="BR8" s="88" t="s">
         <v>227</v>
       </c>
-      <c r="BS8" s="35">
+      <c r="BS8" s="88">
         <v>15520</v>
       </c>
-      <c r="BT8" s="35" t="s">
+      <c r="BT8" s="88" t="s">
         <v>228</v>
       </c>
-      <c r="BU8" s="35"/>
-      <c r="BV8" s="35"/>
-      <c r="BW8" s="35"/>
-      <c r="BX8" s="35"/>
-      <c r="BY8" s="35"/>
-      <c r="BZ8" s="35"/>
-      <c r="CA8" s="35"/>
-      <c r="CB8" s="35"/>
-      <c r="CC8" s="35"/>
-      <c r="CD8" s="35"/>
-      <c r="CE8" s="35"/>
-      <c r="CF8" s="35"/>
-      <c r="CG8" s="35"/>
-      <c r="CH8" s="35" t="s">
+      <c r="BU8" s="88"/>
+      <c r="BV8" s="88"/>
+      <c r="BW8" s="88"/>
+      <c r="BX8" s="88"/>
+      <c r="BY8" s="88"/>
+      <c r="BZ8" s="88"/>
+      <c r="CA8" s="88"/>
+      <c r="CB8" s="88"/>
+      <c r="CC8" s="88"/>
+      <c r="CD8" s="88"/>
+      <c r="CE8" s="88"/>
+      <c r="CF8" s="88"/>
+      <c r="CG8" s="88"/>
+      <c r="CH8" s="88" t="s">
         <v>192</v>
       </c>
-      <c r="CI8" s="35">
+      <c r="CI8" s="88">
         <v>12345678</v>
       </c>
-      <c r="CJ8" s="54" t="s">
+      <c r="CJ8" s="94" t="s">
         <v>149</v>
       </c>
-      <c r="CK8" s="54" t="s">
+      <c r="CK8" s="94" t="s">
         <v>215</v>
       </c>
-      <c r="CL8" s="35" t="s">
+      <c r="CL8" s="88" t="s">
         <v>150</v>
       </c>
-      <c r="CM8" s="59" t="s">
+      <c r="CM8" s="92" t="s">
         <v>203</v>
       </c>
-      <c r="CN8" s="26" t="s">
+      <c r="CN8" s="87" t="s">
         <v>190</v>
       </c>
-      <c r="CO8" s="26" t="s">
+      <c r="CO8" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="CP8" s="26">
+      <c r="CP8" s="87">
         <v>2000</v>
       </c>
-      <c r="CQ8" s="26" t="s">
+      <c r="CQ8" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="CR8" s="26">
+      <c r="CR8" s="87">
         <v>50</v>
       </c>
-      <c r="CS8" s="26" t="s">
+      <c r="CS8" s="87" t="s">
         <v>153</v>
       </c>
-      <c r="CT8" s="26" t="s">
+      <c r="CT8" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="CU8" s="26">
+      <c r="CU8" s="87">
         <v>100</v>
       </c>
-      <c r="CV8" s="26" t="s">
+      <c r="CV8" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="CW8" s="26">
+      <c r="CW8" s="87">
         <v>25</v>
       </c>
-      <c r="CX8" s="26" t="s">
+      <c r="CX8" s="87" t="s">
         <v>154</v>
       </c>
-      <c r="CY8" s="26" t="s">
+      <c r="CY8" s="87" t="s">
         <v>155</v>
       </c>
-      <c r="CZ8" s="26">
+      <c r="CZ8" s="87">
         <v>123456789</v>
       </c>
-      <c r="DA8" s="26"/>
-      <c r="DB8" s="26"/>
-      <c r="DC8" s="26">
+      <c r="DA8" s="87"/>
+      <c r="DB8" s="87"/>
+      <c r="DC8" s="87">
         <v>1</v>
       </c>
-      <c r="DD8" s="26" t="s">
+      <c r="DD8" s="87" t="s">
         <v>156</v>
       </c>
-      <c r="DE8" s="26" t="s">
+      <c r="DE8" s="87" t="s">
         <v>203</v>
       </c>
-      <c r="DF8" s="26"/>
-      <c r="DG8" s="26" t="s">
+      <c r="DF8" s="87"/>
+      <c r="DG8" s="87" t="s">
         <v>162</v>
       </c>
-      <c r="DH8" s="35">
+      <c r="DH8" s="88">
         <v>69</v>
       </c>
-      <c r="DI8" s="26">
+      <c r="DI8" s="87">
         <v>1</v>
       </c>
-      <c r="DJ8" s="26" t="s">
+      <c r="DJ8" s="87" t="s">
         <v>158</v>
       </c>
-      <c r="DK8" s="26" t="s">
+      <c r="DK8" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="DL8" s="26">
+      <c r="DL8" s="87">
         <v>100</v>
       </c>
-      <c r="DM8" s="26" t="s">
+      <c r="DM8" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="DN8" s="26">
+      <c r="DN8" s="87">
         <v>2000</v>
       </c>
-      <c r="DO8" s="26" t="s">
+      <c r="DO8" s="87" t="s">
         <v>159</v>
       </c>
-      <c r="DP8" s="35" t="s">
+      <c r="DP8" s="88" t="s">
         <v>160</v>
       </c>
-      <c r="DQ8" s="35" t="s">
+      <c r="DQ8" s="88" t="s">
         <v>223</v>
       </c>
-      <c r="DR8" s="26">
+      <c r="DR8" s="87">
         <v>1</v>
       </c>
-      <c r="DS8" s="35" t="s">
+      <c r="DS8" s="88" t="s">
         <v>152</v>
       </c>
-      <c r="DT8" s="35">
+      <c r="DT8" s="88">
         <v>800</v>
       </c>
-      <c r="DU8" s="35" t="s">
+      <c r="DU8" s="88" t="s">
         <v>162</v>
       </c>
-      <c r="DV8" s="35">
+      <c r="DV8" s="88">
         <v>69</v>
       </c>
-      <c r="DW8" s="35">
+      <c r="DW8" s="88">
         <v>20</v>
       </c>
-      <c r="DX8" s="35">
+      <c r="DX8" s="88">
         <v>20</v>
       </c>
-      <c r="DY8" s="35">
+      <c r="DY8" s="88">
         <v>20</v>
       </c>
-      <c r="DZ8" s="35" t="s">
+      <c r="DZ8" s="88" t="s">
         <v>163</v>
       </c>
-      <c r="EA8" s="35" t="s">
+      <c r="EA8" s="88" t="s">
         <v>155</v>
       </c>
-      <c r="EB8" s="35" t="s">
+      <c r="EB8" s="88" t="s">
         <v>150</v>
       </c>
-      <c r="EC8" s="35"/>
-      <c r="ED8" s="35"/>
-      <c r="EE8" s="35"/>
-      <c r="EF8" s="35"/>
-      <c r="EG8" s="35"/>
-      <c r="EH8" s="35"/>
-      <c r="EI8" s="35"/>
-      <c r="EJ8" s="35"/>
-      <c r="EK8" s="35"/>
-      <c r="EL8" s="35"/>
-      <c r="EM8" s="26"/>
-      <c r="EN8" s="26"/>
-      <c r="EO8" s="26"/>
-      <c r="EP8" s="26"/>
-      <c r="EQ8" s="26"/>
-      <c r="ER8" s="26"/>
-      <c r="ES8" s="26"/>
-      <c r="ET8" s="26"/>
-      <c r="EU8" s="26"/>
-      <c r="EV8" s="26"/>
-      <c r="EW8" s="26"/>
-      <c r="EX8" s="26"/>
-      <c r="EY8" s="26"/>
-      <c r="EZ8" s="26"/>
-      <c r="FA8" s="26"/>
-      <c r="FB8" s="28"/>
+      <c r="EC8" s="88"/>
+      <c r="ED8" s="88"/>
+      <c r="EE8" s="88"/>
+      <c r="EF8" s="88"/>
+      <c r="EG8" s="88"/>
+      <c r="EH8" s="88"/>
+      <c r="EI8" s="88"/>
+      <c r="EJ8" s="88"/>
+      <c r="EK8" s="88"/>
+      <c r="EL8" s="88"/>
+      <c r="EM8" s="87"/>
+      <c r="EN8" s="87"/>
+      <c r="EO8" s="87"/>
+      <c r="EP8" s="87"/>
+      <c r="EQ8" s="87"/>
+      <c r="ER8" s="87"/>
+      <c r="ES8" s="87"/>
+      <c r="ET8" s="87"/>
+      <c r="EU8" s="87"/>
+      <c r="EV8" s="87"/>
+      <c r="EW8" s="87"/>
+      <c r="EX8" s="87"/>
+      <c r="EY8" s="87"/>
+      <c r="EZ8" s="87"/>
+      <c r="FA8" s="87"/>
+      <c r="FB8" s="95"/>
     </row>
     <row r="9" spans="1:158" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="b">
@@ -6414,689 +6492,685 @@
       <c r="FA10" s="26"/>
       <c r="FB10" s="28"/>
     </row>
-    <row r="11" spans="1:158" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="b">
+    <row r="11" spans="1:158" s="96" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="96" t="b">
         <v>0</v>
       </c>
       <c r="B11" s="80"/>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="97" t="s">
         <v>241</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35" t="s">
+      <c r="F11" s="99"/>
+      <c r="G11" s="99" t="s">
         <v>164</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="100" t="s">
         <v>165</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="101" t="s">
         <v>143</v>
       </c>
-      <c r="J11" s="35">
+      <c r="J11" s="99">
         <v>30</v>
       </c>
-      <c r="K11" s="35" t="s">
+      <c r="K11" s="99" t="s">
         <v>162</v>
       </c>
-      <c r="L11" s="35">
+      <c r="L11" s="99">
         <v>605517846</v>
       </c>
-      <c r="M11" s="35" t="s">
+      <c r="M11" s="99" t="s">
         <v>144</v>
       </c>
-      <c r="N11" s="35" t="s">
+      <c r="N11" s="99" t="s">
         <v>145</v>
       </c>
-      <c r="O11" s="35" t="s">
+      <c r="O11" s="99" t="s">
         <v>146</v>
       </c>
-      <c r="P11" s="35" t="s">
+      <c r="P11" s="99" t="s">
         <v>166</v>
       </c>
-      <c r="Q11" s="35" t="s">
+      <c r="Q11" s="99" t="s">
         <v>147</v>
       </c>
-      <c r="R11" s="38" t="s">
+      <c r="R11" s="102" t="s">
         <v>344</v>
       </c>
-      <c r="S11" s="35" t="s">
+      <c r="S11" s="99" t="s">
         <v>202</v>
       </c>
-      <c r="T11" s="35"/>
-      <c r="U11" s="35" t="s">
+      <c r="T11" s="99"/>
+      <c r="U11" s="99" t="s">
         <v>345</v>
       </c>
-      <c r="V11" s="35" t="s">
+      <c r="V11" s="99" t="s">
         <v>203</v>
       </c>
-      <c r="W11" s="35" t="s">
+      <c r="W11" s="99" t="s">
         <v>166</v>
       </c>
-      <c r="X11" s="35" t="s">
+      <c r="X11" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="Y11" s="35" t="s">
+      <c r="Y11" s="99" t="s">
         <v>147</v>
       </c>
-      <c r="Z11" s="35" t="s">
+      <c r="Z11" s="99" t="s">
         <v>167</v>
       </c>
-      <c r="AA11" s="35" t="s">
+      <c r="AA11" s="99" t="s">
         <v>237</v>
       </c>
-      <c r="AB11" s="35" t="s">
+      <c r="AB11" s="99" t="s">
         <v>238</v>
       </c>
-      <c r="AC11" s="35">
+      <c r="AC11" s="99">
         <v>30339</v>
       </c>
-      <c r="AD11" s="35" t="s">
+      <c r="AD11" s="99" t="s">
         <v>157</v>
       </c>
-      <c r="AE11" s="35" t="s">
+      <c r="AE11" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="AF11" s="35" t="s">
+      <c r="AF11" s="99" t="s">
         <v>205</v>
       </c>
-      <c r="AG11" s="26" t="s">
+      <c r="AG11" s="98" t="s">
         <v>150</v>
       </c>
-      <c r="AH11" s="59" t="s">
+      <c r="AH11" s="103" t="s">
         <v>203</v>
       </c>
-      <c r="AI11" s="35"/>
-      <c r="AJ11" s="35"/>
-      <c r="AK11" s="35"/>
-      <c r="AL11" s="35"/>
-      <c r="AM11" s="35"/>
-      <c r="AN11" s="35"/>
-      <c r="AO11" s="35"/>
-      <c r="AP11" s="35"/>
-      <c r="AQ11" s="35"/>
-      <c r="AR11" s="35"/>
-      <c r="AS11" s="35"/>
-      <c r="AT11" s="35"/>
-      <c r="AU11" s="35"/>
-      <c r="AV11" s="35"/>
-      <c r="AW11" s="35"/>
-      <c r="AX11" s="35"/>
-      <c r="AY11" s="18"/>
-      <c r="AZ11" s="35"/>
-      <c r="BA11" s="35"/>
-      <c r="BB11" s="17"/>
-      <c r="BC11" s="17"/>
-      <c r="BD11" s="17"/>
-      <c r="BE11" s="35"/>
-      <c r="BF11" s="35"/>
-      <c r="BG11" s="35"/>
-      <c r="BH11" s="35"/>
-      <c r="BI11" s="35"/>
-      <c r="BJ11" s="35"/>
-      <c r="BK11" s="35"/>
-      <c r="BL11" s="35"/>
-      <c r="BM11" s="35"/>
-      <c r="BN11" s="35"/>
-      <c r="BO11" s="35"/>
-      <c r="BP11" s="35"/>
-      <c r="BQ11" s="35"/>
-      <c r="BR11" s="35"/>
-      <c r="BS11" s="35"/>
-      <c r="BT11" s="35"/>
-      <c r="BU11" s="35"/>
-      <c r="BV11" s="35"/>
-      <c r="BW11" s="35"/>
-      <c r="BX11" s="35"/>
-      <c r="BY11" s="35"/>
-      <c r="BZ11" s="35"/>
-      <c r="CA11" s="35"/>
-      <c r="CB11" s="35"/>
-      <c r="CC11" s="35"/>
-      <c r="CD11" s="35"/>
-      <c r="CE11" s="35"/>
-      <c r="CF11" s="35"/>
-      <c r="CG11" s="35"/>
-      <c r="CH11" s="35"/>
-      <c r="CI11" s="35"/>
-      <c r="CJ11" s="54" t="s">
+      <c r="AI11" s="99"/>
+      <c r="AJ11" s="99"/>
+      <c r="AK11" s="99"/>
+      <c r="AL11" s="99"/>
+      <c r="AM11" s="99"/>
+      <c r="AN11" s="99"/>
+      <c r="AO11" s="99"/>
+      <c r="AP11" s="99"/>
+      <c r="AQ11" s="99"/>
+      <c r="AR11" s="99"/>
+      <c r="AS11" s="99"/>
+      <c r="AT11" s="99"/>
+      <c r="AU11" s="99"/>
+      <c r="AV11" s="99"/>
+      <c r="AW11" s="99"/>
+      <c r="AX11" s="99"/>
+      <c r="AY11" s="104"/>
+      <c r="AZ11" s="99"/>
+      <c r="BA11" s="99"/>
+      <c r="BB11" s="101"/>
+      <c r="BC11" s="101"/>
+      <c r="BD11" s="101"/>
+      <c r="BE11" s="99"/>
+      <c r="BF11" s="99"/>
+      <c r="BG11" s="99"/>
+      <c r="BH11" s="99"/>
+      <c r="BI11" s="99"/>
+      <c r="BJ11" s="99"/>
+      <c r="BK11" s="99"/>
+      <c r="BL11" s="99"/>
+      <c r="BM11" s="99"/>
+      <c r="BN11" s="99"/>
+      <c r="BO11" s="99"/>
+      <c r="BP11" s="99"/>
+      <c r="BQ11" s="99"/>
+      <c r="BR11" s="99"/>
+      <c r="BS11" s="99"/>
+      <c r="BT11" s="99"/>
+      <c r="BU11" s="99"/>
+      <c r="BV11" s="99"/>
+      <c r="BW11" s="99"/>
+      <c r="BX11" s="99"/>
+      <c r="BY11" s="99"/>
+      <c r="BZ11" s="99"/>
+      <c r="CA11" s="99"/>
+      <c r="CB11" s="99"/>
+      <c r="CC11" s="99"/>
+      <c r="CD11" s="99"/>
+      <c r="CE11" s="99"/>
+      <c r="CF11" s="99"/>
+      <c r="CG11" s="99"/>
+      <c r="CH11" s="99"/>
+      <c r="CI11" s="99"/>
+      <c r="CJ11" s="105" t="s">
         <v>149</v>
       </c>
-      <c r="CK11" s="54" t="s">
+      <c r="CK11" s="105" t="s">
         <v>215</v>
       </c>
-      <c r="CL11" s="35" t="s">
+      <c r="CL11" s="99" t="s">
         <v>150</v>
       </c>
-      <c r="CM11" s="59" t="s">
+      <c r="CM11" s="103" t="s">
         <v>203</v>
       </c>
-      <c r="CN11" s="26" t="s">
+      <c r="CN11" s="98" t="s">
         <v>190</v>
       </c>
-      <c r="CO11" s="26" t="s">
+      <c r="CO11" s="98" t="s">
         <v>152</v>
       </c>
-      <c r="CP11" s="26">
+      <c r="CP11" s="98">
         <v>55</v>
       </c>
-      <c r="CQ11" s="26" t="s">
+      <c r="CQ11" s="98" t="s">
         <v>152</v>
       </c>
-      <c r="CR11" s="26">
+      <c r="CR11" s="98">
         <v>50</v>
       </c>
-      <c r="CS11" s="26" t="s">
+      <c r="CS11" s="98" t="s">
         <v>153</v>
       </c>
-      <c r="CT11" s="26" t="s">
+      <c r="CT11" s="98" t="s">
         <v>152</v>
       </c>
-      <c r="CU11" s="26">
+      <c r="CU11" s="98">
         <v>100</v>
       </c>
-      <c r="CV11" s="26" t="s">
+      <c r="CV11" s="98" t="s">
         <v>152</v>
       </c>
-      <c r="CW11" s="26">
+      <c r="CW11" s="98">
         <v>25</v>
       </c>
-      <c r="CX11" s="26" t="s">
+      <c r="CX11" s="98" t="s">
         <v>154</v>
       </c>
-      <c r="CY11" s="26" t="s">
+      <c r="CY11" s="98" t="s">
         <v>155</v>
       </c>
-      <c r="CZ11" s="26">
+      <c r="CZ11" s="98">
         <v>123456789</v>
       </c>
-      <c r="DA11" s="26"/>
-      <c r="DB11" s="26"/>
-      <c r="DC11" s="26">
+      <c r="DA11" s="98"/>
+      <c r="DB11" s="98"/>
+      <c r="DC11" s="98">
         <v>1</v>
       </c>
-      <c r="DD11" s="26" t="s">
+      <c r="DD11" s="98" t="s">
         <v>156</v>
       </c>
-      <c r="DE11" s="26" t="s">
+      <c r="DE11" s="98" t="s">
         <v>203</v>
       </c>
-      <c r="DF11" s="26"/>
-      <c r="DG11" s="26" t="s">
+      <c r="DF11" s="98"/>
+      <c r="DG11" s="98" t="s">
         <v>162</v>
       </c>
-      <c r="DH11" s="35">
+      <c r="DH11" s="99">
         <v>30</v>
       </c>
-      <c r="DI11" s="26">
+      <c r="DI11" s="98">
         <v>1</v>
       </c>
-      <c r="DJ11" s="26" t="s">
+      <c r="DJ11" s="98" t="s">
         <v>158</v>
       </c>
-      <c r="DK11" s="26" t="s">
+      <c r="DK11" s="98" t="s">
         <v>152</v>
       </c>
-      <c r="DL11" s="26">
+      <c r="DL11" s="98">
         <v>100</v>
       </c>
-      <c r="DM11" s="26" t="s">
+      <c r="DM11" s="98" t="s">
         <v>152</v>
       </c>
-      <c r="DN11" s="26">
+      <c r="DN11" s="98">
         <v>55</v>
       </c>
-      <c r="DO11" s="26" t="s">
+      <c r="DO11" s="98" t="s">
         <v>159</v>
       </c>
-      <c r="DP11" s="35" t="s">
+      <c r="DP11" s="99" t="s">
         <v>160</v>
       </c>
-      <c r="DQ11" s="35" t="s">
+      <c r="DQ11" s="99" t="s">
         <v>223</v>
       </c>
-      <c r="DR11" s="26">
+      <c r="DR11" s="98">
         <v>1</v>
       </c>
-      <c r="DS11" s="35" t="s">
+      <c r="DS11" s="99" t="s">
         <v>152</v>
       </c>
-      <c r="DT11" s="35">
+      <c r="DT11" s="99">
         <v>55</v>
       </c>
-      <c r="DU11" s="35" t="s">
+      <c r="DU11" s="99" t="s">
         <v>162</v>
       </c>
-      <c r="DV11" s="35">
+      <c r="DV11" s="99">
         <v>30</v>
       </c>
-      <c r="DW11" s="35">
+      <c r="DW11" s="99">
         <v>20</v>
       </c>
-      <c r="DX11" s="35">
+      <c r="DX11" s="99">
         <v>20</v>
       </c>
-      <c r="DY11" s="35">
+      <c r="DY11" s="99">
         <v>20</v>
       </c>
-      <c r="DZ11" s="35" t="s">
+      <c r="DZ11" s="99" t="s">
         <v>163</v>
       </c>
-      <c r="EA11" s="35" t="s">
+      <c r="EA11" s="99" t="s">
         <v>155</v>
       </c>
-      <c r="EB11" s="35" t="s">
+      <c r="EB11" s="99" t="s">
         <v>150</v>
       </c>
-      <c r="EC11" s="35" t="s">
+      <c r="EC11" s="99" t="s">
         <v>175</v>
       </c>
-      <c r="ED11" s="35"/>
-      <c r="EE11" s="35"/>
-      <c r="EF11" s="35"/>
-      <c r="EG11" s="35"/>
-      <c r="EH11" s="35"/>
-      <c r="EI11" s="35"/>
-      <c r="EJ11" s="35"/>
-      <c r="EK11" s="35" t="s">
+      <c r="ED11" s="99"/>
+      <c r="EE11" s="99"/>
+      <c r="EF11" s="99"/>
+      <c r="EG11" s="99"/>
+      <c r="EH11" s="99"/>
+      <c r="EI11" s="99"/>
+      <c r="EJ11" s="99"/>
+      <c r="EK11" s="99" t="s">
         <v>176</v>
       </c>
-      <c r="EL11" s="35"/>
-      <c r="EM11" s="26" t="s">
-        <v>348</v>
-      </c>
-      <c r="EN11" s="26" t="s">
+      <c r="EL11" s="99"/>
+      <c r="EM11" s="98"/>
+      <c r="EN11" s="98" t="s">
         <v>177</v>
       </c>
-      <c r="EO11" s="26">
+      <c r="EO11" s="98">
         <v>1</v>
       </c>
-      <c r="EP11" s="26">
+      <c r="EP11" s="98">
         <v>1090</v>
       </c>
-      <c r="EQ11" s="26">
+      <c r="EQ11" s="98">
         <v>1</v>
       </c>
-      <c r="ER11" s="26" t="s">
+      <c r="ER11" s="98" t="s">
         <v>178</v>
       </c>
-      <c r="ES11" s="26">
+      <c r="ES11" s="98">
         <v>0</v>
       </c>
-      <c r="ET11" s="26" t="s">
+      <c r="ET11" s="98" t="s">
         <v>179</v>
       </c>
-      <c r="EU11" s="26" t="s">
+      <c r="EU11" s="98" t="s">
         <v>180</v>
       </c>
-      <c r="EV11" s="26">
+      <c r="EV11" s="98">
         <v>3</v>
       </c>
-      <c r="EW11" s="26">
+      <c r="EW11" s="98">
         <v>1</v>
       </c>
-      <c r="EX11" s="26" t="s">
+      <c r="EX11" s="98" t="s">
         <v>181</v>
       </c>
-      <c r="EY11" s="26" t="s">
+      <c r="EY11" s="98" t="s">
         <v>243</v>
       </c>
-      <c r="EZ11" s="26" t="s">
+      <c r="EZ11" s="98" t="s">
         <v>244</v>
       </c>
-      <c r="FA11" s="26" t="s">
+      <c r="FA11" s="98" t="s">
         <v>245</v>
       </c>
-      <c r="FB11" s="28">
+      <c r="FB11" s="106">
         <v>9015551234</v>
       </c>
     </row>
-    <row r="12" spans="1:158" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="b">
+    <row r="12" spans="1:158" s="96" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="96" t="b">
         <v>0</v>
       </c>
       <c r="B12" s="80"/>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="97" t="s">
         <v>246</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="99" t="s">
         <v>242</v>
       </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35" t="s">
+      <c r="F12" s="99"/>
+      <c r="G12" s="99" t="s">
         <v>164</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="H12" s="100" t="s">
         <v>165</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="101" t="s">
         <v>143</v>
       </c>
-      <c r="J12" s="35">
+      <c r="J12" s="99">
         <v>50</v>
       </c>
-      <c r="K12" s="35" t="s">
+      <c r="K12" s="99" t="s">
         <v>162</v>
       </c>
-      <c r="L12" s="35">
+      <c r="L12" s="99">
         <v>605517846</v>
       </c>
-      <c r="M12" s="35" t="s">
+      <c r="M12" s="99" t="s">
         <v>144</v>
       </c>
-      <c r="N12" s="35" t="s">
+      <c r="N12" s="99" t="s">
         <v>145</v>
       </c>
-      <c r="O12" s="35" t="s">
+      <c r="O12" s="99" t="s">
         <v>146</v>
       </c>
-      <c r="P12" s="35" t="s">
+      <c r="P12" s="99" t="s">
         <v>166</v>
       </c>
-      <c r="Q12" s="35" t="s">
+      <c r="Q12" s="99" t="s">
         <v>147</v>
       </c>
-      <c r="R12" s="38" t="s">
+      <c r="R12" s="102" t="s">
         <v>344</v>
       </c>
-      <c r="S12" s="35" t="s">
+      <c r="S12" s="99" t="s">
         <v>202</v>
       </c>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35" t="s">
+      <c r="T12" s="99"/>
+      <c r="U12" s="99" t="s">
         <v>345</v>
       </c>
-      <c r="V12" s="35" t="s">
+      <c r="V12" s="99" t="s">
         <v>203</v>
       </c>
-      <c r="W12" s="35" t="s">
+      <c r="W12" s="99" t="s">
         <v>166</v>
       </c>
-      <c r="X12" s="35" t="s">
+      <c r="X12" s="99" t="s">
         <v>242</v>
       </c>
-      <c r="Y12" s="35" t="s">
+      <c r="Y12" s="99" t="s">
         <v>147</v>
       </c>
-      <c r="Z12" s="35" t="s">
+      <c r="Z12" s="99" t="s">
         <v>167</v>
       </c>
-      <c r="AA12" s="35" t="s">
+      <c r="AA12" s="99" t="s">
         <v>334</v>
       </c>
-      <c r="AB12" s="35" t="s">
+      <c r="AB12" s="99" t="s">
         <v>172</v>
       </c>
-      <c r="AC12" s="35">
+      <c r="AC12" s="99">
         <v>38117</v>
       </c>
-      <c r="AD12" s="35" t="s">
+      <c r="AD12" s="99" t="s">
         <v>157</v>
       </c>
-      <c r="AE12" s="35" t="s">
+      <c r="AE12" s="99" t="s">
         <v>248</v>
       </c>
-      <c r="AF12" s="35">
+      <c r="AF12" s="99">
         <v>150067600</v>
       </c>
-      <c r="AG12" s="26" t="s">
+      <c r="AG12" s="98" t="s">
         <v>150</v>
       </c>
-      <c r="AH12" s="59" t="s">
+      <c r="AH12" s="103" t="s">
         <v>157</v>
       </c>
-      <c r="AI12" s="35"/>
-      <c r="AJ12" s="35"/>
-      <c r="AK12" s="35"/>
-      <c r="AL12" s="35"/>
-      <c r="AM12" s="35"/>
-      <c r="AN12" s="35"/>
-      <c r="AO12" s="35"/>
-      <c r="AP12" s="35"/>
-      <c r="AQ12" s="35"/>
-      <c r="AR12" s="35"/>
-      <c r="AS12" s="35"/>
-      <c r="AT12" s="35"/>
-      <c r="AU12" s="35"/>
-      <c r="AV12" s="35"/>
-      <c r="AW12" s="35"/>
-      <c r="AX12" s="35"/>
-      <c r="AY12" s="18"/>
-      <c r="AZ12" s="35"/>
-      <c r="BA12" s="35"/>
-      <c r="BB12" s="17"/>
-      <c r="BC12" s="17"/>
-      <c r="BD12" s="17"/>
-      <c r="BE12" s="35"/>
-      <c r="BF12" s="35"/>
-      <c r="BG12" s="35"/>
-      <c r="BH12" s="35"/>
-      <c r="BI12" s="35"/>
-      <c r="BJ12" s="35"/>
-      <c r="BK12" s="35"/>
-      <c r="BL12" s="35"/>
-      <c r="BM12" s="35"/>
-      <c r="BN12" s="35"/>
-      <c r="BO12" s="35"/>
-      <c r="BP12" s="35"/>
-      <c r="BQ12" s="35"/>
-      <c r="BR12" s="35"/>
-      <c r="BS12" s="35"/>
-      <c r="BT12" s="35"/>
-      <c r="BU12" s="35"/>
-      <c r="BV12" s="35"/>
-      <c r="BW12" s="35"/>
-      <c r="BX12" s="35"/>
-      <c r="BY12" s="35"/>
-      <c r="BZ12" s="35"/>
-      <c r="CA12" s="35"/>
-      <c r="CB12" s="35"/>
-      <c r="CC12" s="35"/>
-      <c r="CD12" s="35"/>
-      <c r="CE12" s="35"/>
-      <c r="CF12" s="35"/>
-      <c r="CG12" s="35"/>
-      <c r="CH12" s="35"/>
-      <c r="CI12" s="35"/>
-      <c r="CJ12" s="54" t="s">
+      <c r="AI12" s="99"/>
+      <c r="AJ12" s="99"/>
+      <c r="AK12" s="99"/>
+      <c r="AL12" s="99"/>
+      <c r="AM12" s="99"/>
+      <c r="AN12" s="99"/>
+      <c r="AO12" s="99"/>
+      <c r="AP12" s="99"/>
+      <c r="AQ12" s="99"/>
+      <c r="AR12" s="99"/>
+      <c r="AS12" s="99"/>
+      <c r="AT12" s="99"/>
+      <c r="AU12" s="99"/>
+      <c r="AV12" s="99"/>
+      <c r="AW12" s="99"/>
+      <c r="AX12" s="99"/>
+      <c r="AY12" s="104"/>
+      <c r="AZ12" s="99"/>
+      <c r="BA12" s="99"/>
+      <c r="BB12" s="101"/>
+      <c r="BC12" s="101"/>
+      <c r="BD12" s="101"/>
+      <c r="BE12" s="99"/>
+      <c r="BF12" s="99"/>
+      <c r="BG12" s="99"/>
+      <c r="BH12" s="99"/>
+      <c r="BI12" s="99"/>
+      <c r="BJ12" s="99"/>
+      <c r="BK12" s="99"/>
+      <c r="BL12" s="99"/>
+      <c r="BM12" s="99"/>
+      <c r="BN12" s="99"/>
+      <c r="BO12" s="99"/>
+      <c r="BP12" s="99"/>
+      <c r="BQ12" s="99"/>
+      <c r="BR12" s="99"/>
+      <c r="BS12" s="99"/>
+      <c r="BT12" s="99"/>
+      <c r="BU12" s="99"/>
+      <c r="BV12" s="99"/>
+      <c r="BW12" s="99"/>
+      <c r="BX12" s="99"/>
+      <c r="BY12" s="99"/>
+      <c r="BZ12" s="99"/>
+      <c r="CA12" s="99"/>
+      <c r="CB12" s="99"/>
+      <c r="CC12" s="99"/>
+      <c r="CD12" s="99"/>
+      <c r="CE12" s="99"/>
+      <c r="CF12" s="99"/>
+      <c r="CG12" s="99"/>
+      <c r="CH12" s="99"/>
+      <c r="CI12" s="99"/>
+      <c r="CJ12" s="105" t="s">
         <v>248</v>
       </c>
-      <c r="CK12" s="54">
+      <c r="CK12" s="105">
         <v>214877600</v>
       </c>
-      <c r="CL12" s="35" t="s">
+      <c r="CL12" s="99" t="s">
         <v>150</v>
       </c>
-      <c r="CM12" s="59" t="s">
+      <c r="CM12" s="103" t="s">
         <v>157</v>
       </c>
-      <c r="CN12" s="26" t="s">
+      <c r="CN12" s="98" t="s">
         <v>190</v>
       </c>
-      <c r="CO12" s="26" t="s">
+      <c r="CO12" s="98" t="s">
         <v>152</v>
       </c>
-      <c r="CP12" s="26">
+      <c r="CP12" s="98">
         <v>200</v>
       </c>
-      <c r="CQ12" s="26" t="s">
+      <c r="CQ12" s="98" t="s">
         <v>152</v>
       </c>
-      <c r="CR12" s="26">
+      <c r="CR12" s="98">
         <v>50</v>
       </c>
-      <c r="CS12" s="26" t="s">
+      <c r="CS12" s="98" t="s">
         <v>153</v>
       </c>
-      <c r="CT12" s="26" t="s">
+      <c r="CT12" s="98" t="s">
         <v>152</v>
       </c>
-      <c r="CU12" s="26">
+      <c r="CU12" s="98">
         <v>100</v>
       </c>
-      <c r="CV12" s="26" t="s">
+      <c r="CV12" s="98" t="s">
         <v>152</v>
       </c>
-      <c r="CW12" s="26">
+      <c r="CW12" s="98">
         <v>25</v>
       </c>
-      <c r="CX12" s="26" t="s">
+      <c r="CX12" s="98" t="s">
         <v>154</v>
       </c>
-      <c r="CY12" s="26" t="s">
+      <c r="CY12" s="98" t="s">
         <v>155</v>
       </c>
-      <c r="CZ12" s="26">
+      <c r="CZ12" s="98">
         <v>123456789</v>
       </c>
-      <c r="DA12" s="26"/>
-      <c r="DB12" s="26"/>
-      <c r="DC12" s="26">
+      <c r="DA12" s="98"/>
+      <c r="DB12" s="98"/>
+      <c r="DC12" s="98">
         <v>1</v>
       </c>
-      <c r="DD12" s="26" t="s">
+      <c r="DD12" s="98" t="s">
         <v>156</v>
       </c>
-      <c r="DE12" s="26" t="s">
+      <c r="DE12" s="98" t="s">
         <v>203</v>
       </c>
-      <c r="DF12" s="26"/>
-      <c r="DG12" s="26" t="s">
+      <c r="DF12" s="98"/>
+      <c r="DG12" s="98" t="s">
         <v>162</v>
       </c>
-      <c r="DH12" s="35">
+      <c r="DH12" s="99">
         <v>50</v>
       </c>
-      <c r="DI12" s="26">
+      <c r="DI12" s="98">
         <v>1</v>
       </c>
-      <c r="DJ12" s="26" t="s">
+      <c r="DJ12" s="98" t="s">
         <v>158</v>
       </c>
-      <c r="DK12" s="26" t="s">
+      <c r="DK12" s="98" t="s">
         <v>152</v>
       </c>
-      <c r="DL12" s="26">
+      <c r="DL12" s="98">
         <v>100</v>
       </c>
-      <c r="DM12" s="26" t="s">
+      <c r="DM12" s="98" t="s">
         <v>152</v>
       </c>
-      <c r="DN12" s="26">
+      <c r="DN12" s="98">
         <v>200</v>
       </c>
-      <c r="DO12" s="26" t="s">
+      <c r="DO12" s="98" t="s">
         <v>159</v>
       </c>
-      <c r="DP12" s="35" t="s">
+      <c r="DP12" s="99" t="s">
         <v>160</v>
       </c>
-      <c r="DQ12" s="35" t="s">
+      <c r="DQ12" s="99" t="s">
         <v>161</v>
       </c>
-      <c r="DR12" s="26">
+      <c r="DR12" s="98">
         <v>1</v>
       </c>
-      <c r="DS12" s="35" t="s">
+      <c r="DS12" s="99" t="s">
         <v>152</v>
       </c>
-      <c r="DT12" s="35">
+      <c r="DT12" s="99">
         <v>100</v>
       </c>
-      <c r="DU12" s="35" t="s">
+      <c r="DU12" s="99" t="s">
         <v>162</v>
       </c>
-      <c r="DV12" s="35">
+      <c r="DV12" s="99">
         <v>50</v>
       </c>
-      <c r="DW12" s="35">
+      <c r="DW12" s="99">
         <v>20</v>
       </c>
-      <c r="DX12" s="35">
+      <c r="DX12" s="99">
         <v>15</v>
       </c>
-      <c r="DY12" s="35">
+      <c r="DY12" s="99">
         <v>20</v>
       </c>
-      <c r="DZ12" s="35" t="s">
+      <c r="DZ12" s="99" t="s">
         <v>163</v>
       </c>
-      <c r="EA12" s="35" t="s">
+      <c r="EA12" s="99" t="s">
         <v>155</v>
       </c>
-      <c r="EB12" s="35" t="s">
+      <c r="EB12" s="99" t="s">
         <v>150</v>
       </c>
-      <c r="EC12" s="35" t="s">
+      <c r="EC12" s="99" t="s">
         <v>175</v>
       </c>
-      <c r="ED12" s="35"/>
-      <c r="EE12" s="35"/>
-      <c r="EF12" s="35"/>
-      <c r="EG12" s="35"/>
-      <c r="EH12" s="35"/>
-      <c r="EI12" s="35"/>
-      <c r="EJ12" s="35"/>
-      <c r="EK12" s="35" t="s">
+      <c r="ED12" s="99"/>
+      <c r="EE12" s="99"/>
+      <c r="EF12" s="99"/>
+      <c r="EG12" s="99"/>
+      <c r="EH12" s="99"/>
+      <c r="EI12" s="99"/>
+      <c r="EJ12" s="99"/>
+      <c r="EK12" s="99" t="s">
         <v>182</v>
       </c>
-      <c r="EL12" s="35">
+      <c r="EL12" s="99">
         <v>1</v>
       </c>
-      <c r="EM12" s="26" t="s">
-        <v>348</v>
-      </c>
-      <c r="EN12" s="26" t="s">
+      <c r="EM12" s="98"/>
+      <c r="EN12" s="98" t="s">
         <v>177</v>
       </c>
-      <c r="EO12" s="26">
+      <c r="EO12" s="98">
         <v>1</v>
       </c>
-      <c r="EP12" s="26">
+      <c r="EP12" s="98">
         <v>1888</v>
       </c>
-      <c r="EQ12" s="26">
+      <c r="EQ12" s="98">
         <v>1</v>
       </c>
-      <c r="ER12" s="26" t="s">
+      <c r="ER12" s="98" t="s">
         <v>183</v>
       </c>
-      <c r="ES12" s="26">
+      <c r="ES12" s="98">
         <v>1</v>
       </c>
-      <c r="ET12" s="26">
+      <c r="ET12" s="98">
         <v>680</v>
       </c>
-      <c r="EU12" s="26" t="s">
+      <c r="EU12" s="98" t="s">
         <v>184</v>
       </c>
-      <c r="EV12" s="26">
+      <c r="EV12" s="98">
         <v>6.1</v>
       </c>
-      <c r="EW12" s="26">
+      <c r="EW12" s="98">
         <v>1</v>
       </c>
-      <c r="EX12" s="26" t="s">
+      <c r="EX12" s="98" t="s">
         <v>181</v>
       </c>
-      <c r="EY12" s="26" t="s">
+      <c r="EY12" s="98" t="s">
         <v>243</v>
       </c>
-      <c r="EZ12" s="26" t="s">
+      <c r="EZ12" s="98" t="s">
         <v>244</v>
       </c>
-      <c r="FA12" s="26" t="s">
+      <c r="FA12" s="98" t="s">
         <v>245</v>
       </c>
-      <c r="FB12" s="28">
+      <c r="FB12" s="106">
         <v>9015551234</v>
       </c>
     </row>
